--- a/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2294500</v>
+        <v>2278700</v>
       </c>
       <c r="E8" s="3">
-        <v>1482200</v>
+        <v>1472100</v>
       </c>
       <c r="F8" s="3">
-        <v>1348600</v>
+        <v>1339300</v>
       </c>
       <c r="G8" s="3">
-        <v>819200</v>
+        <v>813500</v>
       </c>
       <c r="H8" s="3">
-        <v>876400</v>
+        <v>870400</v>
       </c>
       <c r="I8" s="3">
-        <v>710100</v>
+        <v>705200</v>
       </c>
       <c r="J8" s="3">
-        <v>624100</v>
+        <v>619900</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1065400</v>
+        <v>1058100</v>
       </c>
       <c r="E9" s="3">
-        <v>904500</v>
+        <v>898300</v>
       </c>
       <c r="F9" s="3">
-        <v>860200</v>
+        <v>854300</v>
       </c>
       <c r="G9" s="3">
-        <v>626400</v>
+        <v>622100</v>
       </c>
       <c r="H9" s="3">
-        <v>606900</v>
+        <v>602800</v>
       </c>
       <c r="I9" s="3">
-        <v>598500</v>
+        <v>594400</v>
       </c>
       <c r="J9" s="3">
-        <v>503700</v>
+        <v>500300</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1229100</v>
+        <v>1220700</v>
       </c>
       <c r="E10" s="3">
-        <v>577800</v>
+        <v>573800</v>
       </c>
       <c r="F10" s="3">
-        <v>488300</v>
+        <v>485000</v>
       </c>
       <c r="G10" s="3">
-        <v>192800</v>
+        <v>191400</v>
       </c>
       <c r="H10" s="3">
-        <v>269400</v>
+        <v>267600</v>
       </c>
       <c r="I10" s="3">
-        <v>111600</v>
+        <v>110900</v>
       </c>
       <c r="J10" s="3">
-        <v>120400</v>
+        <v>119600</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -859,25 +859,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-205200</v>
+        <v>-203800</v>
       </c>
       <c r="E14" s="3">
-        <v>-171000</v>
+        <v>-169800</v>
       </c>
       <c r="F14" s="3">
-        <v>29200</v>
+        <v>29000</v>
       </c>
       <c r="G14" s="3">
         <v>-1100</v>
       </c>
       <c r="H14" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="I14" s="3">
-        <v>167800</v>
+        <v>166700</v>
       </c>
       <c r="J14" s="3">
-        <v>978700</v>
+        <v>972000</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>944000</v>
+        <v>937500</v>
       </c>
       <c r="E17" s="3">
-        <v>830600</v>
+        <v>824900</v>
       </c>
       <c r="F17" s="3">
-        <v>981600</v>
+        <v>974900</v>
       </c>
       <c r="G17" s="3">
-        <v>710100</v>
+        <v>705200</v>
       </c>
       <c r="H17" s="3">
-        <v>705400</v>
+        <v>700600</v>
       </c>
       <c r="I17" s="3">
-        <v>843100</v>
+        <v>837400</v>
       </c>
       <c r="J17" s="3">
-        <v>1584200</v>
+        <v>1573300</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1350500</v>
+        <v>1341200</v>
       </c>
       <c r="E18" s="3">
-        <v>651600</v>
+        <v>647100</v>
       </c>
       <c r="F18" s="3">
-        <v>367000</v>
+        <v>364500</v>
       </c>
       <c r="G18" s="3">
-        <v>109100</v>
+        <v>108300</v>
       </c>
       <c r="H18" s="3">
-        <v>171000</v>
+        <v>169800</v>
       </c>
       <c r="I18" s="3">
-        <v>-133000</v>
+        <v>-132100</v>
       </c>
       <c r="J18" s="3">
-        <v>-960000</v>
+        <v>-953400</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,22 +990,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E20" s="3">
         <v>1200</v>
       </c>
       <c r="F20" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="G20" s="3">
         <v>-4100</v>
       </c>
       <c r="H20" s="3">
-        <v>-70000</v>
+        <v>-69500</v>
       </c>
       <c r="I20" s="3">
-        <v>-30300</v>
+        <v>-30100</v>
       </c>
       <c r="J20" s="3">
         <v>3500</v>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1728600</v>
+        <v>1723300</v>
       </c>
       <c r="E21" s="3">
-        <v>970800</v>
+        <v>969600</v>
       </c>
       <c r="F21" s="3">
-        <v>769700</v>
+        <v>771100</v>
       </c>
       <c r="G21" s="3">
-        <v>308000</v>
+        <v>309400</v>
       </c>
       <c r="H21" s="3">
-        <v>319000</v>
+        <v>320600</v>
       </c>
       <c r="I21" s="3">
-        <v>19300</v>
+        <v>22300</v>
       </c>
       <c r="J21" s="3">
-        <v>-814100</v>
+        <v>-806000</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,22 +1044,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E22" s="3">
-        <v>34100</v>
+        <v>33800</v>
       </c>
       <c r="F22" s="3">
-        <v>39300</v>
+        <v>39000</v>
       </c>
       <c r="G22" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="H22" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="I22" s="3">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="J22" s="3">
         <v>7300</v>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1326800</v>
+        <v>1317700</v>
       </c>
       <c r="E23" s="3">
-        <v>618700</v>
+        <v>614500</v>
       </c>
       <c r="F23" s="3">
-        <v>342600</v>
+        <v>340300</v>
       </c>
       <c r="G23" s="3">
-        <v>88400</v>
+        <v>87800</v>
       </c>
       <c r="H23" s="3">
-        <v>87900</v>
+        <v>87300</v>
       </c>
       <c r="I23" s="3">
-        <v>-184000</v>
+        <v>-182700</v>
       </c>
       <c r="J23" s="3">
-        <v>-963800</v>
+        <v>-957200</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>464300</v>
+        <v>461100</v>
       </c>
       <c r="E24" s="3">
-        <v>222600</v>
+        <v>221000</v>
       </c>
       <c r="F24" s="3">
-        <v>169800</v>
+        <v>168600</v>
       </c>
       <c r="G24" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="H24" s="3">
-        <v>38400</v>
+        <v>38100</v>
       </c>
       <c r="I24" s="3">
         <v>2100</v>
       </c>
       <c r="J24" s="3">
-        <v>-109100</v>
+        <v>-108400</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>862400</v>
+        <v>856500</v>
       </c>
       <c r="E26" s="3">
-        <v>396100</v>
+        <v>393400</v>
       </c>
       <c r="F26" s="3">
-        <v>172900</v>
+        <v>171700</v>
       </c>
       <c r="G26" s="3">
-        <v>79000</v>
+        <v>78400</v>
       </c>
       <c r="H26" s="3">
-        <v>49500</v>
+        <v>49200</v>
       </c>
       <c r="I26" s="3">
-        <v>-186100</v>
+        <v>-184800</v>
       </c>
       <c r="J26" s="3">
-        <v>-854700</v>
+        <v>-848800</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>805600</v>
+        <v>800000</v>
       </c>
       <c r="E27" s="3">
-        <v>367300</v>
+        <v>364800</v>
       </c>
       <c r="F27" s="3">
-        <v>152100</v>
+        <v>151100</v>
       </c>
       <c r="G27" s="3">
-        <v>72900</v>
+        <v>72400</v>
       </c>
       <c r="H27" s="3">
-        <v>50200</v>
+        <v>49800</v>
       </c>
       <c r="I27" s="3">
-        <v>-192300</v>
+        <v>-191000</v>
       </c>
       <c r="J27" s="3">
-        <v>-853300</v>
+        <v>-847400</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F29" s="3">
-        <v>-115000</v>
+        <v>-114200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1314,22 +1314,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E32" s="3">
         <v>-1200</v>
       </c>
       <c r="F32" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="G32" s="3">
         <v>4100</v>
       </c>
       <c r="H32" s="3">
-        <v>70000</v>
+        <v>69500</v>
       </c>
       <c r="I32" s="3">
-        <v>30300</v>
+        <v>30100</v>
       </c>
       <c r="J32" s="3">
         <v>-3500</v>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>805600</v>
+        <v>800000</v>
       </c>
       <c r="E33" s="3">
-        <v>376300</v>
+        <v>373700</v>
       </c>
       <c r="F33" s="3">
-        <v>37100</v>
+        <v>36900</v>
       </c>
       <c r="G33" s="3">
-        <v>72900</v>
+        <v>72400</v>
       </c>
       <c r="H33" s="3">
-        <v>50200</v>
+        <v>49800</v>
       </c>
       <c r="I33" s="3">
-        <v>-192300</v>
+        <v>-191000</v>
       </c>
       <c r="J33" s="3">
-        <v>-853300</v>
+        <v>-847400</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>805600</v>
+        <v>800000</v>
       </c>
       <c r="E35" s="3">
-        <v>376300</v>
+        <v>373700</v>
       </c>
       <c r="F35" s="3">
-        <v>37100</v>
+        <v>36900</v>
       </c>
       <c r="G35" s="3">
-        <v>72900</v>
+        <v>72400</v>
       </c>
       <c r="H35" s="3">
-        <v>50200</v>
+        <v>49800</v>
       </c>
       <c r="I35" s="3">
-        <v>-192300</v>
+        <v>-191000</v>
       </c>
       <c r="J35" s="3">
-        <v>-853300</v>
+        <v>-847400</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>615200</v>
+        <v>611000</v>
       </c>
       <c r="E41" s="3">
-        <v>180300</v>
+        <v>179100</v>
       </c>
       <c r="F41" s="3">
-        <v>131800</v>
+        <v>130900</v>
       </c>
       <c r="G41" s="3">
-        <v>189100</v>
+        <v>187800</v>
       </c>
       <c r="H41" s="3">
-        <v>185600</v>
+        <v>184300</v>
       </c>
       <c r="I41" s="3">
-        <v>109200</v>
+        <v>108500</v>
       </c>
       <c r="J41" s="3">
-        <v>170000</v>
+        <v>168900</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25300</v>
+        <v>25100</v>
       </c>
       <c r="E43" s="3">
-        <v>62800</v>
+        <v>62400</v>
       </c>
       <c r="F43" s="3">
-        <v>33700</v>
+        <v>33500</v>
       </c>
       <c r="G43" s="3">
-        <v>53800</v>
+        <v>53400</v>
       </c>
       <c r="H43" s="3">
-        <v>35500</v>
+        <v>35300</v>
       </c>
       <c r="I43" s="3">
-        <v>41200</v>
+        <v>40900</v>
       </c>
       <c r="J43" s="3">
-        <v>39900</v>
+        <v>39600</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>305300</v>
+        <v>303200</v>
       </c>
       <c r="E44" s="3">
-        <v>279500</v>
+        <v>277600</v>
       </c>
       <c r="F44" s="3">
-        <v>300100</v>
+        <v>298000</v>
       </c>
       <c r="G44" s="3">
-        <v>264800</v>
+        <v>263000</v>
       </c>
       <c r="H44" s="3">
-        <v>134300</v>
+        <v>133400</v>
       </c>
       <c r="I44" s="3">
-        <v>110700</v>
+        <v>110000</v>
       </c>
       <c r="J44" s="3">
-        <v>123100</v>
+        <v>122300</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,10 +1588,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32300</v>
+        <v>32100</v>
       </c>
       <c r="E45" s="3">
-        <v>28200</v>
+        <v>28100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>978200</v>
+        <v>971500</v>
       </c>
       <c r="E46" s="3">
-        <v>550900</v>
+        <v>547100</v>
       </c>
       <c r="F46" s="3">
-        <v>465600</v>
+        <v>462400</v>
       </c>
       <c r="G46" s="3">
-        <v>507700</v>
+        <v>504200</v>
       </c>
       <c r="H46" s="3">
-        <v>355400</v>
+        <v>352900</v>
       </c>
       <c r="I46" s="3">
-        <v>261100</v>
+        <v>259300</v>
       </c>
       <c r="J46" s="3">
-        <v>333100</v>
+        <v>330800</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>155200</v>
+        <v>154100</v>
       </c>
       <c r="E47" s="3">
-        <v>208700</v>
+        <v>207200</v>
       </c>
       <c r="F47" s="3">
-        <v>132700</v>
+        <v>131800</v>
       </c>
       <c r="G47" s="3">
-        <v>135500</v>
+        <v>134500</v>
       </c>
       <c r="H47" s="3">
-        <v>114100</v>
+        <v>113300</v>
       </c>
       <c r="I47" s="3">
-        <v>108500</v>
+        <v>107800</v>
       </c>
       <c r="J47" s="3">
-        <v>159300</v>
+        <v>158200</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3061600</v>
+        <v>3040600</v>
       </c>
       <c r="E48" s="3">
-        <v>2625100</v>
+        <v>2607100</v>
       </c>
       <c r="F48" s="3">
-        <v>2610200</v>
+        <v>2592300</v>
       </c>
       <c r="G48" s="3">
-        <v>2724400</v>
+        <v>2705700</v>
       </c>
       <c r="H48" s="3">
-        <v>2501500</v>
+        <v>2484400</v>
       </c>
       <c r="I48" s="3">
-        <v>2210400</v>
+        <v>2195200</v>
       </c>
       <c r="J48" s="3">
-        <v>2209700</v>
+        <v>2194500</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>117600</v>
+        <v>116800</v>
       </c>
       <c r="E52" s="3">
-        <v>56600</v>
+        <v>56200</v>
       </c>
       <c r="F52" s="3">
-        <v>59300</v>
+        <v>58900</v>
       </c>
       <c r="G52" s="3">
-        <v>76400</v>
+        <v>75900</v>
       </c>
       <c r="H52" s="3">
-        <v>25300</v>
+        <v>25200</v>
       </c>
       <c r="I52" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="J52" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4312600</v>
+        <v>4283000</v>
       </c>
       <c r="E54" s="3">
-        <v>3441300</v>
+        <v>3417700</v>
       </c>
       <c r="F54" s="3">
-        <v>3267800</v>
+        <v>3245400</v>
       </c>
       <c r="G54" s="3">
-        <v>3444000</v>
+        <v>3420400</v>
       </c>
       <c r="H54" s="3">
-        <v>2996300</v>
+        <v>2975800</v>
       </c>
       <c r="I54" s="3">
-        <v>2596500</v>
+        <v>2578700</v>
       </c>
       <c r="J54" s="3">
-        <v>2717300</v>
+        <v>2698700</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>114200</v>
+        <v>113400</v>
       </c>
       <c r="E57" s="3">
-        <v>106900</v>
+        <v>106200</v>
       </c>
       <c r="F57" s="3">
-        <v>103000</v>
+        <v>102300</v>
       </c>
       <c r="G57" s="3">
-        <v>122000</v>
+        <v>121100</v>
       </c>
       <c r="H57" s="3">
-        <v>104800</v>
+        <v>104100</v>
       </c>
       <c r="I57" s="3">
-        <v>75300</v>
+        <v>74800</v>
       </c>
       <c r="J57" s="3">
-        <v>68000</v>
+        <v>67600</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43800</v>
+        <v>43500</v>
       </c>
       <c r="E58" s="3">
-        <v>33400</v>
+        <v>33200</v>
       </c>
       <c r="F58" s="3">
-        <v>32100</v>
+        <v>31900</v>
       </c>
       <c r="G58" s="3">
-        <v>388200</v>
+        <v>385500</v>
       </c>
       <c r="H58" s="3">
-        <v>17900</v>
+        <v>17800</v>
       </c>
       <c r="I58" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="J58" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>209000</v>
+        <v>207500</v>
       </c>
       <c r="E59" s="3">
-        <v>71400</v>
+        <v>70900</v>
       </c>
       <c r="F59" s="3">
-        <v>130700</v>
+        <v>129800</v>
       </c>
       <c r="G59" s="3">
-        <v>124200</v>
+        <v>123300</v>
       </c>
       <c r="H59" s="3">
-        <v>103100</v>
+        <v>102400</v>
       </c>
       <c r="I59" s="3">
-        <v>36500</v>
+        <v>36200</v>
       </c>
       <c r="J59" s="3">
-        <v>27200</v>
+        <v>27000</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>366900</v>
+        <v>364400</v>
       </c>
       <c r="E60" s="3">
-        <v>211700</v>
+        <v>210300</v>
       </c>
       <c r="F60" s="3">
-        <v>265800</v>
+        <v>264000</v>
       </c>
       <c r="G60" s="3">
-        <v>634300</v>
+        <v>630000</v>
       </c>
       <c r="H60" s="3">
-        <v>225800</v>
+        <v>224200</v>
       </c>
       <c r="I60" s="3">
-        <v>126900</v>
+        <v>126000</v>
       </c>
       <c r="J60" s="3">
-        <v>108700</v>
+        <v>107900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>97400</v>
+        <v>96700</v>
       </c>
       <c r="E61" s="3">
-        <v>302500</v>
+        <v>300400</v>
       </c>
       <c r="F61" s="3">
-        <v>583000</v>
+        <v>579000</v>
       </c>
       <c r="G61" s="3">
-        <v>512500</v>
+        <v>508900</v>
       </c>
       <c r="H61" s="3">
-        <v>606500</v>
+        <v>602300</v>
       </c>
       <c r="I61" s="3">
-        <v>579100</v>
+        <v>575100</v>
       </c>
       <c r="J61" s="3">
-        <v>473100</v>
+        <v>469800</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>435800</v>
+        <v>432800</v>
       </c>
       <c r="E62" s="3">
-        <v>295700</v>
+        <v>293700</v>
       </c>
       <c r="F62" s="3">
-        <v>299100</v>
+        <v>297000</v>
       </c>
       <c r="G62" s="3">
-        <v>288200</v>
+        <v>286200</v>
       </c>
       <c r="H62" s="3">
-        <v>298400</v>
+        <v>296400</v>
       </c>
       <c r="I62" s="3">
-        <v>207100</v>
+        <v>205700</v>
       </c>
       <c r="J62" s="3">
-        <v>174000</v>
+        <v>172900</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1013700</v>
+        <v>1006800</v>
       </c>
       <c r="E66" s="3">
-        <v>888600</v>
+        <v>882500</v>
       </c>
       <c r="F66" s="3">
-        <v>1201600</v>
+        <v>1193400</v>
       </c>
       <c r="G66" s="3">
-        <v>1453300</v>
+        <v>1443300</v>
       </c>
       <c r="H66" s="3">
-        <v>1143000</v>
+        <v>1135100</v>
       </c>
       <c r="I66" s="3">
-        <v>924400</v>
+        <v>918000</v>
       </c>
       <c r="J66" s="3">
-        <v>831800</v>
+        <v>826100</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>326200</v>
+        <v>324000</v>
       </c>
       <c r="E72" s="3">
-        <v>-335100</v>
+        <v>-332800</v>
       </c>
       <c r="F72" s="3">
-        <v>-702700</v>
+        <v>-697800</v>
       </c>
       <c r="G72" s="3">
-        <v>-783600</v>
+        <v>-778200</v>
       </c>
       <c r="H72" s="3">
-        <v>-856500</v>
+        <v>-850600</v>
       </c>
       <c r="I72" s="3">
-        <v>-906700</v>
+        <v>-900400</v>
       </c>
       <c r="J72" s="3">
-        <v>-688300</v>
+        <v>-683500</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3298900</v>
+        <v>3276200</v>
       </c>
       <c r="E76" s="3">
-        <v>2552700</v>
+        <v>2535200</v>
       </c>
       <c r="F76" s="3">
-        <v>2066200</v>
+        <v>2052000</v>
       </c>
       <c r="G76" s="3">
-        <v>1990700</v>
+        <v>1977100</v>
       </c>
       <c r="H76" s="3">
-        <v>1853300</v>
+        <v>1840600</v>
       </c>
       <c r="I76" s="3">
-        <v>1672100</v>
+        <v>1660600</v>
       </c>
       <c r="J76" s="3">
-        <v>1885500</v>
+        <v>1872600</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>805600</v>
+        <v>800000</v>
       </c>
       <c r="E81" s="3">
-        <v>376300</v>
+        <v>373700</v>
       </c>
       <c r="F81" s="3">
-        <v>37100</v>
+        <v>36900</v>
       </c>
       <c r="G81" s="3">
-        <v>72900</v>
+        <v>72400</v>
       </c>
       <c r="H81" s="3">
-        <v>50200</v>
+        <v>49800</v>
       </c>
       <c r="I81" s="3">
-        <v>-192300</v>
+        <v>-191000</v>
       </c>
       <c r="J81" s="3">
-        <v>-853300</v>
+        <v>-847400</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>386700</v>
+        <v>384000</v>
       </c>
       <c r="E83" s="3">
-        <v>322300</v>
+        <v>320100</v>
       </c>
       <c r="F83" s="3">
-        <v>393000</v>
+        <v>390300</v>
       </c>
       <c r="G83" s="3">
-        <v>205800</v>
+        <v>204400</v>
       </c>
       <c r="H83" s="3">
-        <v>221000</v>
+        <v>219500</v>
       </c>
       <c r="I83" s="3">
-        <v>185100</v>
+        <v>183800</v>
       </c>
       <c r="J83" s="3">
-        <v>144400</v>
+        <v>143400</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1219300</v>
+        <v>1210900</v>
       </c>
       <c r="E89" s="3">
-        <v>631000</v>
+        <v>626700</v>
       </c>
       <c r="F89" s="3">
-        <v>578300</v>
+        <v>574300</v>
       </c>
       <c r="G89" s="3">
-        <v>198800</v>
+        <v>197400</v>
       </c>
       <c r="H89" s="3">
-        <v>528200</v>
+        <v>524600</v>
       </c>
       <c r="I89" s="3">
-        <v>225000</v>
+        <v>223400</v>
       </c>
       <c r="J89" s="3">
-        <v>150400</v>
+        <v>149300</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-452200</v>
+        <v>-449100</v>
       </c>
       <c r="E91" s="3">
-        <v>-335000</v>
+        <v>-332700</v>
       </c>
       <c r="F91" s="3">
-        <v>-348300</v>
+        <v>-346000</v>
       </c>
       <c r="G91" s="3">
-        <v>-546500</v>
+        <v>-542700</v>
       </c>
       <c r="H91" s="3">
-        <v>-497600</v>
+        <v>-494200</v>
       </c>
       <c r="I91" s="3">
-        <v>-366600</v>
+        <v>-364100</v>
       </c>
       <c r="J91" s="3">
-        <v>-615300</v>
+        <v>-611100</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-433500</v>
+        <v>-430500</v>
       </c>
       <c r="E94" s="3">
-        <v>-342200</v>
+        <v>-339800</v>
       </c>
       <c r="F94" s="3">
-        <v>-350800</v>
+        <v>-348300</v>
       </c>
       <c r="G94" s="3">
-        <v>-444900</v>
+        <v>-441800</v>
       </c>
       <c r="H94" s="3">
-        <v>-502600</v>
+        <v>-499100</v>
       </c>
       <c r="I94" s="3">
-        <v>-378300</v>
+        <v>-375700</v>
       </c>
       <c r="J94" s="3">
-        <v>-372100</v>
+        <v>-369600</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,10 +2832,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-147800</v>
+        <v>-146800</v>
       </c>
       <c r="E96" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-357700</v>
+        <v>-355200</v>
       </c>
       <c r="E100" s="3">
-        <v>-241200</v>
+        <v>-239600</v>
       </c>
       <c r="F100" s="3">
-        <v>-282800</v>
+        <v>-280900</v>
       </c>
       <c r="G100" s="3">
-        <v>247600</v>
+        <v>245900</v>
       </c>
       <c r="H100" s="3">
-        <v>51900</v>
+        <v>51600</v>
       </c>
       <c r="I100" s="3">
-        <v>96700</v>
+        <v>96000</v>
       </c>
       <c r="J100" s="3">
-        <v>72200</v>
+        <v>71700</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,13 +2967,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E101" s="3">
         <v>900</v>
       </c>
       <c r="F101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
         <v>2100</v>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>434900</v>
+        <v>431900</v>
       </c>
       <c r="E102" s="3">
-        <v>48500</v>
+        <v>48200</v>
       </c>
       <c r="F102" s="3">
-        <v>-57400</v>
+        <v>-57000</v>
       </c>
       <c r="G102" s="3">
         <v>3600</v>
       </c>
       <c r="H102" s="3">
-        <v>76400</v>
+        <v>75800</v>
       </c>
       <c r="I102" s="3">
-        <v>-60800</v>
+        <v>-60400</v>
       </c>
       <c r="J102" s="3">
-        <v>-154100</v>
+        <v>-153100</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>BTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2278700</v>
+        <v>2245700</v>
       </c>
       <c r="E8" s="3">
-        <v>1472100</v>
+        <v>2279600</v>
       </c>
       <c r="F8" s="3">
-        <v>1339300</v>
+        <v>1472600</v>
       </c>
       <c r="G8" s="3">
-        <v>813500</v>
+        <v>1339800</v>
       </c>
       <c r="H8" s="3">
-        <v>870400</v>
+        <v>813900</v>
       </c>
       <c r="I8" s="3">
-        <v>705200</v>
+        <v>870700</v>
       </c>
       <c r="J8" s="3">
+        <v>705500</v>
+      </c>
+      <c r="K8" s="3">
         <v>619900</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1058100</v>
+        <v>1266300</v>
       </c>
       <c r="E9" s="3">
-        <v>898300</v>
+        <v>1058500</v>
       </c>
       <c r="F9" s="3">
-        <v>854300</v>
+        <v>898600</v>
       </c>
       <c r="G9" s="3">
-        <v>622100</v>
+        <v>854700</v>
       </c>
       <c r="H9" s="3">
-        <v>602800</v>
+        <v>622400</v>
       </c>
       <c r="I9" s="3">
-        <v>594400</v>
+        <v>603000</v>
       </c>
       <c r="J9" s="3">
+        <v>594600</v>
+      </c>
+      <c r="K9" s="3">
         <v>500300</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1220700</v>
+        <v>979400</v>
       </c>
       <c r="E10" s="3">
-        <v>573800</v>
+        <v>1221100</v>
       </c>
       <c r="F10" s="3">
-        <v>485000</v>
+        <v>574000</v>
       </c>
       <c r="G10" s="3">
-        <v>191400</v>
+        <v>485200</v>
       </c>
       <c r="H10" s="3">
-        <v>267600</v>
+        <v>191500</v>
       </c>
       <c r="I10" s="3">
+        <v>267700</v>
+      </c>
+      <c r="J10" s="3">
         <v>110900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>119600</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-203800</v>
       </c>
-      <c r="E14" s="3">
-        <v>-169800</v>
-      </c>
       <c r="F14" s="3">
-        <v>29000</v>
+        <v>-169900</v>
       </c>
       <c r="G14" s="3">
+        <v>29100</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>166700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>972000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>937500</v>
+        <v>1335000</v>
       </c>
       <c r="E17" s="3">
-        <v>824900</v>
+        <v>937900</v>
       </c>
       <c r="F17" s="3">
-        <v>974900</v>
+        <v>825300</v>
       </c>
       <c r="G17" s="3">
-        <v>705200</v>
+        <v>975200</v>
       </c>
       <c r="H17" s="3">
-        <v>700600</v>
+        <v>705500</v>
       </c>
       <c r="I17" s="3">
-        <v>837400</v>
+        <v>700900</v>
       </c>
       <c r="J17" s="3">
+        <v>837700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1573300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1341200</v>
+        <v>910700</v>
       </c>
       <c r="E18" s="3">
-        <v>647100</v>
+        <v>1341800</v>
       </c>
       <c r="F18" s="3">
-        <v>364500</v>
+        <v>647400</v>
       </c>
       <c r="G18" s="3">
-        <v>108300</v>
+        <v>364600</v>
       </c>
       <c r="H18" s="3">
+        <v>108400</v>
+      </c>
+      <c r="I18" s="3">
         <v>169800</v>
       </c>
-      <c r="I18" s="3">
-        <v>-132100</v>
-      </c>
       <c r="J18" s="3">
+        <v>-132200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-953400</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-69500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-30100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1723300</v>
+        <v>1425600</v>
       </c>
       <c r="E21" s="3">
-        <v>969600</v>
+        <v>1724300</v>
       </c>
       <c r="F21" s="3">
-        <v>771100</v>
+        <v>970300</v>
       </c>
       <c r="G21" s="3">
-        <v>309400</v>
+        <v>771800</v>
       </c>
       <c r="H21" s="3">
-        <v>320600</v>
+        <v>309700</v>
       </c>
       <c r="I21" s="3">
-        <v>22300</v>
+        <v>320900</v>
       </c>
       <c r="J21" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-806000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E22" s="3">
         <v>20100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33800</v>
       </c>
-      <c r="F22" s="3">
-        <v>39000</v>
-      </c>
       <c r="G22" s="3">
+        <v>39100</v>
+      </c>
+      <c r="H22" s="3">
         <v>16400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1317700</v>
+        <v>925400</v>
       </c>
       <c r="E23" s="3">
-        <v>614500</v>
+        <v>1318200</v>
       </c>
       <c r="F23" s="3">
-        <v>340300</v>
+        <v>614700</v>
       </c>
       <c r="G23" s="3">
+        <v>340400</v>
+      </c>
+      <c r="H23" s="3">
         <v>87800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>87300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-182700</v>
-      </c>
       <c r="J23" s="3">
+        <v>-182800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-957200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>461100</v>
+        <v>338200</v>
       </c>
       <c r="E24" s="3">
-        <v>221000</v>
+        <v>461300</v>
       </c>
       <c r="F24" s="3">
-        <v>168600</v>
+        <v>221100</v>
       </c>
       <c r="G24" s="3">
+        <v>168700</v>
+      </c>
+      <c r="H24" s="3">
         <v>9300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>38100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-108400</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>856500</v>
+        <v>587200</v>
       </c>
       <c r="E26" s="3">
-        <v>393400</v>
+        <v>856900</v>
       </c>
       <c r="F26" s="3">
+        <v>393600</v>
+      </c>
+      <c r="G26" s="3">
         <v>171700</v>
       </c>
-      <c r="G26" s="3">
-        <v>78400</v>
-      </c>
       <c r="H26" s="3">
+        <v>78500</v>
+      </c>
+      <c r="I26" s="3">
         <v>49200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-184800</v>
-      </c>
       <c r="J26" s="3">
+        <v>-184900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-848800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>800000</v>
+        <v>535300</v>
       </c>
       <c r="E27" s="3">
-        <v>364800</v>
+        <v>800300</v>
       </c>
       <c r="F27" s="3">
+        <v>365000</v>
+      </c>
+      <c r="G27" s="3">
         <v>151100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>72400</v>
       </c>
-      <c r="H27" s="3">
-        <v>49800</v>
-      </c>
       <c r="I27" s="3">
-        <v>-191000</v>
+        <v>49900</v>
       </c>
       <c r="J27" s="3">
+        <v>-191100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-847400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,23 +1283,26 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>8900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-114200</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E32" s="3">
         <v>3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>69500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>30100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>800000</v>
+        <v>535300</v>
       </c>
       <c r="E33" s="3">
-        <v>373700</v>
+        <v>800300</v>
       </c>
       <c r="F33" s="3">
+        <v>373900</v>
+      </c>
+      <c r="G33" s="3">
         <v>36900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>72400</v>
       </c>
-      <c r="H33" s="3">
-        <v>49800</v>
-      </c>
       <c r="I33" s="3">
-        <v>-191000</v>
+        <v>49900</v>
       </c>
       <c r="J33" s="3">
+        <v>-191100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-847400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>800000</v>
+        <v>535300</v>
       </c>
       <c r="E35" s="3">
-        <v>373700</v>
+        <v>800300</v>
       </c>
       <c r="F35" s="3">
+        <v>373900</v>
+      </c>
+      <c r="G35" s="3">
         <v>36900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>72400</v>
       </c>
-      <c r="H35" s="3">
-        <v>49800</v>
-      </c>
       <c r="I35" s="3">
-        <v>-191000</v>
+        <v>49900</v>
       </c>
       <c r="J35" s="3">
+        <v>-191100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-847400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>611000</v>
+        <v>857600</v>
       </c>
       <c r="E41" s="3">
-        <v>179100</v>
+        <v>611300</v>
       </c>
       <c r="F41" s="3">
+        <v>179200</v>
+      </c>
+      <c r="G41" s="3">
         <v>130900</v>
       </c>
-      <c r="G41" s="3">
-        <v>187800</v>
-      </c>
       <c r="H41" s="3">
-        <v>184300</v>
+        <v>187900</v>
       </c>
       <c r="I41" s="3">
+        <v>184400</v>
+      </c>
+      <c r="J41" s="3">
         <v>108500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>168900</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,74 +1616,83 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25100</v>
+        <v>81300</v>
       </c>
       <c r="E43" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F43" s="3">
         <v>62400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>53400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>40900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>39600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>303200</v>
+        <v>347100</v>
       </c>
       <c r="E44" s="3">
-        <v>277600</v>
+        <v>303400</v>
       </c>
       <c r="F44" s="3">
-        <v>298000</v>
+        <v>277700</v>
       </c>
       <c r="G44" s="3">
-        <v>263000</v>
+        <v>298100</v>
       </c>
       <c r="H44" s="3">
+        <v>263100</v>
+      </c>
+      <c r="I44" s="3">
         <v>133400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>110000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>122300</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E45" s="3">
         <v>32100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28100</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -1608,90 +1706,102 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>971500</v>
+        <v>1333100</v>
       </c>
       <c r="E46" s="3">
-        <v>547100</v>
+        <v>971900</v>
       </c>
       <c r="F46" s="3">
-        <v>462400</v>
+        <v>547300</v>
       </c>
       <c r="G46" s="3">
-        <v>504200</v>
+        <v>462600</v>
       </c>
       <c r="H46" s="3">
-        <v>352900</v>
+        <v>504400</v>
       </c>
       <c r="I46" s="3">
-        <v>259300</v>
+        <v>353100</v>
       </c>
       <c r="J46" s="3">
+        <v>259400</v>
+      </c>
+      <c r="K46" s="3">
         <v>330800</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>154100</v>
+        <v>254200</v>
       </c>
       <c r="E47" s="3">
-        <v>207200</v>
+        <v>154200</v>
       </c>
       <c r="F47" s="3">
-        <v>131800</v>
+        <v>207300</v>
       </c>
       <c r="G47" s="3">
-        <v>134500</v>
+        <v>131900</v>
       </c>
       <c r="H47" s="3">
-        <v>113300</v>
+        <v>134600</v>
       </c>
       <c r="I47" s="3">
+        <v>113400</v>
+      </c>
+      <c r="J47" s="3">
         <v>107800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>158200</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3040600</v>
+        <v>2844000</v>
       </c>
       <c r="E48" s="3">
-        <v>2607100</v>
+        <v>3041800</v>
       </c>
       <c r="F48" s="3">
-        <v>2592300</v>
+        <v>2608100</v>
       </c>
       <c r="G48" s="3">
-        <v>2705700</v>
+        <v>2593300</v>
       </c>
       <c r="H48" s="3">
-        <v>2484400</v>
+        <v>2706800</v>
       </c>
       <c r="I48" s="3">
-        <v>2195200</v>
+        <v>2485300</v>
       </c>
       <c r="J48" s="3">
+        <v>2196100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2194500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1716,9 +1826,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E52" s="3">
         <v>116800</v>
       </c>
-      <c r="E52" s="3">
-        <v>56200</v>
-      </c>
       <c r="F52" s="3">
+        <v>56300</v>
+      </c>
+      <c r="G52" s="3">
         <v>58900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15200</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4283000</v>
+        <v>4538200</v>
       </c>
       <c r="E54" s="3">
-        <v>3417700</v>
+        <v>4284700</v>
       </c>
       <c r="F54" s="3">
-        <v>3245400</v>
+        <v>3419000</v>
       </c>
       <c r="G54" s="3">
-        <v>3420400</v>
+        <v>3246700</v>
       </c>
       <c r="H54" s="3">
-        <v>2975800</v>
+        <v>3421700</v>
       </c>
       <c r="I54" s="3">
-        <v>2578700</v>
+        <v>2976900</v>
       </c>
       <c r="J54" s="3">
+        <v>2579700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2698700</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>113400</v>
+        <v>142400</v>
       </c>
       <c r="E57" s="3">
+        <v>113500</v>
+      </c>
+      <c r="F57" s="3">
         <v>106200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>102300</v>
       </c>
-      <c r="G57" s="3">
-        <v>121100</v>
-      </c>
       <c r="H57" s="3">
+        <v>121200</v>
+      </c>
+      <c r="I57" s="3">
         <v>104100</v>
       </c>
-      <c r="I57" s="3">
-        <v>74800</v>
-      </c>
       <c r="J57" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K57" s="3">
         <v>67600</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E58" s="3">
         <v>43500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>33200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>31900</v>
       </c>
-      <c r="G58" s="3">
-        <v>385500</v>
-      </c>
       <c r="H58" s="3">
+        <v>385600</v>
+      </c>
+      <c r="I58" s="3">
         <v>17800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>207500</v>
+        <v>119900</v>
       </c>
       <c r="E59" s="3">
+        <v>207600</v>
+      </c>
+      <c r="F59" s="3">
         <v>70900</v>
       </c>
-      <c r="F59" s="3">
-        <v>129800</v>
-      </c>
       <c r="G59" s="3">
-        <v>123300</v>
+        <v>129900</v>
       </c>
       <c r="H59" s="3">
+        <v>123400</v>
+      </c>
+      <c r="I59" s="3">
         <v>102400</v>
       </c>
-      <c r="I59" s="3">
-        <v>36200</v>
-      </c>
       <c r="J59" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K59" s="3">
         <v>27000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>364400</v>
+        <v>294600</v>
       </c>
       <c r="E60" s="3">
+        <v>364600</v>
+      </c>
+      <c r="F60" s="3">
         <v>210300</v>
       </c>
-      <c r="F60" s="3">
-        <v>264000</v>
-      </c>
       <c r="G60" s="3">
-        <v>630000</v>
+        <v>264100</v>
       </c>
       <c r="H60" s="3">
-        <v>224200</v>
+        <v>630200</v>
       </c>
       <c r="I60" s="3">
-        <v>126000</v>
+        <v>224300</v>
       </c>
       <c r="J60" s="3">
+        <v>126100</v>
+      </c>
+      <c r="K60" s="3">
         <v>107900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E61" s="3">
         <v>96700</v>
       </c>
-      <c r="E61" s="3">
-        <v>300400</v>
-      </c>
       <c r="F61" s="3">
-        <v>579000</v>
+        <v>300500</v>
       </c>
       <c r="G61" s="3">
-        <v>508900</v>
+        <v>579200</v>
       </c>
       <c r="H61" s="3">
-        <v>602300</v>
+        <v>509100</v>
       </c>
       <c r="I61" s="3">
-        <v>575100</v>
+        <v>602500</v>
       </c>
       <c r="J61" s="3">
+        <v>575300</v>
+      </c>
+      <c r="K61" s="3">
         <v>469800</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>432800</v>
+        <v>407000</v>
       </c>
       <c r="E62" s="3">
-        <v>293700</v>
+        <v>433000</v>
       </c>
       <c r="F62" s="3">
-        <v>297000</v>
+        <v>293800</v>
       </c>
       <c r="G62" s="3">
-        <v>286200</v>
+        <v>297100</v>
       </c>
       <c r="H62" s="3">
-        <v>296400</v>
+        <v>286300</v>
       </c>
       <c r="I62" s="3">
+        <v>296500</v>
+      </c>
+      <c r="J62" s="3">
         <v>205700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>172900</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1006800</v>
+        <v>893300</v>
       </c>
       <c r="E66" s="3">
-        <v>882500</v>
+        <v>1007200</v>
       </c>
       <c r="F66" s="3">
-        <v>1193400</v>
+        <v>882900</v>
       </c>
       <c r="G66" s="3">
-        <v>1443300</v>
+        <v>1193800</v>
       </c>
       <c r="H66" s="3">
-        <v>1135100</v>
+        <v>1443800</v>
       </c>
       <c r="I66" s="3">
-        <v>918000</v>
+        <v>1135600</v>
       </c>
       <c r="J66" s="3">
+        <v>918400</v>
+      </c>
+      <c r="K66" s="3">
         <v>826100</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>324000</v>
+        <v>646600</v>
       </c>
       <c r="E72" s="3">
-        <v>-332800</v>
+        <v>324100</v>
       </c>
       <c r="F72" s="3">
-        <v>-697800</v>
+        <v>-332900</v>
       </c>
       <c r="G72" s="3">
-        <v>-778200</v>
+        <v>-698100</v>
       </c>
       <c r="H72" s="3">
-        <v>-850600</v>
+        <v>-778500</v>
       </c>
       <c r="I72" s="3">
-        <v>-900400</v>
+        <v>-850900</v>
       </c>
       <c r="J72" s="3">
+        <v>-900800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-683500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3276200</v>
+        <v>3644900</v>
       </c>
       <c r="E76" s="3">
-        <v>2535200</v>
+        <v>3277500</v>
       </c>
       <c r="F76" s="3">
-        <v>2052000</v>
+        <v>2536200</v>
       </c>
       <c r="G76" s="3">
-        <v>1977100</v>
+        <v>2052800</v>
       </c>
       <c r="H76" s="3">
-        <v>1840600</v>
+        <v>1977800</v>
       </c>
       <c r="I76" s="3">
-        <v>1660600</v>
+        <v>1841300</v>
       </c>
       <c r="J76" s="3">
+        <v>1661300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1872600</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>800000</v>
+        <v>535300</v>
       </c>
       <c r="E81" s="3">
-        <v>373700</v>
+        <v>800300</v>
       </c>
       <c r="F81" s="3">
+        <v>373900</v>
+      </c>
+      <c r="G81" s="3">
         <v>36900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>72400</v>
       </c>
-      <c r="H81" s="3">
-        <v>49800</v>
-      </c>
       <c r="I81" s="3">
-        <v>-191000</v>
+        <v>49900</v>
       </c>
       <c r="J81" s="3">
+        <v>-191100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-847400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>384000</v>
+        <v>482800</v>
       </c>
       <c r="E83" s="3">
-        <v>320100</v>
+        <v>384200</v>
       </c>
       <c r="F83" s="3">
-        <v>390300</v>
+        <v>320200</v>
       </c>
       <c r="G83" s="3">
-        <v>204400</v>
+        <v>390500</v>
       </c>
       <c r="H83" s="3">
-        <v>219500</v>
+        <v>204500</v>
       </c>
       <c r="I83" s="3">
-        <v>183800</v>
+        <v>219600</v>
       </c>
       <c r="J83" s="3">
+        <v>183900</v>
+      </c>
+      <c r="K83" s="3">
         <v>143400</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1210900</v>
+        <v>922700</v>
       </c>
       <c r="E89" s="3">
-        <v>626700</v>
+        <v>1211400</v>
       </c>
       <c r="F89" s="3">
-        <v>574300</v>
+        <v>626900</v>
       </c>
       <c r="G89" s="3">
-        <v>197400</v>
+        <v>574500</v>
       </c>
       <c r="H89" s="3">
-        <v>524600</v>
+        <v>197500</v>
       </c>
       <c r="I89" s="3">
-        <v>223400</v>
+        <v>524800</v>
       </c>
       <c r="J89" s="3">
+        <v>223500</v>
+      </c>
+      <c r="K89" s="3">
         <v>149300</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-449100</v>
+        <v>-385200</v>
       </c>
       <c r="E91" s="3">
-        <v>-332700</v>
+        <v>-449300</v>
       </c>
       <c r="F91" s="3">
-        <v>-346000</v>
+        <v>-332800</v>
       </c>
       <c r="G91" s="3">
-        <v>-542700</v>
+        <v>-346100</v>
       </c>
       <c r="H91" s="3">
-        <v>-494200</v>
+        <v>-542900</v>
       </c>
       <c r="I91" s="3">
-        <v>-364100</v>
+        <v>-494400</v>
       </c>
       <c r="J91" s="3">
+        <v>-364200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-611100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-430500</v>
+        <v>-364800</v>
       </c>
       <c r="E94" s="3">
-        <v>-339800</v>
+        <v>-430700</v>
       </c>
       <c r="F94" s="3">
-        <v>-348300</v>
+        <v>-340000</v>
       </c>
       <c r="G94" s="3">
-        <v>-441800</v>
+        <v>-348500</v>
       </c>
       <c r="H94" s="3">
-        <v>-499100</v>
+        <v>-442000</v>
       </c>
       <c r="I94" s="3">
-        <v>-375700</v>
+        <v>-499300</v>
       </c>
       <c r="J94" s="3">
+        <v>-375800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-369600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,20 +3058,21 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-146800</v>
+        <v>-214600</v>
       </c>
       <c r="E96" s="3">
+        <v>-146900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-13100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -2852,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-355200</v>
+        <v>-298500</v>
       </c>
       <c r="E100" s="3">
+        <v>-355400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-239600</v>
       </c>
-      <c r="F100" s="3">
-        <v>-280900</v>
-      </c>
       <c r="G100" s="3">
-        <v>245900</v>
+        <v>-281000</v>
       </c>
       <c r="H100" s="3">
+        <v>246000</v>
+      </c>
+      <c r="I100" s="3">
         <v>51600</v>
       </c>
-      <c r="I100" s="3">
-        <v>96000</v>
-      </c>
       <c r="J100" s="3">
+        <v>96100</v>
+      </c>
+      <c r="K100" s="3">
         <v>71700</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E101" s="3">
         <v>6700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4500</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>431900</v>
+        <v>246300</v>
       </c>
       <c r="E102" s="3">
+        <v>432100</v>
+      </c>
+      <c r="F102" s="3">
         <v>48200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-57000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3600</v>
       </c>
-      <c r="H102" s="3">
-        <v>75800</v>
-      </c>
       <c r="I102" s="3">
+        <v>75900</v>
+      </c>
+      <c r="J102" s="3">
         <v>-60400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-153100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2245700</v>
+        <v>2298700</v>
       </c>
       <c r="E8" s="3">
-        <v>2279600</v>
+        <v>2333500</v>
       </c>
       <c r="F8" s="3">
-        <v>1472600</v>
+        <v>1507400</v>
       </c>
       <c r="G8" s="3">
-        <v>1339800</v>
+        <v>1371500</v>
       </c>
       <c r="H8" s="3">
-        <v>813900</v>
+        <v>833100</v>
       </c>
       <c r="I8" s="3">
-        <v>870700</v>
+        <v>891300</v>
       </c>
       <c r="J8" s="3">
-        <v>705500</v>
+        <v>722200</v>
       </c>
       <c r="K8" s="3">
         <v>619900</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1266300</v>
+        <v>1296200</v>
       </c>
       <c r="E9" s="3">
-        <v>1058500</v>
+        <v>1083500</v>
       </c>
       <c r="F9" s="3">
-        <v>898600</v>
+        <v>919800</v>
       </c>
       <c r="G9" s="3">
-        <v>854700</v>
+        <v>874900</v>
       </c>
       <c r="H9" s="3">
-        <v>622400</v>
+        <v>637100</v>
       </c>
       <c r="I9" s="3">
-        <v>603000</v>
+        <v>617300</v>
       </c>
       <c r="J9" s="3">
-        <v>594600</v>
+        <v>608700</v>
       </c>
       <c r="K9" s="3">
         <v>500300</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>979400</v>
+        <v>1002500</v>
       </c>
       <c r="E10" s="3">
-        <v>1221100</v>
+        <v>1250000</v>
       </c>
       <c r="F10" s="3">
-        <v>574000</v>
+        <v>587600</v>
       </c>
       <c r="G10" s="3">
-        <v>485200</v>
+        <v>496600</v>
       </c>
       <c r="H10" s="3">
-        <v>191500</v>
+        <v>196000</v>
       </c>
       <c r="I10" s="3">
-        <v>267700</v>
+        <v>274000</v>
       </c>
       <c r="J10" s="3">
-        <v>110900</v>
+        <v>113500</v>
       </c>
       <c r="K10" s="3">
         <v>119600</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="E14" s="3">
-        <v>-203800</v>
+        <v>-208600</v>
       </c>
       <c r="F14" s="3">
-        <v>-169900</v>
+        <v>-173900</v>
       </c>
       <c r="G14" s="3">
-        <v>29100</v>
+        <v>29700</v>
       </c>
       <c r="H14" s="3">
         <v>-1100</v>
       </c>
       <c r="I14" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="J14" s="3">
-        <v>166700</v>
+        <v>170700</v>
       </c>
       <c r="K14" s="3">
         <v>972000</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1335000</v>
+        <v>1366500</v>
       </c>
       <c r="E17" s="3">
-        <v>937900</v>
+        <v>960000</v>
       </c>
       <c r="F17" s="3">
-        <v>825300</v>
+        <v>844800</v>
       </c>
       <c r="G17" s="3">
-        <v>975200</v>
+        <v>998300</v>
       </c>
       <c r="H17" s="3">
-        <v>705500</v>
+        <v>722200</v>
       </c>
       <c r="I17" s="3">
-        <v>700900</v>
+        <v>717400</v>
       </c>
       <c r="J17" s="3">
-        <v>837700</v>
+        <v>857500</v>
       </c>
       <c r="K17" s="3">
         <v>1573300</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>910700</v>
+        <v>932200</v>
       </c>
       <c r="E18" s="3">
-        <v>1341800</v>
+        <v>1373400</v>
       </c>
       <c r="F18" s="3">
-        <v>647400</v>
+        <v>662600</v>
       </c>
       <c r="G18" s="3">
-        <v>364600</v>
+        <v>373200</v>
       </c>
       <c r="H18" s="3">
-        <v>108400</v>
+        <v>110900</v>
       </c>
       <c r="I18" s="3">
-        <v>169800</v>
+        <v>173900</v>
       </c>
       <c r="J18" s="3">
-        <v>-132200</v>
+        <v>-135300</v>
       </c>
       <c r="K18" s="3">
         <v>-953400</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29800</v>
+        <v>30500</v>
       </c>
       <c r="E20" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="F20" s="3">
         <v>1200</v>
       </c>
       <c r="G20" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="H20" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I20" s="3">
-        <v>-69500</v>
+        <v>-71200</v>
       </c>
       <c r="J20" s="3">
-        <v>-30100</v>
+        <v>-30800</v>
       </c>
       <c r="K20" s="3">
         <v>3500</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1425600</v>
+        <v>1455000</v>
       </c>
       <c r="E21" s="3">
-        <v>1724300</v>
+        <v>1761600</v>
       </c>
       <c r="F21" s="3">
-        <v>970300</v>
+        <v>990400</v>
       </c>
       <c r="G21" s="3">
-        <v>771800</v>
+        <v>786600</v>
       </c>
       <c r="H21" s="3">
-        <v>309700</v>
+        <v>315200</v>
       </c>
       <c r="I21" s="3">
-        <v>320900</v>
+        <v>326600</v>
       </c>
       <c r="J21" s="3">
-        <v>22500</v>
+        <v>21400</v>
       </c>
       <c r="K21" s="3">
         <v>-806000</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="E22" s="3">
-        <v>20100</v>
+        <v>20600</v>
       </c>
       <c r="F22" s="3">
-        <v>33800</v>
+        <v>34600</v>
       </c>
       <c r="G22" s="3">
-        <v>39100</v>
+        <v>40000</v>
       </c>
       <c r="H22" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="I22" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="J22" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="K22" s="3">
         <v>7300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>925400</v>
+        <v>947300</v>
       </c>
       <c r="E23" s="3">
-        <v>1318200</v>
+        <v>1349300</v>
       </c>
       <c r="F23" s="3">
-        <v>614700</v>
+        <v>629200</v>
       </c>
       <c r="G23" s="3">
-        <v>340400</v>
+        <v>348400</v>
       </c>
       <c r="H23" s="3">
-        <v>87800</v>
+        <v>89900</v>
       </c>
       <c r="I23" s="3">
-        <v>87300</v>
+        <v>89400</v>
       </c>
       <c r="J23" s="3">
-        <v>-182800</v>
+        <v>-187100</v>
       </c>
       <c r="K23" s="3">
         <v>-957200</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>338200</v>
+        <v>346200</v>
       </c>
       <c r="E24" s="3">
-        <v>461300</v>
+        <v>472200</v>
       </c>
       <c r="F24" s="3">
-        <v>221100</v>
+        <v>226400</v>
       </c>
       <c r="G24" s="3">
-        <v>168700</v>
+        <v>172700</v>
       </c>
       <c r="H24" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="I24" s="3">
-        <v>38100</v>
+        <v>39000</v>
       </c>
       <c r="J24" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K24" s="3">
         <v>-108400</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>587200</v>
+        <v>601100</v>
       </c>
       <c r="E26" s="3">
-        <v>856900</v>
+        <v>877100</v>
       </c>
       <c r="F26" s="3">
-        <v>393600</v>
+        <v>402900</v>
       </c>
       <c r="G26" s="3">
-        <v>171700</v>
+        <v>175800</v>
       </c>
       <c r="H26" s="3">
-        <v>78500</v>
+        <v>80300</v>
       </c>
       <c r="I26" s="3">
-        <v>49200</v>
+        <v>50300</v>
       </c>
       <c r="J26" s="3">
-        <v>-184900</v>
+        <v>-189300</v>
       </c>
       <c r="K26" s="3">
         <v>-848800</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>535300</v>
+        <v>547900</v>
       </c>
       <c r="E27" s="3">
-        <v>800300</v>
+        <v>819200</v>
       </c>
       <c r="F27" s="3">
-        <v>365000</v>
+        <v>373600</v>
       </c>
       <c r="G27" s="3">
-        <v>151100</v>
+        <v>154700</v>
       </c>
       <c r="H27" s="3">
-        <v>72400</v>
+        <v>74200</v>
       </c>
       <c r="I27" s="3">
-        <v>49900</v>
+        <v>51000</v>
       </c>
       <c r="J27" s="3">
-        <v>-191100</v>
+        <v>-195600</v>
       </c>
       <c r="K27" s="3">
         <v>-847400</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="G29" s="3">
-        <v>-114200</v>
+        <v>-116900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29800</v>
+        <v>-30500</v>
       </c>
       <c r="E32" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F32" s="3">
         <v>-1200</v>
       </c>
       <c r="G32" s="3">
-        <v>-14900</v>
+        <v>-15200</v>
       </c>
       <c r="H32" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I32" s="3">
-        <v>69500</v>
+        <v>71200</v>
       </c>
       <c r="J32" s="3">
-        <v>30100</v>
+        <v>30800</v>
       </c>
       <c r="K32" s="3">
         <v>-3500</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>535300</v>
+        <v>547900</v>
       </c>
       <c r="E33" s="3">
-        <v>800300</v>
+        <v>819200</v>
       </c>
       <c r="F33" s="3">
-        <v>373900</v>
+        <v>382700</v>
       </c>
       <c r="G33" s="3">
-        <v>36900</v>
+        <v>37700</v>
       </c>
       <c r="H33" s="3">
-        <v>72400</v>
+        <v>74200</v>
       </c>
       <c r="I33" s="3">
-        <v>49900</v>
+        <v>51000</v>
       </c>
       <c r="J33" s="3">
-        <v>-191100</v>
+        <v>-195600</v>
       </c>
       <c r="K33" s="3">
         <v>-847400</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>535300</v>
+        <v>547900</v>
       </c>
       <c r="E35" s="3">
-        <v>800300</v>
+        <v>819200</v>
       </c>
       <c r="F35" s="3">
-        <v>373900</v>
+        <v>382700</v>
       </c>
       <c r="G35" s="3">
-        <v>36900</v>
+        <v>37700</v>
       </c>
       <c r="H35" s="3">
-        <v>72400</v>
+        <v>74200</v>
       </c>
       <c r="I35" s="3">
-        <v>49900</v>
+        <v>51000</v>
       </c>
       <c r="J35" s="3">
-        <v>-191100</v>
+        <v>-195600</v>
       </c>
       <c r="K35" s="3">
         <v>-847400</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>857600</v>
+        <v>877900</v>
       </c>
       <c r="E41" s="3">
-        <v>611300</v>
+        <v>625700</v>
       </c>
       <c r="F41" s="3">
-        <v>179200</v>
+        <v>183400</v>
       </c>
       <c r="G41" s="3">
-        <v>130900</v>
+        <v>134000</v>
       </c>
       <c r="H41" s="3">
-        <v>187900</v>
+        <v>192400</v>
       </c>
       <c r="I41" s="3">
-        <v>184400</v>
+        <v>188700</v>
       </c>
       <c r="J41" s="3">
-        <v>108500</v>
+        <v>111100</v>
       </c>
       <c r="K41" s="3">
         <v>168900</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>81300</v>
+        <v>83200</v>
       </c>
       <c r="E43" s="3">
-        <v>25200</v>
+        <v>25700</v>
       </c>
       <c r="F43" s="3">
-        <v>62400</v>
+        <v>63900</v>
       </c>
       <c r="G43" s="3">
-        <v>33500</v>
+        <v>34300</v>
       </c>
       <c r="H43" s="3">
-        <v>53400</v>
+        <v>54700</v>
       </c>
       <c r="I43" s="3">
-        <v>35300</v>
+        <v>36100</v>
       </c>
       <c r="J43" s="3">
-        <v>40900</v>
+        <v>41900</v>
       </c>
       <c r="K43" s="3">
         <v>39600</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>347100</v>
+        <v>355300</v>
       </c>
       <c r="E44" s="3">
-        <v>303400</v>
+        <v>310500</v>
       </c>
       <c r="F44" s="3">
-        <v>277700</v>
+        <v>284300</v>
       </c>
       <c r="G44" s="3">
-        <v>298100</v>
+        <v>305200</v>
       </c>
       <c r="H44" s="3">
-        <v>263100</v>
+        <v>269300</v>
       </c>
       <c r="I44" s="3">
-        <v>133400</v>
+        <v>136600</v>
       </c>
       <c r="J44" s="3">
-        <v>110000</v>
+        <v>112600</v>
       </c>
       <c r="K44" s="3">
         <v>122300</v>
@@ -1686,13 +1686,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>47100</v>
+        <v>48200</v>
       </c>
       <c r="E45" s="3">
-        <v>32100</v>
+        <v>32900</v>
       </c>
       <c r="F45" s="3">
-        <v>28100</v>
+        <v>28700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1333100</v>
+        <v>1364600</v>
       </c>
       <c r="E46" s="3">
-        <v>971900</v>
+        <v>994900</v>
       </c>
       <c r="F46" s="3">
-        <v>547300</v>
+        <v>560200</v>
       </c>
       <c r="G46" s="3">
-        <v>462600</v>
+        <v>473500</v>
       </c>
       <c r="H46" s="3">
-        <v>504400</v>
+        <v>516300</v>
       </c>
       <c r="I46" s="3">
-        <v>353100</v>
+        <v>361400</v>
       </c>
       <c r="J46" s="3">
-        <v>259400</v>
+        <v>265600</v>
       </c>
       <c r="K46" s="3">
         <v>330800</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>254200</v>
+        <v>260300</v>
       </c>
       <c r="E47" s="3">
-        <v>154200</v>
+        <v>157800</v>
       </c>
       <c r="F47" s="3">
-        <v>207300</v>
+        <v>212200</v>
       </c>
       <c r="G47" s="3">
-        <v>131900</v>
+        <v>135000</v>
       </c>
       <c r="H47" s="3">
-        <v>134600</v>
+        <v>137800</v>
       </c>
       <c r="I47" s="3">
-        <v>113400</v>
+        <v>116000</v>
       </c>
       <c r="J47" s="3">
-        <v>107800</v>
+        <v>110400</v>
       </c>
       <c r="K47" s="3">
         <v>158200</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2844000</v>
+        <v>2911200</v>
       </c>
       <c r="E48" s="3">
-        <v>3041800</v>
+        <v>3113600</v>
       </c>
       <c r="F48" s="3">
-        <v>2608100</v>
+        <v>2669800</v>
       </c>
       <c r="G48" s="3">
-        <v>2593300</v>
+        <v>2654600</v>
       </c>
       <c r="H48" s="3">
-        <v>2706800</v>
+        <v>2770700</v>
       </c>
       <c r="I48" s="3">
-        <v>2485300</v>
+        <v>2544000</v>
       </c>
       <c r="J48" s="3">
-        <v>2196100</v>
+        <v>2248000</v>
       </c>
       <c r="K48" s="3">
         <v>2194500</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>106800</v>
+        <v>109300</v>
       </c>
       <c r="E52" s="3">
-        <v>116800</v>
+        <v>119600</v>
       </c>
       <c r="F52" s="3">
-        <v>56300</v>
+        <v>57600</v>
       </c>
       <c r="G52" s="3">
-        <v>58900</v>
+        <v>60300</v>
       </c>
       <c r="H52" s="3">
-        <v>75900</v>
+        <v>77700</v>
       </c>
       <c r="I52" s="3">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="J52" s="3">
-        <v>16300</v>
+        <v>16700</v>
       </c>
       <c r="K52" s="3">
         <v>15200</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4538200</v>
+        <v>4645400</v>
       </c>
       <c r="E54" s="3">
-        <v>4284700</v>
+        <v>4385900</v>
       </c>
       <c r="F54" s="3">
-        <v>3419000</v>
+        <v>3499800</v>
       </c>
       <c r="G54" s="3">
-        <v>3246700</v>
+        <v>3323400</v>
       </c>
       <c r="H54" s="3">
-        <v>3421700</v>
+        <v>3502500</v>
       </c>
       <c r="I54" s="3">
-        <v>2976900</v>
+        <v>3047300</v>
       </c>
       <c r="J54" s="3">
-        <v>2579700</v>
+        <v>2640600</v>
       </c>
       <c r="K54" s="3">
         <v>2698700</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>142400</v>
+        <v>145700</v>
       </c>
       <c r="E57" s="3">
-        <v>113500</v>
+        <v>116200</v>
       </c>
       <c r="F57" s="3">
-        <v>106200</v>
+        <v>108700</v>
       </c>
       <c r="G57" s="3">
-        <v>102300</v>
+        <v>104800</v>
       </c>
       <c r="H57" s="3">
-        <v>121200</v>
+        <v>124000</v>
       </c>
       <c r="I57" s="3">
-        <v>104100</v>
+        <v>106600</v>
       </c>
       <c r="J57" s="3">
-        <v>74900</v>
+        <v>76600</v>
       </c>
       <c r="K57" s="3">
         <v>67600</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32400</v>
+        <v>33100</v>
       </c>
       <c r="E58" s="3">
-        <v>43500</v>
+        <v>44500</v>
       </c>
       <c r="F58" s="3">
-        <v>33200</v>
+        <v>34000</v>
       </c>
       <c r="G58" s="3">
-        <v>31900</v>
+        <v>32600</v>
       </c>
       <c r="H58" s="3">
-        <v>385600</v>
+        <v>394800</v>
       </c>
       <c r="I58" s="3">
-        <v>17800</v>
+        <v>18200</v>
       </c>
       <c r="J58" s="3">
-        <v>14900</v>
+        <v>15300</v>
       </c>
       <c r="K58" s="3">
         <v>13300</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>119900</v>
+        <v>122700</v>
       </c>
       <c r="E59" s="3">
-        <v>207600</v>
+        <v>212500</v>
       </c>
       <c r="F59" s="3">
-        <v>70900</v>
+        <v>72600</v>
       </c>
       <c r="G59" s="3">
-        <v>129900</v>
+        <v>132900</v>
       </c>
       <c r="H59" s="3">
-        <v>123400</v>
+        <v>126300</v>
       </c>
       <c r="I59" s="3">
-        <v>102400</v>
+        <v>104900</v>
       </c>
       <c r="J59" s="3">
-        <v>36300</v>
+        <v>37100</v>
       </c>
       <c r="K59" s="3">
         <v>27000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>294600</v>
+        <v>301600</v>
       </c>
       <c r="E60" s="3">
-        <v>364600</v>
+        <v>373200</v>
       </c>
       <c r="F60" s="3">
-        <v>210300</v>
+        <v>215300</v>
       </c>
       <c r="G60" s="3">
-        <v>264100</v>
+        <v>270300</v>
       </c>
       <c r="H60" s="3">
-        <v>630200</v>
+        <v>645100</v>
       </c>
       <c r="I60" s="3">
-        <v>224300</v>
+        <v>229600</v>
       </c>
       <c r="J60" s="3">
-        <v>126100</v>
+        <v>129000</v>
       </c>
       <c r="K60" s="3">
         <v>107900</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>63400</v>
+        <v>64900</v>
       </c>
       <c r="E61" s="3">
-        <v>96700</v>
+        <v>99000</v>
       </c>
       <c r="F61" s="3">
-        <v>300500</v>
+        <v>307600</v>
       </c>
       <c r="G61" s="3">
-        <v>579200</v>
+        <v>592900</v>
       </c>
       <c r="H61" s="3">
-        <v>509100</v>
+        <v>521200</v>
       </c>
       <c r="I61" s="3">
-        <v>602500</v>
+        <v>616800</v>
       </c>
       <c r="J61" s="3">
-        <v>575300</v>
+        <v>588900</v>
       </c>
       <c r="K61" s="3">
         <v>469800</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>407000</v>
+        <v>416600</v>
       </c>
       <c r="E62" s="3">
-        <v>433000</v>
+        <v>443200</v>
       </c>
       <c r="F62" s="3">
-        <v>293800</v>
+        <v>300700</v>
       </c>
       <c r="G62" s="3">
-        <v>297100</v>
+        <v>304200</v>
       </c>
       <c r="H62" s="3">
-        <v>286300</v>
+        <v>293100</v>
       </c>
       <c r="I62" s="3">
-        <v>296500</v>
+        <v>303500</v>
       </c>
       <c r="J62" s="3">
-        <v>205700</v>
+        <v>210600</v>
       </c>
       <c r="K62" s="3">
         <v>172900</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>893300</v>
+        <v>914400</v>
       </c>
       <c r="E66" s="3">
-        <v>1007200</v>
+        <v>1030900</v>
       </c>
       <c r="F66" s="3">
-        <v>882900</v>
+        <v>903700</v>
       </c>
       <c r="G66" s="3">
-        <v>1193800</v>
+        <v>1222000</v>
       </c>
       <c r="H66" s="3">
-        <v>1443800</v>
+        <v>1478000</v>
       </c>
       <c r="I66" s="3">
-        <v>1135600</v>
+        <v>1162400</v>
       </c>
       <c r="J66" s="3">
-        <v>918400</v>
+        <v>940100</v>
       </c>
       <c r="K66" s="3">
         <v>826100</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>646600</v>
+        <v>661800</v>
       </c>
       <c r="E72" s="3">
-        <v>324100</v>
+        <v>331800</v>
       </c>
       <c r="F72" s="3">
-        <v>-332900</v>
+        <v>-340800</v>
       </c>
       <c r="G72" s="3">
-        <v>-698100</v>
+        <v>-714600</v>
       </c>
       <c r="H72" s="3">
-        <v>-778500</v>
+        <v>-796900</v>
       </c>
       <c r="I72" s="3">
-        <v>-850900</v>
+        <v>-871000</v>
       </c>
       <c r="J72" s="3">
-        <v>-900800</v>
+        <v>-922100</v>
       </c>
       <c r="K72" s="3">
         <v>-683500</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3644900</v>
+        <v>3731000</v>
       </c>
       <c r="E76" s="3">
-        <v>3277500</v>
+        <v>3354900</v>
       </c>
       <c r="F76" s="3">
-        <v>2536200</v>
+        <v>2596100</v>
       </c>
       <c r="G76" s="3">
-        <v>2052800</v>
+        <v>2101300</v>
       </c>
       <c r="H76" s="3">
-        <v>1977800</v>
+        <v>2024600</v>
       </c>
       <c r="I76" s="3">
-        <v>1841300</v>
+        <v>1884800</v>
       </c>
       <c r="J76" s="3">
-        <v>1661300</v>
+        <v>1700500</v>
       </c>
       <c r="K76" s="3">
         <v>1872600</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>535300</v>
+        <v>547900</v>
       </c>
       <c r="E81" s="3">
-        <v>800300</v>
+        <v>819200</v>
       </c>
       <c r="F81" s="3">
-        <v>373900</v>
+        <v>382700</v>
       </c>
       <c r="G81" s="3">
-        <v>36900</v>
+        <v>37700</v>
       </c>
       <c r="H81" s="3">
-        <v>72400</v>
+        <v>74200</v>
       </c>
       <c r="I81" s="3">
-        <v>49900</v>
+        <v>51000</v>
       </c>
       <c r="J81" s="3">
-        <v>-191100</v>
+        <v>-195600</v>
       </c>
       <c r="K81" s="3">
         <v>-847400</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>482800</v>
+        <v>494200</v>
       </c>
       <c r="E83" s="3">
-        <v>384200</v>
+        <v>393300</v>
       </c>
       <c r="F83" s="3">
-        <v>320200</v>
+        <v>327800</v>
       </c>
       <c r="G83" s="3">
-        <v>390500</v>
+        <v>399700</v>
       </c>
       <c r="H83" s="3">
-        <v>204500</v>
+        <v>209300</v>
       </c>
       <c r="I83" s="3">
-        <v>219600</v>
+        <v>224800</v>
       </c>
       <c r="J83" s="3">
-        <v>183900</v>
+        <v>188200</v>
       </c>
       <c r="K83" s="3">
         <v>143400</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>922700</v>
+        <v>944500</v>
       </c>
       <c r="E89" s="3">
-        <v>1211400</v>
+        <v>1240000</v>
       </c>
       <c r="F89" s="3">
-        <v>626900</v>
+        <v>641700</v>
       </c>
       <c r="G89" s="3">
-        <v>574500</v>
+        <v>588100</v>
       </c>
       <c r="H89" s="3">
-        <v>197500</v>
+        <v>202200</v>
       </c>
       <c r="I89" s="3">
-        <v>524800</v>
+        <v>537200</v>
       </c>
       <c r="J89" s="3">
-        <v>223500</v>
+        <v>228800</v>
       </c>
       <c r="K89" s="3">
         <v>149300</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-385200</v>
+        <v>-394300</v>
       </c>
       <c r="E91" s="3">
-        <v>-449300</v>
+        <v>-459900</v>
       </c>
       <c r="F91" s="3">
-        <v>-332800</v>
+        <v>-340700</v>
       </c>
       <c r="G91" s="3">
-        <v>-346100</v>
+        <v>-354300</v>
       </c>
       <c r="H91" s="3">
-        <v>-542900</v>
+        <v>-555800</v>
       </c>
       <c r="I91" s="3">
-        <v>-494400</v>
+        <v>-506100</v>
       </c>
       <c r="J91" s="3">
-        <v>-364200</v>
+        <v>-372800</v>
       </c>
       <c r="K91" s="3">
         <v>-611100</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-364800</v>
+        <v>-373400</v>
       </c>
       <c r="E94" s="3">
-        <v>-430700</v>
+        <v>-440800</v>
       </c>
       <c r="F94" s="3">
-        <v>-340000</v>
+        <v>-348000</v>
       </c>
       <c r="G94" s="3">
-        <v>-348500</v>
+        <v>-356700</v>
       </c>
       <c r="H94" s="3">
-        <v>-442000</v>
+        <v>-452400</v>
       </c>
       <c r="I94" s="3">
-        <v>-499300</v>
+        <v>-511100</v>
       </c>
       <c r="J94" s="3">
-        <v>-375800</v>
+        <v>-384700</v>
       </c>
       <c r="K94" s="3">
         <v>-369600</v>
@@ -3065,13 +3065,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-214600</v>
+        <v>-219600</v>
       </c>
       <c r="E96" s="3">
-        <v>-146900</v>
+        <v>-150400</v>
       </c>
       <c r="F96" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-298500</v>
+        <v>-305500</v>
       </c>
       <c r="E100" s="3">
-        <v>-355400</v>
+        <v>-363800</v>
       </c>
       <c r="F100" s="3">
-        <v>-239600</v>
+        <v>-245300</v>
       </c>
       <c r="G100" s="3">
-        <v>-281000</v>
+        <v>-287600</v>
       </c>
       <c r="H100" s="3">
-        <v>246000</v>
+        <v>251800</v>
       </c>
       <c r="I100" s="3">
-        <v>51600</v>
+        <v>52800</v>
       </c>
       <c r="J100" s="3">
-        <v>96100</v>
+        <v>98300</v>
       </c>
       <c r="K100" s="3">
         <v>71700</v>
@@ -3215,16 +3215,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="E101" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="F101" s="3">
         <v>900</v>
       </c>
       <c r="G101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H101" s="3">
         <v>2100</v>
@@ -3233,7 +3233,7 @@
         <v>-1200</v>
       </c>
       <c r="J101" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K101" s="3">
         <v>-4500</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>246300</v>
+        <v>252200</v>
       </c>
       <c r="E102" s="3">
-        <v>432100</v>
+        <v>442300</v>
       </c>
       <c r="F102" s="3">
-        <v>48200</v>
+        <v>49400</v>
       </c>
       <c r="G102" s="3">
-        <v>-57000</v>
+        <v>-58300</v>
       </c>
       <c r="H102" s="3">
         <v>3600</v>
       </c>
       <c r="I102" s="3">
-        <v>75900</v>
+        <v>77600</v>
       </c>
       <c r="J102" s="3">
-        <v>-60400</v>
+        <v>-61900</v>
       </c>
       <c r="K102" s="3">
         <v>-153100</v>

--- a/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2298700</v>
+        <v>2277500</v>
       </c>
       <c r="E8" s="3">
-        <v>2333500</v>
+        <v>2312000</v>
       </c>
       <c r="F8" s="3">
-        <v>1507400</v>
+        <v>1493500</v>
       </c>
       <c r="G8" s="3">
-        <v>1371500</v>
+        <v>1358900</v>
       </c>
       <c r="H8" s="3">
-        <v>833100</v>
+        <v>825400</v>
       </c>
       <c r="I8" s="3">
-        <v>891300</v>
+        <v>883100</v>
       </c>
       <c r="J8" s="3">
-        <v>722200</v>
+        <v>715500</v>
       </c>
       <c r="K8" s="3">
         <v>619900</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1296200</v>
+        <v>1284300</v>
       </c>
       <c r="E9" s="3">
-        <v>1083500</v>
+        <v>1073500</v>
       </c>
       <c r="F9" s="3">
-        <v>919800</v>
+        <v>911400</v>
       </c>
       <c r="G9" s="3">
-        <v>874900</v>
+        <v>866800</v>
       </c>
       <c r="H9" s="3">
-        <v>637100</v>
+        <v>631200</v>
       </c>
       <c r="I9" s="3">
-        <v>617300</v>
+        <v>611600</v>
       </c>
       <c r="J9" s="3">
-        <v>608700</v>
+        <v>603100</v>
       </c>
       <c r="K9" s="3">
         <v>500300</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1002500</v>
+        <v>993300</v>
       </c>
       <c r="E10" s="3">
-        <v>1250000</v>
+        <v>1238500</v>
       </c>
       <c r="F10" s="3">
-        <v>587600</v>
+        <v>582200</v>
       </c>
       <c r="G10" s="3">
-        <v>496600</v>
+        <v>492000</v>
       </c>
       <c r="H10" s="3">
-        <v>196000</v>
+        <v>194200</v>
       </c>
       <c r="I10" s="3">
-        <v>274000</v>
+        <v>271500</v>
       </c>
       <c r="J10" s="3">
-        <v>113500</v>
+        <v>112500</v>
       </c>
       <c r="K10" s="3">
         <v>119600</v>
@@ -881,22 +881,22 @@
         <v>7700</v>
       </c>
       <c r="E14" s="3">
-        <v>-208600</v>
+        <v>-206700</v>
       </c>
       <c r="F14" s="3">
-        <v>-173900</v>
+        <v>-172300</v>
       </c>
       <c r="G14" s="3">
-        <v>29700</v>
+        <v>29500</v>
       </c>
       <c r="H14" s="3">
         <v>-1100</v>
       </c>
       <c r="I14" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="J14" s="3">
-        <v>170700</v>
+        <v>169100</v>
       </c>
       <c r="K14" s="3">
         <v>972000</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1366500</v>
+        <v>1354000</v>
       </c>
       <c r="E17" s="3">
-        <v>960000</v>
+        <v>951200</v>
       </c>
       <c r="F17" s="3">
-        <v>844800</v>
+        <v>837000</v>
       </c>
       <c r="G17" s="3">
-        <v>998300</v>
+        <v>989100</v>
       </c>
       <c r="H17" s="3">
-        <v>722200</v>
+        <v>715500</v>
       </c>
       <c r="I17" s="3">
-        <v>717400</v>
+        <v>710800</v>
       </c>
       <c r="J17" s="3">
-        <v>857500</v>
+        <v>849600</v>
       </c>
       <c r="K17" s="3">
         <v>1573300</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>932200</v>
+        <v>923600</v>
       </c>
       <c r="E18" s="3">
-        <v>1373400</v>
+        <v>1360800</v>
       </c>
       <c r="F18" s="3">
-        <v>662600</v>
+        <v>656500</v>
       </c>
       <c r="G18" s="3">
-        <v>373200</v>
+        <v>369800</v>
       </c>
       <c r="H18" s="3">
-        <v>110900</v>
+        <v>109900</v>
       </c>
       <c r="I18" s="3">
-        <v>173900</v>
+        <v>172300</v>
       </c>
       <c r="J18" s="3">
-        <v>-135300</v>
+        <v>-134000</v>
       </c>
       <c r="K18" s="3">
         <v>-953400</v>
@@ -1023,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30500</v>
+        <v>30200</v>
       </c>
       <c r="E20" s="3">
         <v>-3500</v>
@@ -1032,16 +1032,16 @@
         <v>1200</v>
       </c>
       <c r="G20" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="H20" s="3">
         <v>-4200</v>
       </c>
       <c r="I20" s="3">
-        <v>-71200</v>
+        <v>-70500</v>
       </c>
       <c r="J20" s="3">
-        <v>-30800</v>
+        <v>-30500</v>
       </c>
       <c r="K20" s="3">
         <v>3500</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1455000</v>
+        <v>1445100</v>
       </c>
       <c r="E21" s="3">
-        <v>1761600</v>
+        <v>1748200</v>
       </c>
       <c r="F21" s="3">
-        <v>990400</v>
+        <v>983600</v>
       </c>
       <c r="G21" s="3">
-        <v>786600</v>
+        <v>782100</v>
       </c>
       <c r="H21" s="3">
-        <v>315200</v>
+        <v>313800</v>
       </c>
       <c r="I21" s="3">
-        <v>326600</v>
+        <v>325100</v>
       </c>
       <c r="J21" s="3">
-        <v>21400</v>
+        <v>22500</v>
       </c>
       <c r="K21" s="3">
         <v>-806000</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="E22" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="F22" s="3">
-        <v>34600</v>
+        <v>34300</v>
       </c>
       <c r="G22" s="3">
-        <v>40000</v>
+        <v>39600</v>
       </c>
       <c r="H22" s="3">
-        <v>16800</v>
+        <v>16700</v>
       </c>
       <c r="I22" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="J22" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="K22" s="3">
         <v>7300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>947300</v>
+        <v>938600</v>
       </c>
       <c r="E23" s="3">
-        <v>1349300</v>
+        <v>1336900</v>
       </c>
       <c r="F23" s="3">
-        <v>629200</v>
+        <v>623400</v>
       </c>
       <c r="G23" s="3">
-        <v>348400</v>
+        <v>345200</v>
       </c>
       <c r="H23" s="3">
-        <v>89900</v>
+        <v>89000</v>
       </c>
       <c r="I23" s="3">
-        <v>89400</v>
+        <v>88600</v>
       </c>
       <c r="J23" s="3">
-        <v>-187100</v>
+        <v>-185400</v>
       </c>
       <c r="K23" s="3">
         <v>-957200</v>
@@ -1143,22 +1143,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>346200</v>
+        <v>343000</v>
       </c>
       <c r="E24" s="3">
-        <v>472200</v>
+        <v>467900</v>
       </c>
       <c r="F24" s="3">
-        <v>226400</v>
+        <v>224300</v>
       </c>
       <c r="G24" s="3">
-        <v>172700</v>
+        <v>171100</v>
       </c>
       <c r="H24" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="I24" s="3">
-        <v>39000</v>
+        <v>38700</v>
       </c>
       <c r="J24" s="3">
         <v>2200</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>601100</v>
+        <v>595600</v>
       </c>
       <c r="E26" s="3">
-        <v>877100</v>
+        <v>869000</v>
       </c>
       <c r="F26" s="3">
-        <v>402900</v>
+        <v>399200</v>
       </c>
       <c r="G26" s="3">
-        <v>175800</v>
+        <v>174200</v>
       </c>
       <c r="H26" s="3">
-        <v>80300</v>
+        <v>79600</v>
       </c>
       <c r="I26" s="3">
-        <v>50300</v>
+        <v>49900</v>
       </c>
       <c r="J26" s="3">
-        <v>-189300</v>
+        <v>-187500</v>
       </c>
       <c r="K26" s="3">
         <v>-848800</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>547900</v>
+        <v>542900</v>
       </c>
       <c r="E27" s="3">
-        <v>819200</v>
+        <v>811700</v>
       </c>
       <c r="F27" s="3">
-        <v>373600</v>
+        <v>370100</v>
       </c>
       <c r="G27" s="3">
-        <v>154700</v>
+        <v>153300</v>
       </c>
       <c r="H27" s="3">
-        <v>74200</v>
+        <v>73500</v>
       </c>
       <c r="I27" s="3">
-        <v>51000</v>
+        <v>50600</v>
       </c>
       <c r="J27" s="3">
-        <v>-195600</v>
+        <v>-193800</v>
       </c>
       <c r="K27" s="3">
         <v>-847400</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="G29" s="3">
-        <v>-116900</v>
+        <v>-115900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30500</v>
+        <v>-30200</v>
       </c>
       <c r="E32" s="3">
         <v>3500</v>
@@ -1392,16 +1392,16 @@
         <v>-1200</v>
       </c>
       <c r="G32" s="3">
-        <v>-15200</v>
+        <v>-15100</v>
       </c>
       <c r="H32" s="3">
         <v>4200</v>
       </c>
       <c r="I32" s="3">
-        <v>71200</v>
+        <v>70500</v>
       </c>
       <c r="J32" s="3">
-        <v>30800</v>
+        <v>30500</v>
       </c>
       <c r="K32" s="3">
         <v>-3500</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>547900</v>
+        <v>542900</v>
       </c>
       <c r="E33" s="3">
-        <v>819200</v>
+        <v>811700</v>
       </c>
       <c r="F33" s="3">
-        <v>382700</v>
+        <v>379200</v>
       </c>
       <c r="G33" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="H33" s="3">
-        <v>74200</v>
+        <v>73500</v>
       </c>
       <c r="I33" s="3">
-        <v>51000</v>
+        <v>50600</v>
       </c>
       <c r="J33" s="3">
-        <v>-195600</v>
+        <v>-193800</v>
       </c>
       <c r="K33" s="3">
         <v>-847400</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>547900</v>
+        <v>542900</v>
       </c>
       <c r="E35" s="3">
-        <v>819200</v>
+        <v>811700</v>
       </c>
       <c r="F35" s="3">
-        <v>382700</v>
+        <v>379200</v>
       </c>
       <c r="G35" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="H35" s="3">
-        <v>74200</v>
+        <v>73500</v>
       </c>
       <c r="I35" s="3">
-        <v>51000</v>
+        <v>50600</v>
       </c>
       <c r="J35" s="3">
-        <v>-195600</v>
+        <v>-193800</v>
       </c>
       <c r="K35" s="3">
         <v>-847400</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>877900</v>
+        <v>869800</v>
       </c>
       <c r="E41" s="3">
-        <v>625700</v>
+        <v>619900</v>
       </c>
       <c r="F41" s="3">
-        <v>183400</v>
+        <v>181700</v>
       </c>
       <c r="G41" s="3">
-        <v>134000</v>
+        <v>132800</v>
       </c>
       <c r="H41" s="3">
-        <v>192400</v>
+        <v>190600</v>
       </c>
       <c r="I41" s="3">
-        <v>188700</v>
+        <v>187000</v>
       </c>
       <c r="J41" s="3">
-        <v>111100</v>
+        <v>110000</v>
       </c>
       <c r="K41" s="3">
         <v>168900</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>83200</v>
+        <v>82500</v>
       </c>
       <c r="E43" s="3">
-        <v>25700</v>
+        <v>25500</v>
       </c>
       <c r="F43" s="3">
-        <v>63900</v>
+        <v>63300</v>
       </c>
       <c r="G43" s="3">
-        <v>34300</v>
+        <v>34000</v>
       </c>
       <c r="H43" s="3">
-        <v>54700</v>
+        <v>54200</v>
       </c>
       <c r="I43" s="3">
-        <v>36100</v>
+        <v>35800</v>
       </c>
       <c r="J43" s="3">
-        <v>41900</v>
+        <v>41500</v>
       </c>
       <c r="K43" s="3">
         <v>39600</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>355300</v>
+        <v>352000</v>
       </c>
       <c r="E44" s="3">
-        <v>310500</v>
+        <v>307700</v>
       </c>
       <c r="F44" s="3">
-        <v>284300</v>
+        <v>281600</v>
       </c>
       <c r="G44" s="3">
-        <v>305200</v>
+        <v>302400</v>
       </c>
       <c r="H44" s="3">
-        <v>269300</v>
+        <v>266800</v>
       </c>
       <c r="I44" s="3">
-        <v>136600</v>
+        <v>135300</v>
       </c>
       <c r="J44" s="3">
-        <v>112600</v>
+        <v>111600</v>
       </c>
       <c r="K44" s="3">
         <v>122300</v>
@@ -1686,13 +1686,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48200</v>
+        <v>47800</v>
       </c>
       <c r="E45" s="3">
-        <v>32900</v>
+        <v>32600</v>
       </c>
       <c r="F45" s="3">
-        <v>28700</v>
+        <v>28500</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1364600</v>
+        <v>1352000</v>
       </c>
       <c r="E46" s="3">
-        <v>994900</v>
+        <v>985700</v>
       </c>
       <c r="F46" s="3">
-        <v>560200</v>
+        <v>555100</v>
       </c>
       <c r="G46" s="3">
-        <v>473500</v>
+        <v>469200</v>
       </c>
       <c r="H46" s="3">
-        <v>516300</v>
+        <v>511600</v>
       </c>
       <c r="I46" s="3">
-        <v>361400</v>
+        <v>358100</v>
       </c>
       <c r="J46" s="3">
-        <v>265600</v>
+        <v>263100</v>
       </c>
       <c r="K46" s="3">
         <v>330800</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>260300</v>
+        <v>257900</v>
       </c>
       <c r="E47" s="3">
-        <v>157800</v>
+        <v>156300</v>
       </c>
       <c r="F47" s="3">
-        <v>212200</v>
+        <v>210300</v>
       </c>
       <c r="G47" s="3">
-        <v>135000</v>
+        <v>133700</v>
       </c>
       <c r="H47" s="3">
-        <v>137800</v>
+        <v>136500</v>
       </c>
       <c r="I47" s="3">
-        <v>116000</v>
+        <v>115000</v>
       </c>
       <c r="J47" s="3">
-        <v>110400</v>
+        <v>109300</v>
       </c>
       <c r="K47" s="3">
         <v>158200</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2911200</v>
+        <v>2884400</v>
       </c>
       <c r="E48" s="3">
-        <v>3113600</v>
+        <v>3085000</v>
       </c>
       <c r="F48" s="3">
-        <v>2669800</v>
+        <v>2645200</v>
       </c>
       <c r="G48" s="3">
-        <v>2654600</v>
+        <v>2630200</v>
       </c>
       <c r="H48" s="3">
-        <v>2770700</v>
+        <v>2745200</v>
       </c>
       <c r="I48" s="3">
-        <v>2544000</v>
+        <v>2520600</v>
       </c>
       <c r="J48" s="3">
-        <v>2248000</v>
+        <v>2227300</v>
       </c>
       <c r="K48" s="3">
         <v>2194500</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>109300</v>
+        <v>108300</v>
       </c>
       <c r="E52" s="3">
-        <v>119600</v>
+        <v>118500</v>
       </c>
       <c r="F52" s="3">
-        <v>57600</v>
+        <v>57100</v>
       </c>
       <c r="G52" s="3">
-        <v>60300</v>
+        <v>59700</v>
       </c>
       <c r="H52" s="3">
-        <v>77700</v>
+        <v>77000</v>
       </c>
       <c r="I52" s="3">
-        <v>25800</v>
+        <v>25500</v>
       </c>
       <c r="J52" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="K52" s="3">
         <v>15200</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4645400</v>
+        <v>4602600</v>
       </c>
       <c r="E54" s="3">
-        <v>4385900</v>
+        <v>4345500</v>
       </c>
       <c r="F54" s="3">
-        <v>3499800</v>
+        <v>3467600</v>
       </c>
       <c r="G54" s="3">
-        <v>3323400</v>
+        <v>3292800</v>
       </c>
       <c r="H54" s="3">
-        <v>3502500</v>
+        <v>3470300</v>
       </c>
       <c r="I54" s="3">
-        <v>3047300</v>
+        <v>3019200</v>
       </c>
       <c r="J54" s="3">
-        <v>2640600</v>
+        <v>2616300</v>
       </c>
       <c r="K54" s="3">
         <v>2698700</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>145700</v>
+        <v>144400</v>
       </c>
       <c r="E57" s="3">
-        <v>116200</v>
+        <v>115100</v>
       </c>
       <c r="F57" s="3">
-        <v>108700</v>
+        <v>107700</v>
       </c>
       <c r="G57" s="3">
-        <v>104800</v>
+        <v>103800</v>
       </c>
       <c r="H57" s="3">
-        <v>124000</v>
+        <v>122900</v>
       </c>
       <c r="I57" s="3">
-        <v>106600</v>
+        <v>105600</v>
       </c>
       <c r="J57" s="3">
-        <v>76600</v>
+        <v>75900</v>
       </c>
       <c r="K57" s="3">
         <v>67600</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33100</v>
+        <v>32800</v>
       </c>
       <c r="E58" s="3">
-        <v>44500</v>
+        <v>44100</v>
       </c>
       <c r="F58" s="3">
-        <v>34000</v>
+        <v>33600</v>
       </c>
       <c r="G58" s="3">
-        <v>32600</v>
+        <v>32300</v>
       </c>
       <c r="H58" s="3">
-        <v>394800</v>
+        <v>391100</v>
       </c>
       <c r="I58" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="J58" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="K58" s="3">
         <v>13300</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122700</v>
+        <v>121600</v>
       </c>
       <c r="E59" s="3">
-        <v>212500</v>
+        <v>210600</v>
       </c>
       <c r="F59" s="3">
-        <v>72600</v>
+        <v>71900</v>
       </c>
       <c r="G59" s="3">
-        <v>132900</v>
+        <v>131700</v>
       </c>
       <c r="H59" s="3">
-        <v>126300</v>
+        <v>125100</v>
       </c>
       <c r="I59" s="3">
-        <v>104900</v>
+        <v>103900</v>
       </c>
       <c r="J59" s="3">
-        <v>37100</v>
+        <v>36800</v>
       </c>
       <c r="K59" s="3">
         <v>27000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>301600</v>
+        <v>298800</v>
       </c>
       <c r="E60" s="3">
-        <v>373200</v>
+        <v>369700</v>
       </c>
       <c r="F60" s="3">
-        <v>215300</v>
+        <v>213300</v>
       </c>
       <c r="G60" s="3">
-        <v>270300</v>
+        <v>267800</v>
       </c>
       <c r="H60" s="3">
-        <v>645100</v>
+        <v>639100</v>
       </c>
       <c r="I60" s="3">
-        <v>229600</v>
+        <v>227500</v>
       </c>
       <c r="J60" s="3">
-        <v>129000</v>
+        <v>127800</v>
       </c>
       <c r="K60" s="3">
         <v>107900</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>64900</v>
+        <v>64300</v>
       </c>
       <c r="E61" s="3">
-        <v>99000</v>
+        <v>98100</v>
       </c>
       <c r="F61" s="3">
-        <v>307600</v>
+        <v>304800</v>
       </c>
       <c r="G61" s="3">
-        <v>592900</v>
+        <v>587400</v>
       </c>
       <c r="H61" s="3">
-        <v>521200</v>
+        <v>516400</v>
       </c>
       <c r="I61" s="3">
-        <v>616800</v>
+        <v>611100</v>
       </c>
       <c r="J61" s="3">
-        <v>588900</v>
+        <v>583500</v>
       </c>
       <c r="K61" s="3">
         <v>469800</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>416600</v>
+        <v>412800</v>
       </c>
       <c r="E62" s="3">
-        <v>443200</v>
+        <v>439100</v>
       </c>
       <c r="F62" s="3">
+        <v>297900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>301400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>290400</v>
+      </c>
+      <c r="I62" s="3">
         <v>300700</v>
       </c>
-      <c r="G62" s="3">
-        <v>304200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>293100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>303500</v>
-      </c>
       <c r="J62" s="3">
-        <v>210600</v>
+        <v>208700</v>
       </c>
       <c r="K62" s="3">
         <v>172900</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>914400</v>
+        <v>906000</v>
       </c>
       <c r="E66" s="3">
-        <v>1030900</v>
+        <v>1021500</v>
       </c>
       <c r="F66" s="3">
-        <v>903700</v>
+        <v>895400</v>
       </c>
       <c r="G66" s="3">
-        <v>1222000</v>
+        <v>1210800</v>
       </c>
       <c r="H66" s="3">
-        <v>1478000</v>
+        <v>1464400</v>
       </c>
       <c r="I66" s="3">
-        <v>1162400</v>
+        <v>1151700</v>
       </c>
       <c r="J66" s="3">
-        <v>940100</v>
+        <v>931400</v>
       </c>
       <c r="K66" s="3">
         <v>826100</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>661800</v>
+        <v>655700</v>
       </c>
       <c r="E72" s="3">
-        <v>331800</v>
+        <v>328700</v>
       </c>
       <c r="F72" s="3">
-        <v>-340800</v>
+        <v>-337600</v>
       </c>
       <c r="G72" s="3">
-        <v>-714600</v>
+        <v>-708000</v>
       </c>
       <c r="H72" s="3">
-        <v>-796900</v>
+        <v>-789500</v>
       </c>
       <c r="I72" s="3">
-        <v>-871000</v>
+        <v>-863000</v>
       </c>
       <c r="J72" s="3">
-        <v>-922100</v>
+        <v>-913600</v>
       </c>
       <c r="K72" s="3">
         <v>-683500</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3731000</v>
+        <v>3696600</v>
       </c>
       <c r="E76" s="3">
-        <v>3354900</v>
+        <v>3324100</v>
       </c>
       <c r="F76" s="3">
-        <v>2596100</v>
+        <v>2572200</v>
       </c>
       <c r="G76" s="3">
-        <v>2101300</v>
+        <v>2082000</v>
       </c>
       <c r="H76" s="3">
-        <v>2024600</v>
+        <v>2005900</v>
       </c>
       <c r="I76" s="3">
-        <v>1884800</v>
+        <v>1867500</v>
       </c>
       <c r="J76" s="3">
-        <v>1700500</v>
+        <v>1684900</v>
       </c>
       <c r="K76" s="3">
         <v>1872600</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>547900</v>
+        <v>542900</v>
       </c>
       <c r="E81" s="3">
-        <v>819200</v>
+        <v>811700</v>
       </c>
       <c r="F81" s="3">
-        <v>382700</v>
+        <v>379200</v>
       </c>
       <c r="G81" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="H81" s="3">
-        <v>74200</v>
+        <v>73500</v>
       </c>
       <c r="I81" s="3">
-        <v>51000</v>
+        <v>50600</v>
       </c>
       <c r="J81" s="3">
-        <v>-195600</v>
+        <v>-193800</v>
       </c>
       <c r="K81" s="3">
         <v>-847400</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>494200</v>
+        <v>489700</v>
       </c>
       <c r="E83" s="3">
-        <v>393300</v>
+        <v>389600</v>
       </c>
       <c r="F83" s="3">
-        <v>327800</v>
+        <v>324800</v>
       </c>
       <c r="G83" s="3">
-        <v>399700</v>
+        <v>396000</v>
       </c>
       <c r="H83" s="3">
-        <v>209300</v>
+        <v>207400</v>
       </c>
       <c r="I83" s="3">
-        <v>224800</v>
+        <v>222700</v>
       </c>
       <c r="J83" s="3">
-        <v>188200</v>
+        <v>186500</v>
       </c>
       <c r="K83" s="3">
         <v>143400</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>944500</v>
+        <v>935800</v>
       </c>
       <c r="E89" s="3">
-        <v>1240000</v>
+        <v>1228600</v>
       </c>
       <c r="F89" s="3">
-        <v>641700</v>
+        <v>635800</v>
       </c>
       <c r="G89" s="3">
-        <v>588100</v>
+        <v>582700</v>
       </c>
       <c r="H89" s="3">
-        <v>202200</v>
+        <v>200300</v>
       </c>
       <c r="I89" s="3">
-        <v>537200</v>
+        <v>532200</v>
       </c>
       <c r="J89" s="3">
-        <v>228800</v>
+        <v>226700</v>
       </c>
       <c r="K89" s="3">
         <v>149300</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-394300</v>
+        <v>-390700</v>
       </c>
       <c r="E91" s="3">
-        <v>-459900</v>
+        <v>-455700</v>
       </c>
       <c r="F91" s="3">
-        <v>-340700</v>
+        <v>-337500</v>
       </c>
       <c r="G91" s="3">
-        <v>-354300</v>
+        <v>-351000</v>
       </c>
       <c r="H91" s="3">
-        <v>-555800</v>
+        <v>-550700</v>
       </c>
       <c r="I91" s="3">
-        <v>-506100</v>
+        <v>-501400</v>
       </c>
       <c r="J91" s="3">
-        <v>-372800</v>
+        <v>-369400</v>
       </c>
       <c r="K91" s="3">
         <v>-611100</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-373400</v>
+        <v>-370000</v>
       </c>
       <c r="E94" s="3">
-        <v>-440800</v>
+        <v>-436800</v>
       </c>
       <c r="F94" s="3">
-        <v>-348000</v>
+        <v>-344800</v>
       </c>
       <c r="G94" s="3">
-        <v>-356700</v>
+        <v>-353400</v>
       </c>
       <c r="H94" s="3">
-        <v>-452400</v>
+        <v>-448300</v>
       </c>
       <c r="I94" s="3">
-        <v>-511100</v>
+        <v>-506400</v>
       </c>
       <c r="J94" s="3">
-        <v>-384700</v>
+        <v>-381200</v>
       </c>
       <c r="K94" s="3">
         <v>-369600</v>
@@ -3065,13 +3065,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-219600</v>
+        <v>-217600</v>
       </c>
       <c r="E96" s="3">
-        <v>-150400</v>
+        <v>-149000</v>
       </c>
       <c r="F96" s="3">
-        <v>-13400</v>
+        <v>-13300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-305500</v>
+        <v>-302700</v>
       </c>
       <c r="E100" s="3">
-        <v>-363800</v>
+        <v>-360400</v>
       </c>
       <c r="F100" s="3">
-        <v>-245300</v>
+        <v>-243100</v>
       </c>
       <c r="G100" s="3">
-        <v>-287600</v>
+        <v>-285000</v>
       </c>
       <c r="H100" s="3">
-        <v>251800</v>
+        <v>249500</v>
       </c>
       <c r="I100" s="3">
-        <v>52800</v>
+        <v>52300</v>
       </c>
       <c r="J100" s="3">
-        <v>98300</v>
+        <v>97400</v>
       </c>
       <c r="K100" s="3">
         <v>71700</v>
@@ -3215,10 +3215,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13400</v>
+        <v>-13300</v>
       </c>
       <c r="E101" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="F101" s="3">
         <v>900</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>252200</v>
+        <v>249800</v>
       </c>
       <c r="E102" s="3">
-        <v>442300</v>
+        <v>438200</v>
       </c>
       <c r="F102" s="3">
-        <v>49400</v>
+        <v>48900</v>
       </c>
       <c r="G102" s="3">
-        <v>-58300</v>
+        <v>-57800</v>
       </c>
       <c r="H102" s="3">
         <v>3600</v>
       </c>
       <c r="I102" s="3">
-        <v>77600</v>
+        <v>76900</v>
       </c>
       <c r="J102" s="3">
-        <v>-61900</v>
+        <v>-61300</v>
       </c>
       <c r="K102" s="3">
         <v>-153100</v>

--- a/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2277500</v>
+        <v>2347000</v>
       </c>
       <c r="E8" s="3">
-        <v>2312000</v>
+        <v>2382500</v>
       </c>
       <c r="F8" s="3">
-        <v>1493500</v>
+        <v>1539100</v>
       </c>
       <c r="G8" s="3">
-        <v>1358900</v>
+        <v>1400300</v>
       </c>
       <c r="H8" s="3">
-        <v>825400</v>
+        <v>850600</v>
       </c>
       <c r="I8" s="3">
-        <v>883100</v>
+        <v>910000</v>
       </c>
       <c r="J8" s="3">
-        <v>715500</v>
+        <v>737400</v>
       </c>
       <c r="K8" s="3">
         <v>619900</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1284300</v>
+        <v>1323400</v>
       </c>
       <c r="E9" s="3">
-        <v>1073500</v>
+        <v>1106200</v>
       </c>
       <c r="F9" s="3">
-        <v>911400</v>
+        <v>939200</v>
       </c>
       <c r="G9" s="3">
-        <v>866800</v>
+        <v>893200</v>
       </c>
       <c r="H9" s="3">
-        <v>631200</v>
+        <v>650400</v>
       </c>
       <c r="I9" s="3">
-        <v>611600</v>
+        <v>630200</v>
       </c>
       <c r="J9" s="3">
-        <v>603100</v>
+        <v>621500</v>
       </c>
       <c r="K9" s="3">
         <v>500300</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>993300</v>
+        <v>1023600</v>
       </c>
       <c r="E10" s="3">
-        <v>1238500</v>
+        <v>1276200</v>
       </c>
       <c r="F10" s="3">
-        <v>582200</v>
+        <v>599900</v>
       </c>
       <c r="G10" s="3">
-        <v>492000</v>
+        <v>507000</v>
       </c>
       <c r="H10" s="3">
-        <v>194200</v>
+        <v>200100</v>
       </c>
       <c r="I10" s="3">
-        <v>271500</v>
+        <v>279800</v>
       </c>
       <c r="J10" s="3">
-        <v>112500</v>
+        <v>115900</v>
       </c>
       <c r="K10" s="3">
         <v>119600</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="E14" s="3">
-        <v>-206700</v>
+        <v>-213000</v>
       </c>
       <c r="F14" s="3">
-        <v>-172300</v>
+        <v>-177600</v>
       </c>
       <c r="G14" s="3">
-        <v>29500</v>
+        <v>30400</v>
       </c>
       <c r="H14" s="3">
         <v>-1100</v>
       </c>
       <c r="I14" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="J14" s="3">
-        <v>169100</v>
+        <v>174200</v>
       </c>
       <c r="K14" s="3">
         <v>972000</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1354000</v>
+        <v>1395200</v>
       </c>
       <c r="E17" s="3">
-        <v>951200</v>
+        <v>980200</v>
       </c>
       <c r="F17" s="3">
-        <v>837000</v>
+        <v>862500</v>
       </c>
       <c r="G17" s="3">
-        <v>989100</v>
+        <v>1019200</v>
       </c>
       <c r="H17" s="3">
-        <v>715500</v>
+        <v>737300</v>
       </c>
       <c r="I17" s="3">
-        <v>710800</v>
+        <v>732500</v>
       </c>
       <c r="J17" s="3">
-        <v>849600</v>
+        <v>875500</v>
       </c>
       <c r="K17" s="3">
         <v>1573300</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>923600</v>
+        <v>951700</v>
       </c>
       <c r="E18" s="3">
-        <v>1360800</v>
+        <v>1402300</v>
       </c>
       <c r="F18" s="3">
-        <v>656500</v>
+        <v>676600</v>
       </c>
       <c r="G18" s="3">
-        <v>369800</v>
+        <v>381000</v>
       </c>
       <c r="H18" s="3">
-        <v>109900</v>
+        <v>113300</v>
       </c>
       <c r="I18" s="3">
-        <v>172300</v>
+        <v>177500</v>
       </c>
       <c r="J18" s="3">
-        <v>-134000</v>
+        <v>-138100</v>
       </c>
       <c r="K18" s="3">
         <v>-953400</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30200</v>
+        <v>31200</v>
       </c>
       <c r="E20" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="F20" s="3">
         <v>1200</v>
       </c>
       <c r="G20" s="3">
-        <v>15100</v>
+        <v>15500</v>
       </c>
       <c r="H20" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="I20" s="3">
-        <v>-70500</v>
+        <v>-72700</v>
       </c>
       <c r="J20" s="3">
-        <v>-30500</v>
+        <v>-31500</v>
       </c>
       <c r="K20" s="3">
         <v>3500</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1445100</v>
+        <v>1495400</v>
       </c>
       <c r="E21" s="3">
-        <v>1748200</v>
+        <v>1806500</v>
       </c>
       <c r="F21" s="3">
-        <v>983600</v>
+        <v>1017700</v>
       </c>
       <c r="G21" s="3">
-        <v>782100</v>
+        <v>811000</v>
       </c>
       <c r="H21" s="3">
-        <v>313800</v>
+        <v>326000</v>
       </c>
       <c r="I21" s="3">
-        <v>325100</v>
+        <v>337900</v>
       </c>
       <c r="J21" s="3">
-        <v>22500</v>
+        <v>25600</v>
       </c>
       <c r="K21" s="3">
         <v>-806000</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="E22" s="3">
-        <v>20400</v>
+        <v>21000</v>
       </c>
       <c r="F22" s="3">
-        <v>34300</v>
+        <v>35400</v>
       </c>
       <c r="G22" s="3">
-        <v>39600</v>
+        <v>40800</v>
       </c>
       <c r="H22" s="3">
-        <v>16700</v>
+        <v>17200</v>
       </c>
       <c r="I22" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="J22" s="3">
-        <v>20800</v>
+        <v>21400</v>
       </c>
       <c r="K22" s="3">
         <v>7300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>938600</v>
+        <v>967200</v>
       </c>
       <c r="E23" s="3">
-        <v>1336900</v>
+        <v>1377700</v>
       </c>
       <c r="F23" s="3">
-        <v>623400</v>
+        <v>642400</v>
       </c>
       <c r="G23" s="3">
-        <v>345200</v>
+        <v>355800</v>
       </c>
       <c r="H23" s="3">
-        <v>89000</v>
+        <v>91800</v>
       </c>
       <c r="I23" s="3">
-        <v>88600</v>
+        <v>91300</v>
       </c>
       <c r="J23" s="3">
-        <v>-185400</v>
+        <v>-191000</v>
       </c>
       <c r="K23" s="3">
         <v>-957200</v>
@@ -1143,22 +1143,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>343000</v>
+        <v>353500</v>
       </c>
       <c r="E24" s="3">
-        <v>467900</v>
+        <v>482100</v>
       </c>
       <c r="F24" s="3">
-        <v>224300</v>
+        <v>231100</v>
       </c>
       <c r="G24" s="3">
-        <v>171100</v>
+        <v>176300</v>
       </c>
       <c r="H24" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="I24" s="3">
-        <v>38700</v>
+        <v>39900</v>
       </c>
       <c r="J24" s="3">
         <v>2200</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>595600</v>
+        <v>613700</v>
       </c>
       <c r="E26" s="3">
-        <v>869000</v>
+        <v>895500</v>
       </c>
       <c r="F26" s="3">
-        <v>399200</v>
+        <v>411300</v>
       </c>
       <c r="G26" s="3">
-        <v>174200</v>
+        <v>179500</v>
       </c>
       <c r="H26" s="3">
-        <v>79600</v>
+        <v>82000</v>
       </c>
       <c r="I26" s="3">
-        <v>49900</v>
+        <v>51400</v>
       </c>
       <c r="J26" s="3">
-        <v>-187500</v>
+        <v>-193300</v>
       </c>
       <c r="K26" s="3">
         <v>-848800</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>542900</v>
+        <v>559400</v>
       </c>
       <c r="E27" s="3">
-        <v>811700</v>
+        <v>836500</v>
       </c>
       <c r="F27" s="3">
-        <v>370100</v>
+        <v>381400</v>
       </c>
       <c r="G27" s="3">
-        <v>153300</v>
+        <v>157900</v>
       </c>
       <c r="H27" s="3">
-        <v>73500</v>
+        <v>75700</v>
       </c>
       <c r="I27" s="3">
-        <v>50600</v>
+        <v>52100</v>
       </c>
       <c r="J27" s="3">
-        <v>-193800</v>
+        <v>-199700</v>
       </c>
       <c r="K27" s="3">
         <v>-847400</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="G29" s="3">
-        <v>-115900</v>
+        <v>-119400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30200</v>
+        <v>-31200</v>
       </c>
       <c r="E32" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F32" s="3">
         <v>-1200</v>
       </c>
       <c r="G32" s="3">
-        <v>-15100</v>
+        <v>-15500</v>
       </c>
       <c r="H32" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I32" s="3">
-        <v>70500</v>
+        <v>72700</v>
       </c>
       <c r="J32" s="3">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="K32" s="3">
         <v>-3500</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>542900</v>
+        <v>559400</v>
       </c>
       <c r="E33" s="3">
-        <v>811700</v>
+        <v>836500</v>
       </c>
       <c r="F33" s="3">
-        <v>379200</v>
+        <v>390700</v>
       </c>
       <c r="G33" s="3">
-        <v>37400</v>
+        <v>38500</v>
       </c>
       <c r="H33" s="3">
-        <v>73500</v>
+        <v>75700</v>
       </c>
       <c r="I33" s="3">
-        <v>50600</v>
+        <v>52100</v>
       </c>
       <c r="J33" s="3">
-        <v>-193800</v>
+        <v>-199700</v>
       </c>
       <c r="K33" s="3">
         <v>-847400</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>542900</v>
+        <v>559400</v>
       </c>
       <c r="E35" s="3">
-        <v>811700</v>
+        <v>836500</v>
       </c>
       <c r="F35" s="3">
-        <v>379200</v>
+        <v>390700</v>
       </c>
       <c r="G35" s="3">
-        <v>37400</v>
+        <v>38500</v>
       </c>
       <c r="H35" s="3">
-        <v>73500</v>
+        <v>75700</v>
       </c>
       <c r="I35" s="3">
-        <v>50600</v>
+        <v>52100</v>
       </c>
       <c r="J35" s="3">
-        <v>-193800</v>
+        <v>-199700</v>
       </c>
       <c r="K35" s="3">
         <v>-847400</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>869800</v>
+        <v>896300</v>
       </c>
       <c r="E41" s="3">
-        <v>619900</v>
+        <v>638800</v>
       </c>
       <c r="F41" s="3">
-        <v>181700</v>
+        <v>187200</v>
       </c>
       <c r="G41" s="3">
-        <v>132800</v>
+        <v>136800</v>
       </c>
       <c r="H41" s="3">
-        <v>190600</v>
+        <v>196400</v>
       </c>
       <c r="I41" s="3">
-        <v>187000</v>
+        <v>192700</v>
       </c>
       <c r="J41" s="3">
-        <v>110000</v>
+        <v>113400</v>
       </c>
       <c r="K41" s="3">
         <v>168900</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>82500</v>
+        <v>85000</v>
       </c>
       <c r="E43" s="3">
-        <v>25500</v>
+        <v>26300</v>
       </c>
       <c r="F43" s="3">
-        <v>63300</v>
+        <v>65200</v>
       </c>
       <c r="G43" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="H43" s="3">
-        <v>54200</v>
+        <v>55900</v>
       </c>
       <c r="I43" s="3">
-        <v>35800</v>
+        <v>36900</v>
       </c>
       <c r="J43" s="3">
-        <v>41500</v>
+        <v>42800</v>
       </c>
       <c r="K43" s="3">
         <v>39600</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>352000</v>
+        <v>362700</v>
       </c>
       <c r="E44" s="3">
-        <v>307700</v>
+        <v>317000</v>
       </c>
       <c r="F44" s="3">
-        <v>281600</v>
+        <v>290200</v>
       </c>
       <c r="G44" s="3">
-        <v>302400</v>
+        <v>311600</v>
       </c>
       <c r="H44" s="3">
-        <v>266800</v>
+        <v>274900</v>
       </c>
       <c r="I44" s="3">
-        <v>135300</v>
+        <v>139400</v>
       </c>
       <c r="J44" s="3">
-        <v>111600</v>
+        <v>115000</v>
       </c>
       <c r="K44" s="3">
         <v>122300</v>
@@ -1686,13 +1686,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>47800</v>
+        <v>49200</v>
       </c>
       <c r="E45" s="3">
-        <v>32600</v>
+        <v>33600</v>
       </c>
       <c r="F45" s="3">
-        <v>28500</v>
+        <v>29300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1352000</v>
+        <v>1393200</v>
       </c>
       <c r="E46" s="3">
-        <v>985700</v>
+        <v>1015800</v>
       </c>
       <c r="F46" s="3">
-        <v>555100</v>
+        <v>572000</v>
       </c>
       <c r="G46" s="3">
-        <v>469200</v>
+        <v>483500</v>
       </c>
       <c r="H46" s="3">
-        <v>511600</v>
+        <v>527200</v>
       </c>
       <c r="I46" s="3">
-        <v>358100</v>
+        <v>369000</v>
       </c>
       <c r="J46" s="3">
-        <v>263100</v>
+        <v>271100</v>
       </c>
       <c r="K46" s="3">
         <v>330800</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>257900</v>
+        <v>265700</v>
       </c>
       <c r="E47" s="3">
-        <v>156300</v>
+        <v>161100</v>
       </c>
       <c r="F47" s="3">
-        <v>210300</v>
+        <v>216700</v>
       </c>
       <c r="G47" s="3">
-        <v>133700</v>
+        <v>137800</v>
       </c>
       <c r="H47" s="3">
-        <v>136500</v>
+        <v>140700</v>
       </c>
       <c r="I47" s="3">
-        <v>115000</v>
+        <v>118500</v>
       </c>
       <c r="J47" s="3">
-        <v>109300</v>
+        <v>112700</v>
       </c>
       <c r="K47" s="3">
         <v>158200</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2884400</v>
+        <v>2972400</v>
       </c>
       <c r="E48" s="3">
-        <v>3085000</v>
+        <v>3179000</v>
       </c>
       <c r="F48" s="3">
-        <v>2645200</v>
+        <v>2725800</v>
       </c>
       <c r="G48" s="3">
-        <v>2630200</v>
+        <v>2710300</v>
       </c>
       <c r="H48" s="3">
-        <v>2745200</v>
+        <v>2828900</v>
       </c>
       <c r="I48" s="3">
-        <v>2520600</v>
+        <v>2597500</v>
       </c>
       <c r="J48" s="3">
-        <v>2227300</v>
+        <v>2295200</v>
       </c>
       <c r="K48" s="3">
         <v>2194500</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>108300</v>
+        <v>111600</v>
       </c>
       <c r="E52" s="3">
-        <v>118500</v>
+        <v>122100</v>
       </c>
       <c r="F52" s="3">
-        <v>57100</v>
+        <v>58800</v>
       </c>
       <c r="G52" s="3">
-        <v>59700</v>
+        <v>61500</v>
       </c>
       <c r="H52" s="3">
-        <v>77000</v>
+        <v>79300</v>
       </c>
       <c r="I52" s="3">
-        <v>25500</v>
+        <v>26300</v>
       </c>
       <c r="J52" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="K52" s="3">
         <v>15200</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4602600</v>
+        <v>4742900</v>
       </c>
       <c r="E54" s="3">
-        <v>4345500</v>
+        <v>4478000</v>
       </c>
       <c r="F54" s="3">
-        <v>3467600</v>
+        <v>3573300</v>
       </c>
       <c r="G54" s="3">
-        <v>3292800</v>
+        <v>3393200</v>
       </c>
       <c r="H54" s="3">
-        <v>3470300</v>
+        <v>3576100</v>
       </c>
       <c r="I54" s="3">
-        <v>3019200</v>
+        <v>3111300</v>
       </c>
       <c r="J54" s="3">
-        <v>2616300</v>
+        <v>2696100</v>
       </c>
       <c r="K54" s="3">
         <v>2698700</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>144400</v>
+        <v>148800</v>
       </c>
       <c r="E57" s="3">
-        <v>115100</v>
+        <v>118600</v>
       </c>
       <c r="F57" s="3">
-        <v>107700</v>
+        <v>111000</v>
       </c>
       <c r="G57" s="3">
-        <v>103800</v>
+        <v>107000</v>
       </c>
       <c r="H57" s="3">
-        <v>122900</v>
+        <v>126600</v>
       </c>
       <c r="I57" s="3">
-        <v>105600</v>
+        <v>108800</v>
       </c>
       <c r="J57" s="3">
-        <v>75900</v>
+        <v>78200</v>
       </c>
       <c r="K57" s="3">
         <v>67600</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32800</v>
+        <v>33800</v>
       </c>
       <c r="E58" s="3">
-        <v>44100</v>
+        <v>45400</v>
       </c>
       <c r="F58" s="3">
-        <v>33600</v>
+        <v>34700</v>
       </c>
       <c r="G58" s="3">
-        <v>32300</v>
+        <v>33300</v>
       </c>
       <c r="H58" s="3">
-        <v>391100</v>
+        <v>403000</v>
       </c>
       <c r="I58" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="J58" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="K58" s="3">
         <v>13300</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>121600</v>
+        <v>125300</v>
       </c>
       <c r="E59" s="3">
-        <v>210600</v>
+        <v>217000</v>
       </c>
       <c r="F59" s="3">
-        <v>71900</v>
+        <v>74100</v>
       </c>
       <c r="G59" s="3">
-        <v>131700</v>
+        <v>135700</v>
       </c>
       <c r="H59" s="3">
-        <v>125100</v>
+        <v>128900</v>
       </c>
       <c r="I59" s="3">
-        <v>103900</v>
+        <v>107100</v>
       </c>
       <c r="J59" s="3">
-        <v>36800</v>
+        <v>37900</v>
       </c>
       <c r="K59" s="3">
         <v>27000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>298800</v>
+        <v>307900</v>
       </c>
       <c r="E60" s="3">
-        <v>369700</v>
+        <v>381000</v>
       </c>
       <c r="F60" s="3">
-        <v>213300</v>
+        <v>219800</v>
       </c>
       <c r="G60" s="3">
-        <v>267800</v>
+        <v>276000</v>
       </c>
       <c r="H60" s="3">
-        <v>639100</v>
+        <v>658600</v>
       </c>
       <c r="I60" s="3">
-        <v>227500</v>
+        <v>234500</v>
       </c>
       <c r="J60" s="3">
-        <v>127800</v>
+        <v>131700</v>
       </c>
       <c r="K60" s="3">
         <v>107900</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>64300</v>
+        <v>66200</v>
       </c>
       <c r="E61" s="3">
-        <v>98100</v>
+        <v>101100</v>
       </c>
       <c r="F61" s="3">
-        <v>304800</v>
+        <v>314100</v>
       </c>
       <c r="G61" s="3">
-        <v>587400</v>
+        <v>605300</v>
       </c>
       <c r="H61" s="3">
-        <v>516400</v>
+        <v>532100</v>
       </c>
       <c r="I61" s="3">
-        <v>611100</v>
+        <v>629700</v>
       </c>
       <c r="J61" s="3">
-        <v>583500</v>
+        <v>601300</v>
       </c>
       <c r="K61" s="3">
         <v>469800</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>412800</v>
+        <v>425300</v>
       </c>
       <c r="E62" s="3">
-        <v>439100</v>
+        <v>452500</v>
       </c>
       <c r="F62" s="3">
-        <v>297900</v>
+        <v>307000</v>
       </c>
       <c r="G62" s="3">
-        <v>301400</v>
+        <v>310500</v>
       </c>
       <c r="H62" s="3">
-        <v>290400</v>
+        <v>299200</v>
       </c>
       <c r="I62" s="3">
-        <v>300700</v>
+        <v>309900</v>
       </c>
       <c r="J62" s="3">
-        <v>208700</v>
+        <v>215000</v>
       </c>
       <c r="K62" s="3">
         <v>172900</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>906000</v>
+        <v>933600</v>
       </c>
       <c r="E66" s="3">
-        <v>1021500</v>
+        <v>1052600</v>
       </c>
       <c r="F66" s="3">
-        <v>895400</v>
+        <v>922700</v>
       </c>
       <c r="G66" s="3">
-        <v>1210800</v>
+        <v>1247700</v>
       </c>
       <c r="H66" s="3">
-        <v>1464400</v>
+        <v>1509000</v>
       </c>
       <c r="I66" s="3">
-        <v>1151700</v>
+        <v>1186800</v>
       </c>
       <c r="J66" s="3">
-        <v>931400</v>
+        <v>959800</v>
       </c>
       <c r="K66" s="3">
         <v>826100</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>655700</v>
+        <v>675700</v>
       </c>
       <c r="E72" s="3">
-        <v>328700</v>
+        <v>338700</v>
       </c>
       <c r="F72" s="3">
-        <v>-337600</v>
+        <v>-347900</v>
       </c>
       <c r="G72" s="3">
-        <v>-708000</v>
+        <v>-729600</v>
       </c>
       <c r="H72" s="3">
-        <v>-789500</v>
+        <v>-813600</v>
       </c>
       <c r="I72" s="3">
-        <v>-863000</v>
+        <v>-889300</v>
       </c>
       <c r="J72" s="3">
-        <v>-913600</v>
+        <v>-941400</v>
       </c>
       <c r="K72" s="3">
         <v>-683500</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3696600</v>
+        <v>3809300</v>
       </c>
       <c r="E76" s="3">
-        <v>3324100</v>
+        <v>3425400</v>
       </c>
       <c r="F76" s="3">
-        <v>2572200</v>
+        <v>2650600</v>
       </c>
       <c r="G76" s="3">
-        <v>2082000</v>
+        <v>2145500</v>
       </c>
       <c r="H76" s="3">
-        <v>2005900</v>
+        <v>2067100</v>
       </c>
       <c r="I76" s="3">
-        <v>1867500</v>
+        <v>1924400</v>
       </c>
       <c r="J76" s="3">
-        <v>1684900</v>
+        <v>1736200</v>
       </c>
       <c r="K76" s="3">
         <v>1872600</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>542900</v>
+        <v>559400</v>
       </c>
       <c r="E81" s="3">
-        <v>811700</v>
+        <v>836500</v>
       </c>
       <c r="F81" s="3">
-        <v>379200</v>
+        <v>390700</v>
       </c>
       <c r="G81" s="3">
-        <v>37400</v>
+        <v>38500</v>
       </c>
       <c r="H81" s="3">
-        <v>73500</v>
+        <v>75700</v>
       </c>
       <c r="I81" s="3">
-        <v>50600</v>
+        <v>52100</v>
       </c>
       <c r="J81" s="3">
-        <v>-193800</v>
+        <v>-199700</v>
       </c>
       <c r="K81" s="3">
         <v>-847400</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>489700</v>
+        <v>504600</v>
       </c>
       <c r="E83" s="3">
-        <v>389600</v>
+        <v>401500</v>
       </c>
       <c r="F83" s="3">
-        <v>324800</v>
+        <v>334700</v>
       </c>
       <c r="G83" s="3">
-        <v>396000</v>
+        <v>408100</v>
       </c>
       <c r="H83" s="3">
-        <v>207400</v>
+        <v>213700</v>
       </c>
       <c r="I83" s="3">
-        <v>222700</v>
+        <v>229500</v>
       </c>
       <c r="J83" s="3">
-        <v>186500</v>
+        <v>192200</v>
       </c>
       <c r="K83" s="3">
         <v>143400</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>935800</v>
+        <v>964400</v>
       </c>
       <c r="E89" s="3">
-        <v>1228600</v>
+        <v>1266100</v>
       </c>
       <c r="F89" s="3">
-        <v>635800</v>
+        <v>655200</v>
       </c>
       <c r="G89" s="3">
-        <v>582700</v>
+        <v>600500</v>
       </c>
       <c r="H89" s="3">
-        <v>200300</v>
+        <v>206400</v>
       </c>
       <c r="I89" s="3">
-        <v>532200</v>
+        <v>548400</v>
       </c>
       <c r="J89" s="3">
-        <v>226700</v>
+        <v>233600</v>
       </c>
       <c r="K89" s="3">
         <v>149300</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-390700</v>
+        <v>-402600</v>
       </c>
       <c r="E91" s="3">
-        <v>-455700</v>
+        <v>-469600</v>
       </c>
       <c r="F91" s="3">
-        <v>-337500</v>
+        <v>-347800</v>
       </c>
       <c r="G91" s="3">
-        <v>-351000</v>
+        <v>-361700</v>
       </c>
       <c r="H91" s="3">
-        <v>-550700</v>
+        <v>-567400</v>
       </c>
       <c r="I91" s="3">
-        <v>-501400</v>
+        <v>-516700</v>
       </c>
       <c r="J91" s="3">
-        <v>-369400</v>
+        <v>-380700</v>
       </c>
       <c r="K91" s="3">
         <v>-611100</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-370000</v>
+        <v>-381300</v>
       </c>
       <c r="E94" s="3">
-        <v>-436800</v>
+        <v>-450100</v>
       </c>
       <c r="F94" s="3">
-        <v>-344800</v>
+        <v>-355300</v>
       </c>
       <c r="G94" s="3">
-        <v>-353400</v>
+        <v>-364200</v>
       </c>
       <c r="H94" s="3">
-        <v>-448300</v>
+        <v>-461900</v>
       </c>
       <c r="I94" s="3">
-        <v>-506400</v>
+        <v>-521900</v>
       </c>
       <c r="J94" s="3">
-        <v>-381200</v>
+        <v>-392800</v>
       </c>
       <c r="K94" s="3">
         <v>-369600</v>
@@ -3065,13 +3065,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-217600</v>
+        <v>-224200</v>
       </c>
       <c r="E96" s="3">
-        <v>-149000</v>
+        <v>-153500</v>
       </c>
       <c r="F96" s="3">
-        <v>-13300</v>
+        <v>-13700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-302700</v>
+        <v>-311900</v>
       </c>
       <c r="E100" s="3">
-        <v>-360400</v>
+        <v>-371400</v>
       </c>
       <c r="F100" s="3">
-        <v>-243100</v>
+        <v>-250500</v>
       </c>
       <c r="G100" s="3">
-        <v>-285000</v>
+        <v>-293700</v>
       </c>
       <c r="H100" s="3">
-        <v>249500</v>
+        <v>257100</v>
       </c>
       <c r="I100" s="3">
-        <v>52300</v>
+        <v>53900</v>
       </c>
       <c r="J100" s="3">
-        <v>97400</v>
+        <v>100400</v>
       </c>
       <c r="K100" s="3">
         <v>71700</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13300</v>
+        <v>-13700</v>
       </c>
       <c r="E101" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="F101" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G101" s="3">
         <v>-2100</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I101" s="3">
         <v>-1200</v>
       </c>
       <c r="J101" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="K101" s="3">
         <v>-4500</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>249800</v>
+        <v>257500</v>
       </c>
       <c r="E102" s="3">
-        <v>438200</v>
+        <v>451600</v>
       </c>
       <c r="F102" s="3">
-        <v>48900</v>
+        <v>50400</v>
       </c>
       <c r="G102" s="3">
-        <v>-57800</v>
+        <v>-59600</v>
       </c>
       <c r="H102" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I102" s="3">
-        <v>76900</v>
+        <v>79300</v>
       </c>
       <c r="J102" s="3">
-        <v>-61300</v>
+        <v>-63200</v>
       </c>
       <c r="K102" s="3">
         <v>-153100</v>

--- a/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>BTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2347000</v>
+        <v>2395700</v>
       </c>
       <c r="E8" s="3">
-        <v>2382500</v>
+        <v>2436700</v>
       </c>
       <c r="F8" s="3">
-        <v>1539100</v>
+        <v>2473600</v>
       </c>
       <c r="G8" s="3">
-        <v>1400300</v>
+        <v>1597900</v>
       </c>
       <c r="H8" s="3">
-        <v>850600</v>
+        <v>1453800</v>
       </c>
       <c r="I8" s="3">
-        <v>910000</v>
+        <v>883100</v>
       </c>
       <c r="J8" s="3">
+        <v>944800</v>
+      </c>
+      <c r="K8" s="3">
         <v>737400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>619900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1323400</v>
+        <v>1560200</v>
       </c>
       <c r="E9" s="3">
-        <v>1106200</v>
+        <v>1374000</v>
       </c>
       <c r="F9" s="3">
-        <v>939200</v>
+        <v>1148500</v>
       </c>
       <c r="G9" s="3">
-        <v>893200</v>
+        <v>975000</v>
       </c>
       <c r="H9" s="3">
-        <v>650400</v>
+        <v>1585100</v>
       </c>
       <c r="I9" s="3">
-        <v>630200</v>
+        <v>675300</v>
       </c>
       <c r="J9" s="3">
+        <v>654300</v>
+      </c>
+      <c r="K9" s="3">
         <v>621500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1023600</v>
+        <v>835500</v>
       </c>
       <c r="E10" s="3">
-        <v>1276200</v>
+        <v>1062700</v>
       </c>
       <c r="F10" s="3">
-        <v>599900</v>
+        <v>1325000</v>
       </c>
       <c r="G10" s="3">
-        <v>507000</v>
+        <v>622900</v>
       </c>
       <c r="H10" s="3">
-        <v>200100</v>
+        <v>-131300</v>
       </c>
       <c r="I10" s="3">
-        <v>279800</v>
+        <v>207800</v>
       </c>
       <c r="J10" s="3">
+        <v>290500</v>
+      </c>
+      <c r="K10" s="3">
         <v>115900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>119600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7900</v>
+        <v>15800</v>
       </c>
       <c r="E14" s="3">
-        <v>-213000</v>
+        <v>8200</v>
       </c>
       <c r="F14" s="3">
-        <v>-177600</v>
+        <v>-221200</v>
       </c>
       <c r="G14" s="3">
-        <v>30400</v>
+        <v>-184400</v>
       </c>
       <c r="H14" s="3">
+        <v>31500</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3">
-        <v>10600</v>
-      </c>
       <c r="J14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K14" s="3">
         <v>174200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>972000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1395200</v>
+        <v>1701000</v>
       </c>
       <c r="E17" s="3">
-        <v>980200</v>
+        <v>1448600</v>
       </c>
       <c r="F17" s="3">
-        <v>862500</v>
+        <v>1017700</v>
       </c>
       <c r="G17" s="3">
-        <v>1019200</v>
+        <v>895500</v>
       </c>
       <c r="H17" s="3">
-        <v>737300</v>
+        <v>1058200</v>
       </c>
       <c r="I17" s="3">
-        <v>732500</v>
+        <v>765500</v>
       </c>
       <c r="J17" s="3">
+        <v>760500</v>
+      </c>
+      <c r="K17" s="3">
         <v>875500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1573300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>951700</v>
+        <v>694700</v>
       </c>
       <c r="E18" s="3">
-        <v>1402300</v>
+        <v>988100</v>
       </c>
       <c r="F18" s="3">
-        <v>676600</v>
+        <v>1455900</v>
       </c>
       <c r="G18" s="3">
-        <v>381000</v>
+        <v>702400</v>
       </c>
       <c r="H18" s="3">
-        <v>113300</v>
+        <v>395600</v>
       </c>
       <c r="I18" s="3">
-        <v>177500</v>
+        <v>117600</v>
       </c>
       <c r="J18" s="3">
+        <v>184300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-138100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-953400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>31200</v>
+        <v>54000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3600</v>
+        <v>32300</v>
       </c>
       <c r="F20" s="3">
-        <v>1200</v>
+        <v>-3700</v>
       </c>
       <c r="G20" s="3">
-        <v>15500</v>
+        <v>1300</v>
       </c>
       <c r="H20" s="3">
-        <v>-4300</v>
+        <v>16100</v>
       </c>
       <c r="I20" s="3">
-        <v>-72700</v>
+        <v>-4500</v>
       </c>
       <c r="J20" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-31500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1495400</v>
+        <v>1278500</v>
       </c>
       <c r="E21" s="3">
-        <v>1806500</v>
+        <v>1543500</v>
       </c>
       <c r="F21" s="3">
-        <v>1017700</v>
+        <v>1868300</v>
       </c>
       <c r="G21" s="3">
-        <v>811000</v>
+        <v>1050600</v>
       </c>
       <c r="H21" s="3">
-        <v>326000</v>
+        <v>834700</v>
       </c>
       <c r="I21" s="3">
-        <v>337900</v>
+        <v>334600</v>
       </c>
       <c r="J21" s="3">
+        <v>346700</v>
+      </c>
+      <c r="K21" s="3">
         <v>25600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-806000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15700</v>
+        <v>15000</v>
       </c>
       <c r="E22" s="3">
-        <v>21000</v>
+        <v>16300</v>
       </c>
       <c r="F22" s="3">
-        <v>35400</v>
+        <v>21900</v>
       </c>
       <c r="G22" s="3">
-        <v>40800</v>
+        <v>36700</v>
       </c>
       <c r="H22" s="3">
-        <v>17200</v>
+        <v>42400</v>
       </c>
       <c r="I22" s="3">
-        <v>13600</v>
+        <v>17800</v>
       </c>
       <c r="J22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K22" s="3">
         <v>21400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>967200</v>
+        <v>733700</v>
       </c>
       <c r="E23" s="3">
-        <v>1377700</v>
+        <v>1004200</v>
       </c>
       <c r="F23" s="3">
-        <v>642400</v>
+        <v>1430300</v>
       </c>
       <c r="G23" s="3">
-        <v>355800</v>
+        <v>667000</v>
       </c>
       <c r="H23" s="3">
-        <v>91800</v>
+        <v>369400</v>
       </c>
       <c r="I23" s="3">
-        <v>91300</v>
+        <v>95300</v>
       </c>
       <c r="J23" s="3">
+        <v>94800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-191000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-957200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>353500</v>
+        <v>337200</v>
       </c>
       <c r="E24" s="3">
-        <v>482100</v>
+        <v>367000</v>
       </c>
       <c r="F24" s="3">
-        <v>231100</v>
+        <v>500600</v>
       </c>
       <c r="G24" s="3">
-        <v>176300</v>
+        <v>239900</v>
       </c>
       <c r="H24" s="3">
-        <v>9800</v>
+        <v>183000</v>
       </c>
       <c r="I24" s="3">
-        <v>39900</v>
+        <v>10100</v>
       </c>
       <c r="J24" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-108400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>613700</v>
+        <v>396500</v>
       </c>
       <c r="E26" s="3">
-        <v>895500</v>
+        <v>637200</v>
       </c>
       <c r="F26" s="3">
-        <v>411300</v>
+        <v>929700</v>
       </c>
       <c r="G26" s="3">
-        <v>179500</v>
+        <v>427100</v>
       </c>
       <c r="H26" s="3">
-        <v>82000</v>
+        <v>186300</v>
       </c>
       <c r="I26" s="3">
-        <v>51400</v>
+        <v>85100</v>
       </c>
       <c r="J26" s="3">
+        <v>53400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-193300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-848800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>559400</v>
+        <v>349600</v>
       </c>
       <c r="E27" s="3">
-        <v>836500</v>
+        <v>580800</v>
       </c>
       <c r="F27" s="3">
-        <v>381400</v>
+        <v>868400</v>
       </c>
       <c r="G27" s="3">
-        <v>157900</v>
+        <v>396000</v>
       </c>
       <c r="H27" s="3">
-        <v>75700</v>
+        <v>164000</v>
       </c>
       <c r="I27" s="3">
-        <v>52100</v>
+        <v>78600</v>
       </c>
       <c r="J27" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-199700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-847400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,26 +1343,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>9300</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-119400</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>9700</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-124000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-31200</v>
+        <v>-54000</v>
       </c>
       <c r="E32" s="3">
-        <v>3600</v>
+        <v>-32300</v>
       </c>
       <c r="F32" s="3">
-        <v>-1200</v>
+        <v>3700</v>
       </c>
       <c r="G32" s="3">
-        <v>-15500</v>
+        <v>-1300</v>
       </c>
       <c r="H32" s="3">
-        <v>4300</v>
+        <v>-16100</v>
       </c>
       <c r="I32" s="3">
-        <v>72700</v>
+        <v>4500</v>
       </c>
       <c r="J32" s="3">
+        <v>75500</v>
+      </c>
+      <c r="K32" s="3">
         <v>31500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>559400</v>
+        <v>349600</v>
       </c>
       <c r="E33" s="3">
-        <v>836500</v>
+        <v>580800</v>
       </c>
       <c r="F33" s="3">
-        <v>390700</v>
+        <v>868400</v>
       </c>
       <c r="G33" s="3">
-        <v>38500</v>
+        <v>405700</v>
       </c>
       <c r="H33" s="3">
-        <v>75700</v>
+        <v>40000</v>
       </c>
       <c r="I33" s="3">
-        <v>52100</v>
+        <v>78600</v>
       </c>
       <c r="J33" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-199700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-847400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>559400</v>
+        <v>349600</v>
       </c>
       <c r="E35" s="3">
-        <v>836500</v>
+        <v>580800</v>
       </c>
       <c r="F35" s="3">
-        <v>390700</v>
+        <v>868400</v>
       </c>
       <c r="G35" s="3">
-        <v>38500</v>
+        <v>405700</v>
       </c>
       <c r="H35" s="3">
-        <v>75700</v>
+        <v>40000</v>
       </c>
       <c r="I35" s="3">
-        <v>52100</v>
+        <v>78600</v>
       </c>
       <c r="J35" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-199700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-847400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>896300</v>
+        <v>901400</v>
       </c>
       <c r="E41" s="3">
-        <v>638800</v>
+        <v>930600</v>
       </c>
       <c r="F41" s="3">
-        <v>187200</v>
+        <v>663300</v>
       </c>
       <c r="G41" s="3">
-        <v>136800</v>
+        <v>194400</v>
       </c>
       <c r="H41" s="3">
-        <v>196400</v>
+        <v>142100</v>
       </c>
       <c r="I41" s="3">
-        <v>192700</v>
+        <v>203900</v>
       </c>
       <c r="J41" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K41" s="3">
         <v>113400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,83 +1708,92 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>85000</v>
+        <v>40500</v>
       </c>
       <c r="E43" s="3">
-        <v>26300</v>
+        <v>88200</v>
       </c>
       <c r="F43" s="3">
-        <v>65200</v>
+        <v>27300</v>
       </c>
       <c r="G43" s="3">
-        <v>35000</v>
+        <v>67700</v>
       </c>
       <c r="H43" s="3">
-        <v>55900</v>
+        <v>36400</v>
       </c>
       <c r="I43" s="3">
-        <v>36900</v>
+        <v>58000</v>
       </c>
       <c r="J43" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K43" s="3">
         <v>42800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>39600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>362700</v>
+        <v>459100</v>
       </c>
       <c r="E44" s="3">
-        <v>317000</v>
+        <v>376600</v>
       </c>
       <c r="F44" s="3">
-        <v>290200</v>
+        <v>329200</v>
       </c>
       <c r="G44" s="3">
-        <v>311600</v>
+        <v>301300</v>
       </c>
       <c r="H44" s="3">
-        <v>274900</v>
+        <v>323500</v>
       </c>
       <c r="I44" s="3">
-        <v>139400</v>
+        <v>285500</v>
       </c>
       <c r="J44" s="3">
+        <v>144800</v>
+      </c>
+      <c r="K44" s="3">
         <v>115000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>122300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>49200</v>
+        <v>30200</v>
       </c>
       <c r="E45" s="3">
-        <v>33600</v>
+        <v>51100</v>
       </c>
       <c r="F45" s="3">
-        <v>29300</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+        <v>34900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>30400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -1709,99 +1807,111 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1393200</v>
+        <v>1431300</v>
       </c>
       <c r="E46" s="3">
-        <v>1015800</v>
+        <v>1446500</v>
       </c>
       <c r="F46" s="3">
-        <v>572000</v>
+        <v>1054600</v>
       </c>
       <c r="G46" s="3">
-        <v>483500</v>
+        <v>593900</v>
       </c>
       <c r="H46" s="3">
-        <v>527200</v>
+        <v>502000</v>
       </c>
       <c r="I46" s="3">
-        <v>369000</v>
+        <v>547300</v>
       </c>
       <c r="J46" s="3">
+        <v>383100</v>
+      </c>
+      <c r="K46" s="3">
         <v>271100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>330800</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>265700</v>
+        <v>384800</v>
       </c>
       <c r="E47" s="3">
-        <v>161100</v>
+        <v>275900</v>
       </c>
       <c r="F47" s="3">
-        <v>216700</v>
+        <v>167300</v>
       </c>
       <c r="G47" s="3">
-        <v>137800</v>
+        <v>225000</v>
       </c>
       <c r="H47" s="3">
-        <v>140700</v>
+        <v>143100</v>
       </c>
       <c r="I47" s="3">
-        <v>118500</v>
+        <v>146000</v>
       </c>
       <c r="J47" s="3">
+        <v>123000</v>
+      </c>
+      <c r="K47" s="3">
         <v>112700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>158200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2972400</v>
+        <v>3145300</v>
       </c>
       <c r="E48" s="3">
-        <v>3179000</v>
+        <v>3086000</v>
       </c>
       <c r="F48" s="3">
-        <v>2725800</v>
+        <v>3300500</v>
       </c>
       <c r="G48" s="3">
-        <v>2710300</v>
+        <v>2830000</v>
       </c>
       <c r="H48" s="3">
-        <v>2828900</v>
+        <v>2813900</v>
       </c>
       <c r="I48" s="3">
-        <v>2597500</v>
+        <v>2937000</v>
       </c>
       <c r="J48" s="3">
+        <v>2696800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2295200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2194500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1829,9 +1939,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>111600</v>
+        <v>128600</v>
       </c>
       <c r="E52" s="3">
-        <v>122100</v>
+        <v>115900</v>
       </c>
       <c r="F52" s="3">
-        <v>58800</v>
+        <v>126800</v>
       </c>
       <c r="G52" s="3">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="H52" s="3">
-        <v>79300</v>
+        <v>63900</v>
       </c>
       <c r="I52" s="3">
-        <v>26300</v>
+        <v>82400</v>
       </c>
       <c r="J52" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K52" s="3">
         <v>17100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4742900</v>
+        <v>5090000</v>
       </c>
       <c r="E54" s="3">
-        <v>4478000</v>
+        <v>4924200</v>
       </c>
       <c r="F54" s="3">
-        <v>3573300</v>
+        <v>4649200</v>
       </c>
       <c r="G54" s="3">
-        <v>3393200</v>
+        <v>3709900</v>
       </c>
       <c r="H54" s="3">
-        <v>3576100</v>
+        <v>3522800</v>
       </c>
       <c r="I54" s="3">
-        <v>3111300</v>
+        <v>3712800</v>
       </c>
       <c r="J54" s="3">
+        <v>3230200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2696100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2698700</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>148800</v>
+        <v>158700</v>
       </c>
       <c r="E57" s="3">
-        <v>118600</v>
+        <v>154500</v>
       </c>
       <c r="F57" s="3">
-        <v>111000</v>
+        <v>123100</v>
       </c>
       <c r="G57" s="3">
-        <v>107000</v>
+        <v>115300</v>
       </c>
       <c r="H57" s="3">
-        <v>126600</v>
+        <v>111100</v>
       </c>
       <c r="I57" s="3">
-        <v>108800</v>
+        <v>131500</v>
       </c>
       <c r="J57" s="3">
+        <v>113000</v>
+      </c>
+      <c r="K57" s="3">
         <v>78200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>67600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33800</v>
+        <v>21500</v>
       </c>
       <c r="E58" s="3">
-        <v>45400</v>
+        <v>35100</v>
       </c>
       <c r="F58" s="3">
-        <v>34700</v>
+        <v>47200</v>
       </c>
       <c r="G58" s="3">
-        <v>33300</v>
+        <v>36000</v>
       </c>
       <c r="H58" s="3">
-        <v>403000</v>
+        <v>34600</v>
       </c>
       <c r="I58" s="3">
-        <v>18600</v>
+        <v>418400</v>
       </c>
       <c r="J58" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K58" s="3">
         <v>15600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>125300</v>
+        <v>142800</v>
       </c>
       <c r="E59" s="3">
-        <v>217000</v>
+        <v>130100</v>
       </c>
       <c r="F59" s="3">
-        <v>74100</v>
+        <v>225300</v>
       </c>
       <c r="G59" s="3">
-        <v>135700</v>
+        <v>77000</v>
       </c>
       <c r="H59" s="3">
-        <v>128900</v>
+        <v>140900</v>
       </c>
       <c r="I59" s="3">
-        <v>107100</v>
+        <v>133900</v>
       </c>
       <c r="J59" s="3">
+        <v>111100</v>
+      </c>
+      <c r="K59" s="3">
         <v>37900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>307900</v>
+        <v>323000</v>
       </c>
       <c r="E60" s="3">
-        <v>381000</v>
+        <v>319700</v>
       </c>
       <c r="F60" s="3">
-        <v>219800</v>
+        <v>395600</v>
       </c>
       <c r="G60" s="3">
-        <v>276000</v>
+        <v>228200</v>
       </c>
       <c r="H60" s="3">
-        <v>658600</v>
+        <v>286600</v>
       </c>
       <c r="I60" s="3">
-        <v>234500</v>
+        <v>683800</v>
       </c>
       <c r="J60" s="3">
+        <v>243400</v>
+      </c>
+      <c r="K60" s="3">
         <v>131700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>107900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>66200</v>
+        <v>57700</v>
       </c>
       <c r="E61" s="3">
-        <v>101100</v>
+        <v>68800</v>
       </c>
       <c r="F61" s="3">
-        <v>314100</v>
+        <v>105000</v>
       </c>
       <c r="G61" s="3">
-        <v>605300</v>
+        <v>326100</v>
       </c>
       <c r="H61" s="3">
-        <v>532100</v>
+        <v>628500</v>
       </c>
       <c r="I61" s="3">
-        <v>629700</v>
+        <v>552500</v>
       </c>
       <c r="J61" s="3">
+        <v>653800</v>
+      </c>
+      <c r="K61" s="3">
         <v>601300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>469800</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>425300</v>
+        <v>406700</v>
       </c>
       <c r="E62" s="3">
-        <v>452500</v>
+        <v>441600</v>
       </c>
       <c r="F62" s="3">
-        <v>307000</v>
+        <v>469800</v>
       </c>
       <c r="G62" s="3">
-        <v>310500</v>
+        <v>318800</v>
       </c>
       <c r="H62" s="3">
-        <v>299200</v>
+        <v>322400</v>
       </c>
       <c r="I62" s="3">
-        <v>309900</v>
+        <v>310600</v>
       </c>
       <c r="J62" s="3">
+        <v>321700</v>
+      </c>
+      <c r="K62" s="3">
         <v>215000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>172900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>933600</v>
+        <v>930700</v>
       </c>
       <c r="E66" s="3">
-        <v>1052600</v>
+        <v>969300</v>
       </c>
       <c r="F66" s="3">
-        <v>922700</v>
+        <v>1092800</v>
       </c>
       <c r="G66" s="3">
-        <v>1247700</v>
+        <v>958000</v>
       </c>
       <c r="H66" s="3">
-        <v>1509000</v>
+        <v>1295400</v>
       </c>
       <c r="I66" s="3">
-        <v>1186800</v>
+        <v>1566700</v>
       </c>
       <c r="J66" s="3">
+        <v>1232200</v>
+      </c>
+      <c r="K66" s="3">
         <v>959800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>826100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>675700</v>
+        <v>813200</v>
       </c>
       <c r="E72" s="3">
-        <v>338700</v>
+        <v>701600</v>
       </c>
       <c r="F72" s="3">
-        <v>-347900</v>
+        <v>351700</v>
       </c>
       <c r="G72" s="3">
-        <v>-729600</v>
+        <v>-361200</v>
       </c>
       <c r="H72" s="3">
-        <v>-813600</v>
+        <v>-757500</v>
       </c>
       <c r="I72" s="3">
-        <v>-889300</v>
+        <v>-844700</v>
       </c>
       <c r="J72" s="3">
+        <v>-923300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-941400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-683500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3809300</v>
+        <v>4159300</v>
       </c>
       <c r="E76" s="3">
-        <v>3425400</v>
+        <v>3954900</v>
       </c>
       <c r="F76" s="3">
-        <v>2650600</v>
+        <v>3556300</v>
       </c>
       <c r="G76" s="3">
-        <v>2145500</v>
+        <v>2751900</v>
       </c>
       <c r="H76" s="3">
-        <v>2067100</v>
+        <v>2227500</v>
       </c>
       <c r="I76" s="3">
-        <v>1924400</v>
+        <v>2146100</v>
       </c>
       <c r="J76" s="3">
+        <v>1998000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1736200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1872600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>559400</v>
+        <v>349600</v>
       </c>
       <c r="E81" s="3">
-        <v>836500</v>
+        <v>580800</v>
       </c>
       <c r="F81" s="3">
-        <v>390700</v>
+        <v>868400</v>
       </c>
       <c r="G81" s="3">
-        <v>38500</v>
+        <v>405700</v>
       </c>
       <c r="H81" s="3">
-        <v>75700</v>
+        <v>40000</v>
       </c>
       <c r="I81" s="3">
-        <v>52100</v>
+        <v>78600</v>
       </c>
       <c r="J81" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-199700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-847400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>504600</v>
+        <v>530800</v>
       </c>
       <c r="E83" s="3">
-        <v>401500</v>
+        <v>523900</v>
       </c>
       <c r="F83" s="3">
-        <v>334700</v>
+        <v>416900</v>
       </c>
       <c r="G83" s="3">
-        <v>408100</v>
+        <v>347500</v>
       </c>
       <c r="H83" s="3">
-        <v>213700</v>
+        <v>423700</v>
       </c>
       <c r="I83" s="3">
-        <v>229500</v>
+        <v>221900</v>
       </c>
       <c r="J83" s="3">
+        <v>238300</v>
+      </c>
+      <c r="K83" s="3">
         <v>192200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>143400</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>964400</v>
+        <v>823800</v>
       </c>
       <c r="E89" s="3">
-        <v>1266100</v>
+        <v>1001200</v>
       </c>
       <c r="F89" s="3">
-        <v>655200</v>
+        <v>1314500</v>
       </c>
       <c r="G89" s="3">
-        <v>600500</v>
+        <v>680300</v>
       </c>
       <c r="H89" s="3">
-        <v>206400</v>
+        <v>623400</v>
       </c>
       <c r="I89" s="3">
-        <v>548400</v>
+        <v>214300</v>
       </c>
       <c r="J89" s="3">
+        <v>569400</v>
+      </c>
+      <c r="K89" s="3">
         <v>233600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>149300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-402600</v>
+        <v>-550400</v>
       </c>
       <c r="E91" s="3">
-        <v>-469600</v>
+        <v>-418000</v>
       </c>
       <c r="F91" s="3">
-        <v>-347800</v>
+        <v>-487500</v>
       </c>
       <c r="G91" s="3">
-        <v>-361700</v>
+        <v>-361100</v>
       </c>
       <c r="H91" s="3">
-        <v>-567400</v>
+        <v>-375500</v>
       </c>
       <c r="I91" s="3">
-        <v>-516700</v>
+        <v>-589100</v>
       </c>
       <c r="J91" s="3">
+        <v>-536500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-380700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-611100</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-381300</v>
+        <v>-537600</v>
       </c>
       <c r="E94" s="3">
-        <v>-450100</v>
+        <v>-395800</v>
       </c>
       <c r="F94" s="3">
-        <v>-355300</v>
+        <v>-467300</v>
       </c>
       <c r="G94" s="3">
-        <v>-364200</v>
+        <v>-368900</v>
       </c>
       <c r="H94" s="3">
-        <v>-461900</v>
+        <v>-378100</v>
       </c>
       <c r="I94" s="3">
-        <v>-521900</v>
+        <v>-479600</v>
       </c>
       <c r="J94" s="3">
+        <v>-541800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-392800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-369600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,22 +3291,23 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-224200</v>
+        <v>-235900</v>
       </c>
       <c r="E96" s="3">
-        <v>-153500</v>
+        <v>-232800</v>
       </c>
       <c r="F96" s="3">
-        <v>-13700</v>
+        <v>-159400</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-14200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-311900</v>
+        <v>-292100</v>
       </c>
       <c r="E100" s="3">
-        <v>-371400</v>
+        <v>-323900</v>
       </c>
       <c r="F100" s="3">
-        <v>-250500</v>
+        <v>-385600</v>
       </c>
       <c r="G100" s="3">
-        <v>-293700</v>
+        <v>-260000</v>
       </c>
       <c r="H100" s="3">
-        <v>257100</v>
+        <v>-304900</v>
       </c>
       <c r="I100" s="3">
-        <v>53900</v>
+        <v>266900</v>
       </c>
       <c r="J100" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K100" s="3">
         <v>100400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>71700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13700</v>
+        <v>-23200</v>
       </c>
       <c r="E101" s="3">
-        <v>7000</v>
+        <v>-14200</v>
       </c>
       <c r="F101" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-2100</v>
-      </c>
       <c r="H101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
-        <v>-1200</v>
-      </c>
       <c r="J101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4500</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>257500</v>
+        <v>-29100</v>
       </c>
       <c r="E102" s="3">
-        <v>451600</v>
+        <v>267300</v>
       </c>
       <c r="F102" s="3">
-        <v>50400</v>
+        <v>468900</v>
       </c>
       <c r="G102" s="3">
-        <v>-59600</v>
+        <v>52300</v>
       </c>
       <c r="H102" s="3">
-        <v>3700</v>
+        <v>-61800</v>
       </c>
       <c r="I102" s="3">
-        <v>79300</v>
+        <v>3900</v>
       </c>
       <c r="J102" s="3">
+        <v>82300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-63200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-153100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2395700</v>
+        <v>2339000</v>
       </c>
       <c r="E8" s="3">
-        <v>2436700</v>
+        <v>2379100</v>
       </c>
       <c r="F8" s="3">
-        <v>2473600</v>
+        <v>2415100</v>
       </c>
       <c r="G8" s="3">
-        <v>1597900</v>
+        <v>1560100</v>
       </c>
       <c r="H8" s="3">
-        <v>1453800</v>
+        <v>1419400</v>
       </c>
       <c r="I8" s="3">
-        <v>883100</v>
+        <v>862200</v>
       </c>
       <c r="J8" s="3">
-        <v>944800</v>
+        <v>922400</v>
       </c>
       <c r="K8" s="3">
         <v>737400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1560200</v>
+        <v>1523300</v>
       </c>
       <c r="E9" s="3">
-        <v>1374000</v>
+        <v>1341500</v>
       </c>
       <c r="F9" s="3">
-        <v>1148500</v>
+        <v>1121400</v>
       </c>
       <c r="G9" s="3">
-        <v>975000</v>
+        <v>952000</v>
       </c>
       <c r="H9" s="3">
-        <v>1585100</v>
+        <v>1547600</v>
       </c>
       <c r="I9" s="3">
-        <v>675300</v>
+        <v>659300</v>
       </c>
       <c r="J9" s="3">
-        <v>654300</v>
+        <v>638800</v>
       </c>
       <c r="K9" s="3">
         <v>621500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>835500</v>
+        <v>815700</v>
       </c>
       <c r="E10" s="3">
-        <v>1062700</v>
+        <v>1037500</v>
       </c>
       <c r="F10" s="3">
-        <v>1325000</v>
+        <v>1293700</v>
       </c>
       <c r="G10" s="3">
-        <v>622900</v>
+        <v>608100</v>
       </c>
       <c r="H10" s="3">
-        <v>-131300</v>
+        <v>-128200</v>
       </c>
       <c r="I10" s="3">
-        <v>207800</v>
+        <v>202900</v>
       </c>
       <c r="J10" s="3">
-        <v>290500</v>
+        <v>283600</v>
       </c>
       <c r="K10" s="3">
         <v>115900</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="E14" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="F14" s="3">
-        <v>-221200</v>
+        <v>-215900</v>
       </c>
       <c r="G14" s="3">
-        <v>-184400</v>
+        <v>-180000</v>
       </c>
       <c r="H14" s="3">
-        <v>31500</v>
+        <v>30800</v>
       </c>
       <c r="I14" s="3">
         <v>-1100</v>
       </c>
       <c r="J14" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="K14" s="3">
         <v>174200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1701000</v>
+        <v>1660800</v>
       </c>
       <c r="E17" s="3">
-        <v>1448600</v>
+        <v>1414300</v>
       </c>
       <c r="F17" s="3">
-        <v>1017700</v>
+        <v>993600</v>
       </c>
       <c r="G17" s="3">
-        <v>895500</v>
+        <v>874300</v>
       </c>
       <c r="H17" s="3">
-        <v>1058200</v>
+        <v>1033200</v>
       </c>
       <c r="I17" s="3">
-        <v>765500</v>
+        <v>747400</v>
       </c>
       <c r="J17" s="3">
-        <v>760500</v>
+        <v>742500</v>
       </c>
       <c r="K17" s="3">
         <v>875500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>694700</v>
+        <v>678200</v>
       </c>
       <c r="E18" s="3">
-        <v>988100</v>
+        <v>964800</v>
       </c>
       <c r="F18" s="3">
-        <v>1455900</v>
+        <v>1421500</v>
       </c>
       <c r="G18" s="3">
-        <v>702400</v>
+        <v>685800</v>
       </c>
       <c r="H18" s="3">
-        <v>395600</v>
+        <v>386300</v>
       </c>
       <c r="I18" s="3">
-        <v>117600</v>
+        <v>114800</v>
       </c>
       <c r="J18" s="3">
-        <v>184300</v>
+        <v>179900</v>
       </c>
       <c r="K18" s="3">
         <v>-138100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>54000</v>
+        <v>52700</v>
       </c>
       <c r="E20" s="3">
-        <v>32300</v>
+        <v>31600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="G20" s="3">
         <v>1300</v>
       </c>
       <c r="H20" s="3">
-        <v>16100</v>
+        <v>15700</v>
       </c>
       <c r="I20" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="J20" s="3">
-        <v>-75500</v>
+        <v>-73700</v>
       </c>
       <c r="K20" s="3">
         <v>-31500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1278500</v>
+        <v>1247300</v>
       </c>
       <c r="E21" s="3">
-        <v>1543500</v>
+        <v>1506000</v>
       </c>
       <c r="F21" s="3">
-        <v>1868300</v>
+        <v>1823300</v>
       </c>
       <c r="G21" s="3">
-        <v>1050600</v>
+        <v>1025100</v>
       </c>
       <c r="H21" s="3">
-        <v>834700</v>
+        <v>814200</v>
       </c>
       <c r="I21" s="3">
-        <v>334600</v>
+        <v>326300</v>
       </c>
       <c r="J21" s="3">
-        <v>346700</v>
+        <v>338100</v>
       </c>
       <c r="K21" s="3">
         <v>25600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15000</v>
+        <v>14600</v>
       </c>
       <c r="E22" s="3">
-        <v>16300</v>
+        <v>15900</v>
       </c>
       <c r="F22" s="3">
-        <v>21900</v>
+        <v>21300</v>
       </c>
       <c r="G22" s="3">
-        <v>36700</v>
+        <v>35800</v>
       </c>
       <c r="H22" s="3">
-        <v>42400</v>
+        <v>41400</v>
       </c>
       <c r="I22" s="3">
-        <v>17800</v>
+        <v>17400</v>
       </c>
       <c r="J22" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="K22" s="3">
         <v>21400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>733700</v>
+        <v>716300</v>
       </c>
       <c r="E23" s="3">
-        <v>1004200</v>
+        <v>980400</v>
       </c>
       <c r="F23" s="3">
-        <v>1430300</v>
+        <v>1396500</v>
       </c>
       <c r="G23" s="3">
-        <v>667000</v>
+        <v>651200</v>
       </c>
       <c r="H23" s="3">
-        <v>369400</v>
+        <v>360600</v>
       </c>
       <c r="I23" s="3">
-        <v>95300</v>
+        <v>93000</v>
       </c>
       <c r="J23" s="3">
-        <v>94800</v>
+        <v>92500</v>
       </c>
       <c r="K23" s="3">
         <v>-191000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>337200</v>
+        <v>329300</v>
       </c>
       <c r="E24" s="3">
-        <v>367000</v>
+        <v>358300</v>
       </c>
       <c r="F24" s="3">
-        <v>500600</v>
+        <v>488700</v>
       </c>
       <c r="G24" s="3">
-        <v>239900</v>
+        <v>234300</v>
       </c>
       <c r="H24" s="3">
-        <v>183000</v>
+        <v>178700</v>
       </c>
       <c r="I24" s="3">
-        <v>10100</v>
+        <v>9900</v>
       </c>
       <c r="J24" s="3">
-        <v>41400</v>
+        <v>40400</v>
       </c>
       <c r="K24" s="3">
         <v>2200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>396500</v>
+        <v>387100</v>
       </c>
       <c r="E26" s="3">
-        <v>637200</v>
+        <v>622100</v>
       </c>
       <c r="F26" s="3">
-        <v>929700</v>
+        <v>907800</v>
       </c>
       <c r="G26" s="3">
-        <v>427100</v>
+        <v>417000</v>
       </c>
       <c r="H26" s="3">
-        <v>186300</v>
+        <v>181900</v>
       </c>
       <c r="I26" s="3">
-        <v>85100</v>
+        <v>83100</v>
       </c>
       <c r="J26" s="3">
-        <v>53400</v>
+        <v>52100</v>
       </c>
       <c r="K26" s="3">
         <v>-193300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>349600</v>
+        <v>341400</v>
       </c>
       <c r="E27" s="3">
-        <v>580800</v>
+        <v>567100</v>
       </c>
       <c r="F27" s="3">
-        <v>868400</v>
+        <v>847900</v>
       </c>
       <c r="G27" s="3">
-        <v>396000</v>
+        <v>386600</v>
       </c>
       <c r="H27" s="3">
-        <v>164000</v>
+        <v>160100</v>
       </c>
       <c r="I27" s="3">
-        <v>78600</v>
+        <v>76800</v>
       </c>
       <c r="J27" s="3">
-        <v>54100</v>
+        <v>52800</v>
       </c>
       <c r="K27" s="3">
         <v>-199700</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="H29" s="3">
-        <v>-124000</v>
+        <v>-121000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-54000</v>
+        <v>-52700</v>
       </c>
       <c r="E32" s="3">
-        <v>-32300</v>
+        <v>-31600</v>
       </c>
       <c r="F32" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G32" s="3">
         <v>-1300</v>
       </c>
       <c r="H32" s="3">
-        <v>-16100</v>
+        <v>-15700</v>
       </c>
       <c r="I32" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J32" s="3">
-        <v>75500</v>
+        <v>73700</v>
       </c>
       <c r="K32" s="3">
         <v>31500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>349600</v>
+        <v>341400</v>
       </c>
       <c r="E33" s="3">
-        <v>580800</v>
+        <v>567100</v>
       </c>
       <c r="F33" s="3">
-        <v>868400</v>
+        <v>847900</v>
       </c>
       <c r="G33" s="3">
-        <v>405700</v>
+        <v>396100</v>
       </c>
       <c r="H33" s="3">
-        <v>40000</v>
+        <v>39100</v>
       </c>
       <c r="I33" s="3">
-        <v>78600</v>
+        <v>76800</v>
       </c>
       <c r="J33" s="3">
-        <v>54100</v>
+        <v>52800</v>
       </c>
       <c r="K33" s="3">
         <v>-199700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>349600</v>
+        <v>341400</v>
       </c>
       <c r="E35" s="3">
-        <v>580800</v>
+        <v>567100</v>
       </c>
       <c r="F35" s="3">
-        <v>868400</v>
+        <v>847900</v>
       </c>
       <c r="G35" s="3">
-        <v>405700</v>
+        <v>396100</v>
       </c>
       <c r="H35" s="3">
-        <v>40000</v>
+        <v>39100</v>
       </c>
       <c r="I35" s="3">
-        <v>78600</v>
+        <v>76800</v>
       </c>
       <c r="J35" s="3">
-        <v>54100</v>
+        <v>52800</v>
       </c>
       <c r="K35" s="3">
         <v>-199700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>901400</v>
+        <v>880100</v>
       </c>
       <c r="E41" s="3">
-        <v>930600</v>
+        <v>908500</v>
       </c>
       <c r="F41" s="3">
-        <v>663300</v>
+        <v>647600</v>
       </c>
       <c r="G41" s="3">
-        <v>194400</v>
+        <v>189800</v>
       </c>
       <c r="H41" s="3">
-        <v>142100</v>
+        <v>138700</v>
       </c>
       <c r="I41" s="3">
-        <v>203900</v>
+        <v>199100</v>
       </c>
       <c r="J41" s="3">
-        <v>200000</v>
+        <v>195300</v>
       </c>
       <c r="K41" s="3">
         <v>113400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40500</v>
+        <v>39600</v>
       </c>
       <c r="E43" s="3">
-        <v>88200</v>
+        <v>86100</v>
       </c>
       <c r="F43" s="3">
-        <v>27300</v>
+        <v>26600</v>
       </c>
       <c r="G43" s="3">
-        <v>67700</v>
+        <v>66100</v>
       </c>
       <c r="H43" s="3">
-        <v>36400</v>
+        <v>35500</v>
       </c>
       <c r="I43" s="3">
-        <v>58000</v>
+        <v>56600</v>
       </c>
       <c r="J43" s="3">
-        <v>38300</v>
+        <v>37400</v>
       </c>
       <c r="K43" s="3">
         <v>42800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>459100</v>
+        <v>448200</v>
       </c>
       <c r="E44" s="3">
-        <v>376600</v>
+        <v>367700</v>
       </c>
       <c r="F44" s="3">
-        <v>329200</v>
+        <v>321400</v>
       </c>
       <c r="G44" s="3">
-        <v>301300</v>
+        <v>294200</v>
       </c>
       <c r="H44" s="3">
-        <v>323500</v>
+        <v>315900</v>
       </c>
       <c r="I44" s="3">
-        <v>285500</v>
+        <v>278700</v>
       </c>
       <c r="J44" s="3">
-        <v>144800</v>
+        <v>141300</v>
       </c>
       <c r="K44" s="3">
         <v>115000</v>
@@ -1784,16 +1784,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30200</v>
+        <v>29500</v>
       </c>
       <c r="E45" s="3">
-        <v>51100</v>
+        <v>49900</v>
       </c>
       <c r="F45" s="3">
-        <v>34900</v>
+        <v>34000</v>
       </c>
       <c r="G45" s="3">
-        <v>30400</v>
+        <v>29700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1431300</v>
+        <v>1397500</v>
       </c>
       <c r="E46" s="3">
-        <v>1446500</v>
+        <v>1412300</v>
       </c>
       <c r="F46" s="3">
-        <v>1054600</v>
+        <v>1029600</v>
       </c>
       <c r="G46" s="3">
-        <v>593900</v>
+        <v>579800</v>
       </c>
       <c r="H46" s="3">
-        <v>502000</v>
+        <v>490100</v>
       </c>
       <c r="I46" s="3">
-        <v>547300</v>
+        <v>534400</v>
       </c>
       <c r="J46" s="3">
-        <v>383100</v>
+        <v>374000</v>
       </c>
       <c r="K46" s="3">
         <v>271100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>384800</v>
+        <v>375700</v>
       </c>
       <c r="E47" s="3">
-        <v>275900</v>
+        <v>269400</v>
       </c>
       <c r="F47" s="3">
-        <v>167300</v>
+        <v>163300</v>
       </c>
       <c r="G47" s="3">
-        <v>225000</v>
+        <v>219600</v>
       </c>
       <c r="H47" s="3">
-        <v>143100</v>
+        <v>139700</v>
       </c>
       <c r="I47" s="3">
-        <v>146000</v>
+        <v>142600</v>
       </c>
       <c r="J47" s="3">
-        <v>123000</v>
+        <v>120100</v>
       </c>
       <c r="K47" s="3">
         <v>112700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3145300</v>
+        <v>3070900</v>
       </c>
       <c r="E48" s="3">
-        <v>3086000</v>
+        <v>3013000</v>
       </c>
       <c r="F48" s="3">
-        <v>3300500</v>
+        <v>3222500</v>
       </c>
       <c r="G48" s="3">
-        <v>2830000</v>
+        <v>2763100</v>
       </c>
       <c r="H48" s="3">
-        <v>2813900</v>
+        <v>2747400</v>
       </c>
       <c r="I48" s="3">
-        <v>2937000</v>
+        <v>2867600</v>
       </c>
       <c r="J48" s="3">
-        <v>2696800</v>
+        <v>2633000</v>
       </c>
       <c r="K48" s="3">
         <v>2295200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>128600</v>
+        <v>125600</v>
       </c>
       <c r="E52" s="3">
-        <v>115900</v>
+        <v>113200</v>
       </c>
       <c r="F52" s="3">
-        <v>126800</v>
+        <v>123800</v>
       </c>
       <c r="G52" s="3">
-        <v>61000</v>
+        <v>59600</v>
       </c>
       <c r="H52" s="3">
-        <v>63900</v>
+        <v>62400</v>
       </c>
       <c r="I52" s="3">
-        <v>82400</v>
+        <v>80400</v>
       </c>
       <c r="J52" s="3">
-        <v>27300</v>
+        <v>26700</v>
       </c>
       <c r="K52" s="3">
         <v>17100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5090000</v>
+        <v>4969700</v>
       </c>
       <c r="E54" s="3">
-        <v>4924200</v>
+        <v>4807700</v>
       </c>
       <c r="F54" s="3">
-        <v>4649200</v>
+        <v>4539200</v>
       </c>
       <c r="G54" s="3">
-        <v>3709900</v>
+        <v>3622100</v>
       </c>
       <c r="H54" s="3">
-        <v>3522800</v>
+        <v>3439500</v>
       </c>
       <c r="I54" s="3">
-        <v>3712800</v>
+        <v>3625000</v>
       </c>
       <c r="J54" s="3">
-        <v>3230200</v>
+        <v>3153800</v>
       </c>
       <c r="K54" s="3">
         <v>2696100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>158700</v>
+        <v>155000</v>
       </c>
       <c r="E57" s="3">
-        <v>154500</v>
+        <v>150800</v>
       </c>
       <c r="F57" s="3">
-        <v>123100</v>
+        <v>120200</v>
       </c>
       <c r="G57" s="3">
-        <v>115300</v>
+        <v>112500</v>
       </c>
       <c r="H57" s="3">
-        <v>111100</v>
+        <v>108400</v>
       </c>
       <c r="I57" s="3">
-        <v>131500</v>
+        <v>128400</v>
       </c>
       <c r="J57" s="3">
-        <v>113000</v>
+        <v>110300</v>
       </c>
       <c r="K57" s="3">
         <v>78200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="E58" s="3">
+        <v>34300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>46000</v>
+      </c>
+      <c r="G58" s="3">
         <v>35100</v>
       </c>
-      <c r="F58" s="3">
-        <v>47200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>36000</v>
-      </c>
       <c r="H58" s="3">
-        <v>34600</v>
+        <v>33800</v>
       </c>
       <c r="I58" s="3">
-        <v>418400</v>
+        <v>408600</v>
       </c>
       <c r="J58" s="3">
-        <v>19300</v>
+        <v>18800</v>
       </c>
       <c r="K58" s="3">
         <v>15600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>142800</v>
+        <v>139500</v>
       </c>
       <c r="E59" s="3">
-        <v>130100</v>
+        <v>127000</v>
       </c>
       <c r="F59" s="3">
-        <v>225300</v>
+        <v>219900</v>
       </c>
       <c r="G59" s="3">
-        <v>77000</v>
+        <v>75100</v>
       </c>
       <c r="H59" s="3">
-        <v>140900</v>
+        <v>137600</v>
       </c>
       <c r="I59" s="3">
-        <v>133900</v>
+        <v>130700</v>
       </c>
       <c r="J59" s="3">
-        <v>111100</v>
+        <v>108500</v>
       </c>
       <c r="K59" s="3">
         <v>37900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>323000</v>
+        <v>315400</v>
       </c>
       <c r="E60" s="3">
-        <v>319700</v>
+        <v>312100</v>
       </c>
       <c r="F60" s="3">
-        <v>395600</v>
+        <v>386200</v>
       </c>
       <c r="G60" s="3">
-        <v>228200</v>
+        <v>222800</v>
       </c>
       <c r="H60" s="3">
-        <v>286600</v>
+        <v>279800</v>
       </c>
       <c r="I60" s="3">
-        <v>683800</v>
+        <v>667600</v>
       </c>
       <c r="J60" s="3">
-        <v>243400</v>
+        <v>237700</v>
       </c>
       <c r="K60" s="3">
         <v>131700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>57700</v>
+        <v>56300</v>
       </c>
       <c r="E61" s="3">
-        <v>68800</v>
+        <v>67100</v>
       </c>
       <c r="F61" s="3">
-        <v>105000</v>
+        <v>102500</v>
       </c>
       <c r="G61" s="3">
-        <v>326100</v>
+        <v>318400</v>
       </c>
       <c r="H61" s="3">
-        <v>628500</v>
+        <v>613600</v>
       </c>
       <c r="I61" s="3">
-        <v>552500</v>
+        <v>539400</v>
       </c>
       <c r="J61" s="3">
-        <v>653800</v>
+        <v>638300</v>
       </c>
       <c r="K61" s="3">
         <v>601300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>406700</v>
+        <v>397100</v>
       </c>
       <c r="E62" s="3">
-        <v>441600</v>
+        <v>431200</v>
       </c>
       <c r="F62" s="3">
-        <v>469800</v>
+        <v>458700</v>
       </c>
       <c r="G62" s="3">
-        <v>318800</v>
+        <v>311200</v>
       </c>
       <c r="H62" s="3">
-        <v>322400</v>
+        <v>314800</v>
       </c>
       <c r="I62" s="3">
-        <v>310600</v>
+        <v>303300</v>
       </c>
       <c r="J62" s="3">
-        <v>321700</v>
+        <v>314100</v>
       </c>
       <c r="K62" s="3">
         <v>215000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>930700</v>
+        <v>908700</v>
       </c>
       <c r="E66" s="3">
-        <v>969300</v>
+        <v>946300</v>
       </c>
       <c r="F66" s="3">
-        <v>1092800</v>
+        <v>1067000</v>
       </c>
       <c r="G66" s="3">
-        <v>958000</v>
+        <v>935300</v>
       </c>
       <c r="H66" s="3">
-        <v>1295400</v>
+        <v>1264800</v>
       </c>
       <c r="I66" s="3">
-        <v>1566700</v>
+        <v>1529600</v>
       </c>
       <c r="J66" s="3">
-        <v>1232200</v>
+        <v>1203000</v>
       </c>
       <c r="K66" s="3">
         <v>959800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>813200</v>
+        <v>794000</v>
       </c>
       <c r="E72" s="3">
-        <v>701600</v>
+        <v>685000</v>
       </c>
       <c r="F72" s="3">
-        <v>351700</v>
+        <v>343400</v>
       </c>
       <c r="G72" s="3">
-        <v>-361200</v>
+        <v>-352700</v>
       </c>
       <c r="H72" s="3">
-        <v>-757500</v>
+        <v>-739600</v>
       </c>
       <c r="I72" s="3">
-        <v>-844700</v>
+        <v>-824700</v>
       </c>
       <c r="J72" s="3">
-        <v>-923300</v>
+        <v>-901500</v>
       </c>
       <c r="K72" s="3">
         <v>-941400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4159300</v>
+        <v>4061000</v>
       </c>
       <c r="E76" s="3">
-        <v>3954900</v>
+        <v>3861400</v>
       </c>
       <c r="F76" s="3">
-        <v>3556300</v>
+        <v>3472200</v>
       </c>
       <c r="G76" s="3">
-        <v>2751900</v>
+        <v>2686800</v>
       </c>
       <c r="H76" s="3">
-        <v>2227500</v>
+        <v>2174800</v>
       </c>
       <c r="I76" s="3">
-        <v>2146100</v>
+        <v>2095300</v>
       </c>
       <c r="J76" s="3">
-        <v>1998000</v>
+        <v>1950700</v>
       </c>
       <c r="K76" s="3">
         <v>1736200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>349600</v>
+        <v>341400</v>
       </c>
       <c r="E81" s="3">
-        <v>580800</v>
+        <v>567100</v>
       </c>
       <c r="F81" s="3">
-        <v>868400</v>
+        <v>847900</v>
       </c>
       <c r="G81" s="3">
-        <v>405700</v>
+        <v>396100</v>
       </c>
       <c r="H81" s="3">
-        <v>40000</v>
+        <v>39100</v>
       </c>
       <c r="I81" s="3">
-        <v>78600</v>
+        <v>76800</v>
       </c>
       <c r="J81" s="3">
-        <v>54100</v>
+        <v>52800</v>
       </c>
       <c r="K81" s="3">
         <v>-199700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>530800</v>
+        <v>518200</v>
       </c>
       <c r="E83" s="3">
-        <v>523900</v>
+        <v>511500</v>
       </c>
       <c r="F83" s="3">
-        <v>416900</v>
+        <v>407000</v>
       </c>
       <c r="G83" s="3">
-        <v>347500</v>
+        <v>339300</v>
       </c>
       <c r="H83" s="3">
-        <v>423700</v>
+        <v>413700</v>
       </c>
       <c r="I83" s="3">
-        <v>221900</v>
+        <v>216600</v>
       </c>
       <c r="J83" s="3">
-        <v>238300</v>
+        <v>232600</v>
       </c>
       <c r="K83" s="3">
         <v>192200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>823800</v>
+        <v>804300</v>
       </c>
       <c r="E89" s="3">
-        <v>1001200</v>
+        <v>977600</v>
       </c>
       <c r="F89" s="3">
-        <v>1314500</v>
+        <v>1283400</v>
       </c>
       <c r="G89" s="3">
-        <v>680300</v>
+        <v>664200</v>
       </c>
       <c r="H89" s="3">
-        <v>623400</v>
+        <v>608700</v>
       </c>
       <c r="I89" s="3">
-        <v>214300</v>
+        <v>209300</v>
       </c>
       <c r="J89" s="3">
-        <v>569400</v>
+        <v>555900</v>
       </c>
       <c r="K89" s="3">
         <v>233600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-550400</v>
+        <v>-537400</v>
       </c>
       <c r="E91" s="3">
-        <v>-418000</v>
+        <v>-408100</v>
       </c>
       <c r="F91" s="3">
-        <v>-487500</v>
+        <v>-476000</v>
       </c>
       <c r="G91" s="3">
-        <v>-361100</v>
+        <v>-352600</v>
       </c>
       <c r="H91" s="3">
-        <v>-375500</v>
+        <v>-366700</v>
       </c>
       <c r="I91" s="3">
-        <v>-589100</v>
+        <v>-575200</v>
       </c>
       <c r="J91" s="3">
-        <v>-536500</v>
+        <v>-523800</v>
       </c>
       <c r="K91" s="3">
         <v>-380700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-537600</v>
+        <v>-524900</v>
       </c>
       <c r="E94" s="3">
-        <v>-395800</v>
+        <v>-386500</v>
       </c>
       <c r="F94" s="3">
-        <v>-467300</v>
+        <v>-456200</v>
       </c>
       <c r="G94" s="3">
-        <v>-368900</v>
+        <v>-360200</v>
       </c>
       <c r="H94" s="3">
-        <v>-378100</v>
+        <v>-369200</v>
       </c>
       <c r="I94" s="3">
-        <v>-479600</v>
+        <v>-468200</v>
       </c>
       <c r="J94" s="3">
-        <v>-541800</v>
+        <v>-529000</v>
       </c>
       <c r="K94" s="3">
         <v>-392800</v>
@@ -3298,16 +3298,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-235900</v>
+        <v>-230400</v>
       </c>
       <c r="E96" s="3">
-        <v>-232800</v>
+        <v>-227300</v>
       </c>
       <c r="F96" s="3">
-        <v>-159400</v>
+        <v>-155600</v>
       </c>
       <c r="G96" s="3">
-        <v>-14200</v>
+        <v>-13900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-292100</v>
+        <v>-285200</v>
       </c>
       <c r="E100" s="3">
-        <v>-323900</v>
+        <v>-316200</v>
       </c>
       <c r="F100" s="3">
-        <v>-385600</v>
+        <v>-376500</v>
       </c>
       <c r="G100" s="3">
-        <v>-260000</v>
+        <v>-253900</v>
       </c>
       <c r="H100" s="3">
-        <v>-304900</v>
+        <v>-297700</v>
       </c>
       <c r="I100" s="3">
-        <v>266900</v>
+        <v>260600</v>
       </c>
       <c r="J100" s="3">
-        <v>56000</v>
+        <v>54600</v>
       </c>
       <c r="K100" s="3">
         <v>100400</v>
@@ -3463,13 +3463,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-23200</v>
+        <v>-22700</v>
       </c>
       <c r="E101" s="3">
-        <v>-14200</v>
+        <v>-13900</v>
       </c>
       <c r="F101" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="G101" s="3">
         <v>1000</v>
@@ -3481,7 +3481,7 @@
         <v>2200</v>
       </c>
       <c r="J101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K101" s="3">
         <v>-4400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-29100</v>
+        <v>-28400</v>
       </c>
       <c r="E102" s="3">
-        <v>267300</v>
+        <v>261000</v>
       </c>
       <c r="F102" s="3">
-        <v>468900</v>
+        <v>457800</v>
       </c>
       <c r="G102" s="3">
-        <v>52300</v>
+        <v>51100</v>
       </c>
       <c r="H102" s="3">
-        <v>-61800</v>
+        <v>-60400</v>
       </c>
       <c r="I102" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J102" s="3">
-        <v>82300</v>
+        <v>80400</v>
       </c>
       <c r="K102" s="3">
         <v>-63200</v>

--- a/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2339000</v>
+        <v>2340200</v>
       </c>
       <c r="E8" s="3">
-        <v>2379100</v>
+        <v>2380300</v>
       </c>
       <c r="F8" s="3">
-        <v>2415100</v>
+        <v>2416300</v>
       </c>
       <c r="G8" s="3">
-        <v>1560100</v>
+        <v>1560900</v>
       </c>
       <c r="H8" s="3">
-        <v>1419400</v>
+        <v>1420200</v>
       </c>
       <c r="I8" s="3">
-        <v>862200</v>
+        <v>862700</v>
       </c>
       <c r="J8" s="3">
-        <v>922400</v>
+        <v>922900</v>
       </c>
       <c r="K8" s="3">
         <v>737400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1523300</v>
+        <v>1524100</v>
       </c>
       <c r="E9" s="3">
-        <v>1341500</v>
+        <v>1342200</v>
       </c>
       <c r="F9" s="3">
-        <v>1121400</v>
+        <v>1121900</v>
       </c>
       <c r="G9" s="3">
-        <v>952000</v>
+        <v>952500</v>
       </c>
       <c r="H9" s="3">
-        <v>1547600</v>
+        <v>1548400</v>
       </c>
       <c r="I9" s="3">
-        <v>659300</v>
+        <v>659700</v>
       </c>
       <c r="J9" s="3">
-        <v>638800</v>
+        <v>639200</v>
       </c>
       <c r="K9" s="3">
         <v>621500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>815700</v>
+        <v>816200</v>
       </c>
       <c r="E10" s="3">
-        <v>1037500</v>
+        <v>1038100</v>
       </c>
       <c r="F10" s="3">
-        <v>1293700</v>
+        <v>1294400</v>
       </c>
       <c r="G10" s="3">
-        <v>608100</v>
+        <v>608400</v>
       </c>
       <c r="H10" s="3">
-        <v>-128200</v>
+        <v>-128300</v>
       </c>
       <c r="I10" s="3">
-        <v>202900</v>
+        <v>203000</v>
       </c>
       <c r="J10" s="3">
-        <v>283600</v>
+        <v>283700</v>
       </c>
       <c r="K10" s="3">
         <v>115900</v>
@@ -903,10 +903,10 @@
         <v>8000</v>
       </c>
       <c r="F14" s="3">
-        <v>-215900</v>
+        <v>-216100</v>
       </c>
       <c r="G14" s="3">
-        <v>-180000</v>
+        <v>-180100</v>
       </c>
       <c r="H14" s="3">
         <v>30800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1660800</v>
+        <v>1661600</v>
       </c>
       <c r="E17" s="3">
-        <v>1414300</v>
+        <v>1415000</v>
       </c>
       <c r="F17" s="3">
-        <v>993600</v>
+        <v>994100</v>
       </c>
       <c r="G17" s="3">
-        <v>874300</v>
+        <v>874800</v>
       </c>
       <c r="H17" s="3">
-        <v>1033200</v>
+        <v>1033700</v>
       </c>
       <c r="I17" s="3">
-        <v>747400</v>
+        <v>747800</v>
       </c>
       <c r="J17" s="3">
-        <v>742500</v>
+        <v>742900</v>
       </c>
       <c r="K17" s="3">
         <v>875500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>678200</v>
+        <v>678600</v>
       </c>
       <c r="E18" s="3">
-        <v>964800</v>
+        <v>965300</v>
       </c>
       <c r="F18" s="3">
-        <v>1421500</v>
+        <v>1422200</v>
       </c>
       <c r="G18" s="3">
-        <v>685800</v>
+        <v>686200</v>
       </c>
       <c r="H18" s="3">
-        <v>386300</v>
+        <v>386500</v>
       </c>
       <c r="I18" s="3">
-        <v>114800</v>
+        <v>114900</v>
       </c>
       <c r="J18" s="3">
-        <v>179900</v>
+        <v>180000</v>
       </c>
       <c r="K18" s="3">
         <v>-138100</v>
@@ -1056,13 +1056,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>52700</v>
+        <v>52800</v>
       </c>
       <c r="E20" s="3">
         <v>31600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="G20" s="3">
         <v>1300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1247300</v>
+        <v>1249800</v>
       </c>
       <c r="E21" s="3">
-        <v>1506000</v>
+        <v>1508600</v>
       </c>
       <c r="F21" s="3">
-        <v>1823300</v>
+        <v>1825800</v>
       </c>
       <c r="G21" s="3">
-        <v>1025100</v>
+        <v>1026900</v>
       </c>
       <c r="H21" s="3">
-        <v>814200</v>
+        <v>816100</v>
       </c>
       <c r="I21" s="3">
-        <v>326300</v>
+        <v>327200</v>
       </c>
       <c r="J21" s="3">
-        <v>338100</v>
+        <v>339100</v>
       </c>
       <c r="K21" s="3">
         <v>25600</v>
@@ -1131,7 +1131,7 @@
         <v>21300</v>
       </c>
       <c r="G22" s="3">
-        <v>35800</v>
+        <v>35900</v>
       </c>
       <c r="H22" s="3">
         <v>41400</v>
@@ -1140,7 +1140,7 @@
         <v>17400</v>
       </c>
       <c r="J22" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="K22" s="3">
         <v>21400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>716300</v>
+        <v>716700</v>
       </c>
       <c r="E23" s="3">
-        <v>980400</v>
+        <v>980900</v>
       </c>
       <c r="F23" s="3">
-        <v>1396500</v>
+        <v>1397200</v>
       </c>
       <c r="G23" s="3">
-        <v>651200</v>
+        <v>651600</v>
       </c>
       <c r="H23" s="3">
-        <v>360600</v>
+        <v>360800</v>
       </c>
       <c r="I23" s="3">
-        <v>93000</v>
+        <v>93100</v>
       </c>
       <c r="J23" s="3">
-        <v>92500</v>
+        <v>92600</v>
       </c>
       <c r="K23" s="3">
         <v>-191000</v>
@@ -1188,19 +1188,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>329300</v>
+        <v>329400</v>
       </c>
       <c r="E24" s="3">
-        <v>358300</v>
+        <v>358500</v>
       </c>
       <c r="F24" s="3">
-        <v>488700</v>
+        <v>489000</v>
       </c>
       <c r="G24" s="3">
-        <v>234300</v>
+        <v>234400</v>
       </c>
       <c r="H24" s="3">
-        <v>178700</v>
+        <v>178800</v>
       </c>
       <c r="I24" s="3">
         <v>9900</v>
@@ -1254,22 +1254,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>387100</v>
+        <v>387300</v>
       </c>
       <c r="E26" s="3">
-        <v>622100</v>
+        <v>622400</v>
       </c>
       <c r="F26" s="3">
-        <v>907800</v>
+        <v>908200</v>
       </c>
       <c r="G26" s="3">
-        <v>417000</v>
+        <v>417200</v>
       </c>
       <c r="H26" s="3">
-        <v>181900</v>
+        <v>182000</v>
       </c>
       <c r="I26" s="3">
-        <v>83100</v>
+        <v>83200</v>
       </c>
       <c r="J26" s="3">
         <v>52100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>341400</v>
+        <v>341600</v>
       </c>
       <c r="E27" s="3">
-        <v>567100</v>
+        <v>567400</v>
       </c>
       <c r="F27" s="3">
-        <v>847900</v>
+        <v>848300</v>
       </c>
       <c r="G27" s="3">
-        <v>386600</v>
+        <v>386800</v>
       </c>
       <c r="H27" s="3">
-        <v>160100</v>
+        <v>160200</v>
       </c>
       <c r="I27" s="3">
         <v>76800</v>
       </c>
       <c r="J27" s="3">
-        <v>52800</v>
+        <v>52900</v>
       </c>
       <c r="K27" s="3">
         <v>-199700</v>
@@ -1365,7 +1365,7 @@
         <v>9400</v>
       </c>
       <c r="H29" s="3">
-        <v>-121000</v>
+        <v>-121100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1452,13 +1452,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-52700</v>
+        <v>-52800</v>
       </c>
       <c r="E32" s="3">
         <v>-31600</v>
       </c>
       <c r="F32" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G32" s="3">
         <v>-1300</v>
@@ -1485,16 +1485,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>341400</v>
+        <v>341600</v>
       </c>
       <c r="E33" s="3">
-        <v>567100</v>
+        <v>567400</v>
       </c>
       <c r="F33" s="3">
-        <v>847900</v>
+        <v>848300</v>
       </c>
       <c r="G33" s="3">
-        <v>396100</v>
+        <v>396300</v>
       </c>
       <c r="H33" s="3">
         <v>39100</v>
@@ -1503,7 +1503,7 @@
         <v>76800</v>
       </c>
       <c r="J33" s="3">
-        <v>52800</v>
+        <v>52900</v>
       </c>
       <c r="K33" s="3">
         <v>-199700</v>
@@ -1551,16 +1551,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>341400</v>
+        <v>341600</v>
       </c>
       <c r="E35" s="3">
-        <v>567100</v>
+        <v>567400</v>
       </c>
       <c r="F35" s="3">
-        <v>847900</v>
+        <v>848300</v>
       </c>
       <c r="G35" s="3">
-        <v>396100</v>
+        <v>396300</v>
       </c>
       <c r="H35" s="3">
         <v>39100</v>
@@ -1569,7 +1569,7 @@
         <v>76800</v>
       </c>
       <c r="J35" s="3">
-        <v>52800</v>
+        <v>52900</v>
       </c>
       <c r="K35" s="3">
         <v>-199700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>880100</v>
+        <v>880600</v>
       </c>
       <c r="E41" s="3">
-        <v>908500</v>
+        <v>909000</v>
       </c>
       <c r="F41" s="3">
-        <v>647600</v>
+        <v>647900</v>
       </c>
       <c r="G41" s="3">
-        <v>189800</v>
+        <v>189900</v>
       </c>
       <c r="H41" s="3">
-        <v>138700</v>
+        <v>138800</v>
       </c>
       <c r="I41" s="3">
-        <v>199100</v>
+        <v>199200</v>
       </c>
       <c r="J41" s="3">
-        <v>195300</v>
+        <v>195400</v>
       </c>
       <c r="K41" s="3">
         <v>113400</v>
@@ -1721,10 +1721,10 @@
         <v>39600</v>
       </c>
       <c r="E43" s="3">
-        <v>86100</v>
+        <v>86200</v>
       </c>
       <c r="F43" s="3">
-        <v>26600</v>
+        <v>26700</v>
       </c>
       <c r="G43" s="3">
         <v>66100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>448200</v>
+        <v>448500</v>
       </c>
       <c r="E44" s="3">
-        <v>367700</v>
+        <v>367900</v>
       </c>
       <c r="F44" s="3">
-        <v>321400</v>
+        <v>321500</v>
       </c>
       <c r="G44" s="3">
-        <v>294200</v>
+        <v>294300</v>
       </c>
       <c r="H44" s="3">
-        <v>315900</v>
+        <v>316000</v>
       </c>
       <c r="I44" s="3">
-        <v>278700</v>
+        <v>278800</v>
       </c>
       <c r="J44" s="3">
-        <v>141300</v>
+        <v>141400</v>
       </c>
       <c r="K44" s="3">
         <v>115000</v>
@@ -1790,7 +1790,7 @@
         <v>49900</v>
       </c>
       <c r="F45" s="3">
-        <v>34000</v>
+        <v>34100</v>
       </c>
       <c r="G45" s="3">
         <v>29700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1397500</v>
+        <v>1398200</v>
       </c>
       <c r="E46" s="3">
-        <v>1412300</v>
+        <v>1413000</v>
       </c>
       <c r="F46" s="3">
-        <v>1029600</v>
+        <v>1030200</v>
       </c>
       <c r="G46" s="3">
-        <v>579800</v>
+        <v>580100</v>
       </c>
       <c r="H46" s="3">
-        <v>490100</v>
+        <v>490300</v>
       </c>
       <c r="I46" s="3">
-        <v>534400</v>
+        <v>534700</v>
       </c>
       <c r="J46" s="3">
-        <v>374000</v>
+        <v>374200</v>
       </c>
       <c r="K46" s="3">
         <v>271100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>375700</v>
+        <v>375900</v>
       </c>
       <c r="E47" s="3">
-        <v>269400</v>
+        <v>269500</v>
       </c>
       <c r="F47" s="3">
-        <v>163300</v>
+        <v>163400</v>
       </c>
       <c r="G47" s="3">
-        <v>219600</v>
+        <v>219700</v>
       </c>
       <c r="H47" s="3">
-        <v>139700</v>
+        <v>139800</v>
       </c>
       <c r="I47" s="3">
         <v>142600</v>
       </c>
       <c r="J47" s="3">
-        <v>120100</v>
+        <v>120200</v>
       </c>
       <c r="K47" s="3">
         <v>112700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3070900</v>
+        <v>3072500</v>
       </c>
       <c r="E48" s="3">
-        <v>3013000</v>
+        <v>3014500</v>
       </c>
       <c r="F48" s="3">
-        <v>3222500</v>
+        <v>3224100</v>
       </c>
       <c r="G48" s="3">
-        <v>2763100</v>
+        <v>2764500</v>
       </c>
       <c r="H48" s="3">
-        <v>2747400</v>
+        <v>2748800</v>
       </c>
       <c r="I48" s="3">
-        <v>2867600</v>
+        <v>2869100</v>
       </c>
       <c r="J48" s="3">
-        <v>2633000</v>
+        <v>2634300</v>
       </c>
       <c r="K48" s="3">
         <v>2295200</v>
@@ -2030,7 +2030,7 @@
         <v>62400</v>
       </c>
       <c r="I52" s="3">
-        <v>80400</v>
+        <v>80500</v>
       </c>
       <c r="J52" s="3">
         <v>26700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4969700</v>
+        <v>4972200</v>
       </c>
       <c r="E54" s="3">
-        <v>4807700</v>
+        <v>4810200</v>
       </c>
       <c r="F54" s="3">
-        <v>4539200</v>
+        <v>4541600</v>
       </c>
       <c r="G54" s="3">
-        <v>3622100</v>
+        <v>3624000</v>
       </c>
       <c r="H54" s="3">
-        <v>3439500</v>
+        <v>3441300</v>
       </c>
       <c r="I54" s="3">
-        <v>3625000</v>
+        <v>3626800</v>
       </c>
       <c r="J54" s="3">
-        <v>3153800</v>
+        <v>3155400</v>
       </c>
       <c r="K54" s="3">
         <v>2696100</v>
@@ -2147,22 +2147,22 @@
         <v>155000</v>
       </c>
       <c r="E57" s="3">
-        <v>150800</v>
+        <v>150900</v>
       </c>
       <c r="F57" s="3">
-        <v>120200</v>
+        <v>120300</v>
       </c>
       <c r="G57" s="3">
-        <v>112500</v>
+        <v>112600</v>
       </c>
       <c r="H57" s="3">
-        <v>108400</v>
+        <v>108500</v>
       </c>
       <c r="I57" s="3">
         <v>128400</v>
       </c>
       <c r="J57" s="3">
-        <v>110300</v>
+        <v>110400</v>
       </c>
       <c r="K57" s="3">
         <v>78200</v>
@@ -2183,16 +2183,16 @@
         <v>34300</v>
       </c>
       <c r="F58" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="G58" s="3">
-        <v>35100</v>
+        <v>35200</v>
       </c>
       <c r="H58" s="3">
         <v>33800</v>
       </c>
       <c r="I58" s="3">
-        <v>408600</v>
+        <v>408800</v>
       </c>
       <c r="J58" s="3">
         <v>18800</v>
@@ -2213,22 +2213,22 @@
         <v>139500</v>
       </c>
       <c r="E59" s="3">
-        <v>127000</v>
+        <v>127100</v>
       </c>
       <c r="F59" s="3">
-        <v>219900</v>
+        <v>220100</v>
       </c>
       <c r="G59" s="3">
-        <v>75100</v>
+        <v>75200</v>
       </c>
       <c r="H59" s="3">
-        <v>137600</v>
+        <v>137700</v>
       </c>
       <c r="I59" s="3">
-        <v>130700</v>
+        <v>130800</v>
       </c>
       <c r="J59" s="3">
-        <v>108500</v>
+        <v>108600</v>
       </c>
       <c r="K59" s="3">
         <v>37900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>315400</v>
+        <v>315500</v>
       </c>
       <c r="E60" s="3">
-        <v>312100</v>
+        <v>312300</v>
       </c>
       <c r="F60" s="3">
-        <v>386200</v>
+        <v>386400</v>
       </c>
       <c r="G60" s="3">
-        <v>222800</v>
+        <v>222900</v>
       </c>
       <c r="H60" s="3">
-        <v>279800</v>
+        <v>279900</v>
       </c>
       <c r="I60" s="3">
-        <v>667600</v>
+        <v>668000</v>
       </c>
       <c r="J60" s="3">
-        <v>237700</v>
+        <v>237800</v>
       </c>
       <c r="K60" s="3">
         <v>131700</v>
@@ -2279,22 +2279,22 @@
         <v>56300</v>
       </c>
       <c r="E61" s="3">
-        <v>67100</v>
+        <v>67200</v>
       </c>
       <c r="F61" s="3">
         <v>102500</v>
       </c>
       <c r="G61" s="3">
-        <v>318400</v>
+        <v>318500</v>
       </c>
       <c r="H61" s="3">
-        <v>613600</v>
+        <v>613900</v>
       </c>
       <c r="I61" s="3">
-        <v>539400</v>
+        <v>539700</v>
       </c>
       <c r="J61" s="3">
-        <v>638300</v>
+        <v>638700</v>
       </c>
       <c r="K61" s="3">
         <v>601300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>397100</v>
+        <v>397300</v>
       </c>
       <c r="E62" s="3">
-        <v>431200</v>
+        <v>431400</v>
       </c>
       <c r="F62" s="3">
-        <v>458700</v>
+        <v>458900</v>
       </c>
       <c r="G62" s="3">
-        <v>311200</v>
+        <v>311400</v>
       </c>
       <c r="H62" s="3">
-        <v>314800</v>
+        <v>314900</v>
       </c>
       <c r="I62" s="3">
-        <v>303300</v>
+        <v>303500</v>
       </c>
       <c r="J62" s="3">
-        <v>314100</v>
+        <v>314300</v>
       </c>
       <c r="K62" s="3">
         <v>215000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>908700</v>
+        <v>909200</v>
       </c>
       <c r="E66" s="3">
-        <v>946300</v>
+        <v>946800</v>
       </c>
       <c r="F66" s="3">
-        <v>1067000</v>
+        <v>1067500</v>
       </c>
       <c r="G66" s="3">
-        <v>935300</v>
+        <v>935800</v>
       </c>
       <c r="H66" s="3">
-        <v>1264800</v>
+        <v>1265400</v>
       </c>
       <c r="I66" s="3">
-        <v>1529600</v>
+        <v>1530400</v>
       </c>
       <c r="J66" s="3">
-        <v>1203000</v>
+        <v>1203700</v>
       </c>
       <c r="K66" s="3">
         <v>959800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>794000</v>
+        <v>794400</v>
       </c>
       <c r="E72" s="3">
-        <v>685000</v>
+        <v>685300</v>
       </c>
       <c r="F72" s="3">
-        <v>343400</v>
+        <v>343500</v>
       </c>
       <c r="G72" s="3">
-        <v>-352700</v>
+        <v>-352900</v>
       </c>
       <c r="H72" s="3">
-        <v>-739600</v>
+        <v>-740000</v>
       </c>
       <c r="I72" s="3">
-        <v>-824700</v>
+        <v>-825200</v>
       </c>
       <c r="J72" s="3">
-        <v>-901500</v>
+        <v>-901900</v>
       </c>
       <c r="K72" s="3">
         <v>-941400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4061000</v>
+        <v>4063100</v>
       </c>
       <c r="E76" s="3">
-        <v>3861400</v>
+        <v>3863400</v>
       </c>
       <c r="F76" s="3">
-        <v>3472200</v>
+        <v>3474000</v>
       </c>
       <c r="G76" s="3">
-        <v>2686800</v>
+        <v>2688200</v>
       </c>
       <c r="H76" s="3">
-        <v>2174800</v>
+        <v>2175900</v>
       </c>
       <c r="I76" s="3">
-        <v>2095300</v>
+        <v>2096400</v>
       </c>
       <c r="J76" s="3">
-        <v>1950700</v>
+        <v>1951700</v>
       </c>
       <c r="K76" s="3">
         <v>1736200</v>
@@ -2857,16 +2857,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>341400</v>
+        <v>341600</v>
       </c>
       <c r="E81" s="3">
-        <v>567100</v>
+        <v>567400</v>
       </c>
       <c r="F81" s="3">
-        <v>847900</v>
+        <v>848300</v>
       </c>
       <c r="G81" s="3">
-        <v>396100</v>
+        <v>396300</v>
       </c>
       <c r="H81" s="3">
         <v>39100</v>
@@ -2875,7 +2875,7 @@
         <v>76800</v>
       </c>
       <c r="J81" s="3">
-        <v>52800</v>
+        <v>52900</v>
       </c>
       <c r="K81" s="3">
         <v>-199700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>518200</v>
+        <v>518500</v>
       </c>
       <c r="E83" s="3">
-        <v>511500</v>
+        <v>511800</v>
       </c>
       <c r="F83" s="3">
-        <v>407000</v>
+        <v>407200</v>
       </c>
       <c r="G83" s="3">
-        <v>339300</v>
+        <v>339400</v>
       </c>
       <c r="H83" s="3">
-        <v>413700</v>
+        <v>413900</v>
       </c>
       <c r="I83" s="3">
-        <v>216600</v>
+        <v>216700</v>
       </c>
       <c r="J83" s="3">
-        <v>232600</v>
+        <v>232800</v>
       </c>
       <c r="K83" s="3">
         <v>192200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>804300</v>
+        <v>804700</v>
       </c>
       <c r="E89" s="3">
-        <v>977600</v>
+        <v>978100</v>
       </c>
       <c r="F89" s="3">
-        <v>1283400</v>
+        <v>1284000</v>
       </c>
       <c r="G89" s="3">
-        <v>664200</v>
+        <v>664500</v>
       </c>
       <c r="H89" s="3">
-        <v>608700</v>
+        <v>609000</v>
       </c>
       <c r="I89" s="3">
-        <v>209300</v>
+        <v>209400</v>
       </c>
       <c r="J89" s="3">
-        <v>555900</v>
+        <v>556200</v>
       </c>
       <c r="K89" s="3">
         <v>233600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-537400</v>
+        <v>-537700</v>
       </c>
       <c r="E91" s="3">
-        <v>-408100</v>
+        <v>-408300</v>
       </c>
       <c r="F91" s="3">
-        <v>-476000</v>
+        <v>-476200</v>
       </c>
       <c r="G91" s="3">
-        <v>-352600</v>
+        <v>-352700</v>
       </c>
       <c r="H91" s="3">
-        <v>-366700</v>
+        <v>-366800</v>
       </c>
       <c r="I91" s="3">
-        <v>-575200</v>
+        <v>-575500</v>
       </c>
       <c r="J91" s="3">
-        <v>-523800</v>
+        <v>-524000</v>
       </c>
       <c r="K91" s="3">
         <v>-380700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-524900</v>
+        <v>-525100</v>
       </c>
       <c r="E94" s="3">
-        <v>-386500</v>
+        <v>-386700</v>
       </c>
       <c r="F94" s="3">
-        <v>-456200</v>
+        <v>-456500</v>
       </c>
       <c r="G94" s="3">
-        <v>-360200</v>
+        <v>-360400</v>
       </c>
       <c r="H94" s="3">
-        <v>-369200</v>
+        <v>-369400</v>
       </c>
       <c r="I94" s="3">
-        <v>-468200</v>
+        <v>-468500</v>
       </c>
       <c r="J94" s="3">
-        <v>-529000</v>
+        <v>-529300</v>
       </c>
       <c r="K94" s="3">
         <v>-392800</v>
@@ -3298,13 +3298,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-230400</v>
+        <v>-230500</v>
       </c>
       <c r="E96" s="3">
-        <v>-227300</v>
+        <v>-227400</v>
       </c>
       <c r="F96" s="3">
-        <v>-155600</v>
+        <v>-155700</v>
       </c>
       <c r="G96" s="3">
         <v>-13900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-285200</v>
+        <v>-285400</v>
       </c>
       <c r="E100" s="3">
-        <v>-316200</v>
+        <v>-316400</v>
       </c>
       <c r="F100" s="3">
-        <v>-376500</v>
+        <v>-376700</v>
       </c>
       <c r="G100" s="3">
-        <v>-253900</v>
+        <v>-254000</v>
       </c>
       <c r="H100" s="3">
-        <v>-297700</v>
+        <v>-297800</v>
       </c>
       <c r="I100" s="3">
-        <v>260600</v>
+        <v>260700</v>
       </c>
       <c r="J100" s="3">
-        <v>54600</v>
+        <v>54700</v>
       </c>
       <c r="K100" s="3">
         <v>100400</v>
@@ -3499,10 +3499,10 @@
         <v>-28400</v>
       </c>
       <c r="E102" s="3">
-        <v>261000</v>
+        <v>261100</v>
       </c>
       <c r="F102" s="3">
-        <v>457800</v>
+        <v>458000</v>
       </c>
       <c r="G102" s="3">
         <v>51100</v>

--- a/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2340200</v>
+        <v>2383200</v>
       </c>
       <c r="E8" s="3">
-        <v>2380300</v>
+        <v>2424000</v>
       </c>
       <c r="F8" s="3">
-        <v>2416300</v>
+        <v>2460700</v>
       </c>
       <c r="G8" s="3">
-        <v>1560900</v>
+        <v>1589600</v>
       </c>
       <c r="H8" s="3">
-        <v>1420200</v>
+        <v>1446200</v>
       </c>
       <c r="I8" s="3">
-        <v>862700</v>
+        <v>878500</v>
       </c>
       <c r="J8" s="3">
-        <v>922900</v>
+        <v>939900</v>
       </c>
       <c r="K8" s="3">
         <v>737400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1524100</v>
+        <v>1552000</v>
       </c>
       <c r="E9" s="3">
-        <v>1342200</v>
+        <v>1366900</v>
       </c>
       <c r="F9" s="3">
-        <v>1121900</v>
+        <v>1142500</v>
       </c>
       <c r="G9" s="3">
-        <v>952500</v>
+        <v>970000</v>
       </c>
       <c r="H9" s="3">
-        <v>1548400</v>
+        <v>1576900</v>
       </c>
       <c r="I9" s="3">
-        <v>659700</v>
+        <v>671800</v>
       </c>
       <c r="J9" s="3">
-        <v>639200</v>
+        <v>650900</v>
       </c>
       <c r="K9" s="3">
         <v>621500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>816200</v>
+        <v>831100</v>
       </c>
       <c r="E10" s="3">
-        <v>1038100</v>
+        <v>1057100</v>
       </c>
       <c r="F10" s="3">
-        <v>1294400</v>
+        <v>1318100</v>
       </c>
       <c r="G10" s="3">
-        <v>608400</v>
+        <v>619600</v>
       </c>
       <c r="H10" s="3">
-        <v>-128300</v>
+        <v>-130600</v>
       </c>
       <c r="I10" s="3">
-        <v>203000</v>
+        <v>206700</v>
       </c>
       <c r="J10" s="3">
-        <v>283700</v>
+        <v>289000</v>
       </c>
       <c r="K10" s="3">
         <v>115900</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="E14" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="F14" s="3">
-        <v>-216100</v>
+        <v>-220000</v>
       </c>
       <c r="G14" s="3">
-        <v>-180100</v>
+        <v>-183400</v>
       </c>
       <c r="H14" s="3">
-        <v>30800</v>
+        <v>31400</v>
       </c>
       <c r="I14" s="3">
         <v>-1100</v>
       </c>
       <c r="J14" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="K14" s="3">
         <v>174200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1661600</v>
+        <v>1692100</v>
       </c>
       <c r="E17" s="3">
-        <v>1415000</v>
+        <v>1441000</v>
       </c>
       <c r="F17" s="3">
-        <v>994100</v>
+        <v>1012400</v>
       </c>
       <c r="G17" s="3">
-        <v>874800</v>
+        <v>890800</v>
       </c>
       <c r="H17" s="3">
-        <v>1033700</v>
+        <v>1052700</v>
       </c>
       <c r="I17" s="3">
-        <v>747800</v>
+        <v>761500</v>
       </c>
       <c r="J17" s="3">
-        <v>742900</v>
+        <v>756500</v>
       </c>
       <c r="K17" s="3">
         <v>875500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>678600</v>
+        <v>691000</v>
       </c>
       <c r="E18" s="3">
-        <v>965300</v>
+        <v>983000</v>
       </c>
       <c r="F18" s="3">
-        <v>1422200</v>
+        <v>1448300</v>
       </c>
       <c r="G18" s="3">
-        <v>686200</v>
+        <v>698800</v>
       </c>
       <c r="H18" s="3">
-        <v>386500</v>
+        <v>393500</v>
       </c>
       <c r="I18" s="3">
-        <v>114900</v>
+        <v>117000</v>
       </c>
       <c r="J18" s="3">
-        <v>180000</v>
+        <v>183300</v>
       </c>
       <c r="K18" s="3">
         <v>-138100</v>
@@ -1056,10 +1056,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>52800</v>
+        <v>53700</v>
       </c>
       <c r="E20" s="3">
-        <v>31600</v>
+        <v>32200</v>
       </c>
       <c r="F20" s="3">
         <v>-3700</v>
@@ -1068,13 +1068,13 @@
         <v>1300</v>
       </c>
       <c r="H20" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="I20" s="3">
         <v>-4400</v>
       </c>
       <c r="J20" s="3">
-        <v>-73700</v>
+        <v>-75100</v>
       </c>
       <c r="K20" s="3">
         <v>-31500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1249800</v>
+        <v>1269800</v>
       </c>
       <c r="E21" s="3">
-        <v>1508600</v>
+        <v>1533400</v>
       </c>
       <c r="F21" s="3">
-        <v>1825800</v>
+        <v>1857000</v>
       </c>
       <c r="G21" s="3">
-        <v>1026900</v>
+        <v>1043800</v>
       </c>
       <c r="H21" s="3">
-        <v>816100</v>
+        <v>828700</v>
       </c>
       <c r="I21" s="3">
-        <v>327200</v>
+        <v>332000</v>
       </c>
       <c r="J21" s="3">
-        <v>339100</v>
+        <v>344000</v>
       </c>
       <c r="K21" s="3">
         <v>25600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="E22" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="F22" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="G22" s="3">
-        <v>35900</v>
+        <v>36500</v>
       </c>
       <c r="H22" s="3">
-        <v>41400</v>
+        <v>42200</v>
       </c>
       <c r="I22" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="J22" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="K22" s="3">
         <v>21400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>716700</v>
+        <v>729900</v>
       </c>
       <c r="E23" s="3">
-        <v>980900</v>
+        <v>998900</v>
       </c>
       <c r="F23" s="3">
-        <v>1397200</v>
+        <v>1422900</v>
       </c>
       <c r="G23" s="3">
-        <v>651600</v>
+        <v>663500</v>
       </c>
       <c r="H23" s="3">
-        <v>360800</v>
+        <v>367400</v>
       </c>
       <c r="I23" s="3">
-        <v>93100</v>
+        <v>94800</v>
       </c>
       <c r="J23" s="3">
-        <v>92600</v>
+        <v>94300</v>
       </c>
       <c r="K23" s="3">
         <v>-191000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>329400</v>
+        <v>335500</v>
       </c>
       <c r="E24" s="3">
-        <v>358500</v>
+        <v>365100</v>
       </c>
       <c r="F24" s="3">
-        <v>489000</v>
+        <v>498000</v>
       </c>
       <c r="G24" s="3">
-        <v>234400</v>
+        <v>238700</v>
       </c>
       <c r="H24" s="3">
-        <v>178800</v>
+        <v>182100</v>
       </c>
       <c r="I24" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="J24" s="3">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="K24" s="3">
         <v>2200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>387300</v>
+        <v>394400</v>
       </c>
       <c r="E26" s="3">
-        <v>622400</v>
+        <v>633900</v>
       </c>
       <c r="F26" s="3">
-        <v>908200</v>
+        <v>924900</v>
       </c>
       <c r="G26" s="3">
-        <v>417200</v>
+        <v>424800</v>
       </c>
       <c r="H26" s="3">
-        <v>182000</v>
+        <v>185400</v>
       </c>
       <c r="I26" s="3">
-        <v>83200</v>
+        <v>84700</v>
       </c>
       <c r="J26" s="3">
-        <v>52100</v>
+        <v>53100</v>
       </c>
       <c r="K26" s="3">
         <v>-193300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>341600</v>
+        <v>347800</v>
       </c>
       <c r="E27" s="3">
-        <v>567400</v>
+        <v>577800</v>
       </c>
       <c r="F27" s="3">
-        <v>848300</v>
+        <v>863900</v>
       </c>
       <c r="G27" s="3">
-        <v>386800</v>
+        <v>393900</v>
       </c>
       <c r="H27" s="3">
-        <v>160200</v>
+        <v>163100</v>
       </c>
       <c r="I27" s="3">
-        <v>76800</v>
+        <v>78200</v>
       </c>
       <c r="J27" s="3">
-        <v>52900</v>
+        <v>53800</v>
       </c>
       <c r="K27" s="3">
         <v>-199700</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="H29" s="3">
-        <v>-121100</v>
+        <v>-123300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1452,10 +1452,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-52800</v>
+        <v>-53700</v>
       </c>
       <c r="E32" s="3">
-        <v>-31600</v>
+        <v>-32200</v>
       </c>
       <c r="F32" s="3">
         <v>3700</v>
@@ -1464,13 +1464,13 @@
         <v>-1300</v>
       </c>
       <c r="H32" s="3">
-        <v>-15700</v>
+        <v>-16000</v>
       </c>
       <c r="I32" s="3">
         <v>4400</v>
       </c>
       <c r="J32" s="3">
-        <v>73700</v>
+        <v>75100</v>
       </c>
       <c r="K32" s="3">
         <v>31500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>341600</v>
+        <v>347800</v>
       </c>
       <c r="E33" s="3">
-        <v>567400</v>
+        <v>577800</v>
       </c>
       <c r="F33" s="3">
-        <v>848300</v>
+        <v>863900</v>
       </c>
       <c r="G33" s="3">
-        <v>396300</v>
+        <v>403500</v>
       </c>
       <c r="H33" s="3">
-        <v>39100</v>
+        <v>39800</v>
       </c>
       <c r="I33" s="3">
-        <v>76800</v>
+        <v>78200</v>
       </c>
       <c r="J33" s="3">
-        <v>52900</v>
+        <v>53800</v>
       </c>
       <c r="K33" s="3">
         <v>-199700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>341600</v>
+        <v>347800</v>
       </c>
       <c r="E35" s="3">
-        <v>567400</v>
+        <v>577800</v>
       </c>
       <c r="F35" s="3">
-        <v>848300</v>
+        <v>863900</v>
       </c>
       <c r="G35" s="3">
-        <v>396300</v>
+        <v>403500</v>
       </c>
       <c r="H35" s="3">
-        <v>39100</v>
+        <v>39800</v>
       </c>
       <c r="I35" s="3">
-        <v>76800</v>
+        <v>78200</v>
       </c>
       <c r="J35" s="3">
-        <v>52900</v>
+        <v>53800</v>
       </c>
       <c r="K35" s="3">
         <v>-199700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>880600</v>
+        <v>896800</v>
       </c>
       <c r="E41" s="3">
-        <v>909000</v>
+        <v>925700</v>
       </c>
       <c r="F41" s="3">
-        <v>647900</v>
+        <v>659800</v>
       </c>
       <c r="G41" s="3">
-        <v>189900</v>
+        <v>193400</v>
       </c>
       <c r="H41" s="3">
-        <v>138800</v>
+        <v>141300</v>
       </c>
       <c r="I41" s="3">
-        <v>199200</v>
+        <v>202800</v>
       </c>
       <c r="J41" s="3">
-        <v>195400</v>
+        <v>199000</v>
       </c>
       <c r="K41" s="3">
         <v>113400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39600</v>
+        <v>40300</v>
       </c>
       <c r="E43" s="3">
-        <v>86200</v>
+        <v>87800</v>
       </c>
       <c r="F43" s="3">
-        <v>26700</v>
+        <v>27200</v>
       </c>
       <c r="G43" s="3">
-        <v>66100</v>
+        <v>67300</v>
       </c>
       <c r="H43" s="3">
-        <v>35500</v>
+        <v>36200</v>
       </c>
       <c r="I43" s="3">
-        <v>56600</v>
+        <v>57700</v>
       </c>
       <c r="J43" s="3">
-        <v>37400</v>
+        <v>38100</v>
       </c>
       <c r="K43" s="3">
         <v>42800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>448500</v>
+        <v>456700</v>
       </c>
       <c r="E44" s="3">
-        <v>367900</v>
+        <v>374600</v>
       </c>
       <c r="F44" s="3">
-        <v>321500</v>
+        <v>327400</v>
       </c>
       <c r="G44" s="3">
-        <v>294300</v>
+        <v>299800</v>
       </c>
       <c r="H44" s="3">
-        <v>316000</v>
+        <v>321800</v>
       </c>
       <c r="I44" s="3">
-        <v>278800</v>
+        <v>284000</v>
       </c>
       <c r="J44" s="3">
-        <v>141400</v>
+        <v>144000</v>
       </c>
       <c r="K44" s="3">
         <v>115000</v>
@@ -1784,16 +1784,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29500</v>
+        <v>30100</v>
       </c>
       <c r="E45" s="3">
-        <v>49900</v>
+        <v>50800</v>
       </c>
       <c r="F45" s="3">
-        <v>34100</v>
+        <v>34700</v>
       </c>
       <c r="G45" s="3">
-        <v>29700</v>
+        <v>30300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1398200</v>
+        <v>1423900</v>
       </c>
       <c r="E46" s="3">
-        <v>1413000</v>
+        <v>1438900</v>
       </c>
       <c r="F46" s="3">
-        <v>1030200</v>
+        <v>1049100</v>
       </c>
       <c r="G46" s="3">
-        <v>580100</v>
+        <v>590800</v>
       </c>
       <c r="H46" s="3">
-        <v>490300</v>
+        <v>499300</v>
       </c>
       <c r="I46" s="3">
-        <v>534700</v>
+        <v>544500</v>
       </c>
       <c r="J46" s="3">
-        <v>374200</v>
+        <v>381100</v>
       </c>
       <c r="K46" s="3">
         <v>271100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>375900</v>
+        <v>382800</v>
       </c>
       <c r="E47" s="3">
-        <v>269500</v>
+        <v>274400</v>
       </c>
       <c r="F47" s="3">
-        <v>163400</v>
+        <v>166400</v>
       </c>
       <c r="G47" s="3">
-        <v>219700</v>
+        <v>223800</v>
       </c>
       <c r="H47" s="3">
-        <v>139800</v>
+        <v>142300</v>
       </c>
       <c r="I47" s="3">
-        <v>142600</v>
+        <v>145300</v>
       </c>
       <c r="J47" s="3">
-        <v>120200</v>
+        <v>122400</v>
       </c>
       <c r="K47" s="3">
         <v>112700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3072500</v>
+        <v>3128900</v>
       </c>
       <c r="E48" s="3">
-        <v>3014500</v>
+        <v>3069900</v>
       </c>
       <c r="F48" s="3">
-        <v>3224100</v>
+        <v>3283300</v>
       </c>
       <c r="G48" s="3">
-        <v>2764500</v>
+        <v>2815300</v>
       </c>
       <c r="H48" s="3">
-        <v>2748800</v>
+        <v>2799300</v>
       </c>
       <c r="I48" s="3">
-        <v>2869100</v>
+        <v>2921700</v>
       </c>
       <c r="J48" s="3">
-        <v>2634300</v>
+        <v>2682700</v>
       </c>
       <c r="K48" s="3">
         <v>2295200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>125600</v>
+        <v>127900</v>
       </c>
       <c r="E52" s="3">
-        <v>113200</v>
+        <v>115300</v>
       </c>
       <c r="F52" s="3">
-        <v>123800</v>
+        <v>126100</v>
       </c>
       <c r="G52" s="3">
-        <v>59600</v>
+        <v>60700</v>
       </c>
       <c r="H52" s="3">
-        <v>62400</v>
+        <v>63600</v>
       </c>
       <c r="I52" s="3">
-        <v>80500</v>
+        <v>81900</v>
       </c>
       <c r="J52" s="3">
-        <v>26700</v>
+        <v>27200</v>
       </c>
       <c r="K52" s="3">
         <v>17100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4972200</v>
+        <v>5063500</v>
       </c>
       <c r="E54" s="3">
-        <v>4810200</v>
+        <v>4898600</v>
       </c>
       <c r="F54" s="3">
-        <v>4541600</v>
+        <v>4625000</v>
       </c>
       <c r="G54" s="3">
-        <v>3624000</v>
+        <v>3690600</v>
       </c>
       <c r="H54" s="3">
-        <v>3441300</v>
+        <v>3504500</v>
       </c>
       <c r="I54" s="3">
-        <v>3626800</v>
+        <v>3693400</v>
       </c>
       <c r="J54" s="3">
-        <v>3155400</v>
+        <v>3213400</v>
       </c>
       <c r="K54" s="3">
         <v>2696100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>155000</v>
+        <v>157900</v>
       </c>
       <c r="E57" s="3">
-        <v>150900</v>
+        <v>153700</v>
       </c>
       <c r="F57" s="3">
-        <v>120300</v>
+        <v>122500</v>
       </c>
       <c r="G57" s="3">
-        <v>112600</v>
+        <v>114700</v>
       </c>
       <c r="H57" s="3">
-        <v>108500</v>
+        <v>110500</v>
       </c>
       <c r="I57" s="3">
-        <v>128400</v>
+        <v>130800</v>
       </c>
       <c r="J57" s="3">
-        <v>110400</v>
+        <v>112400</v>
       </c>
       <c r="K57" s="3">
         <v>78200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21000</v>
+        <v>21300</v>
       </c>
       <c r="E58" s="3">
-        <v>34300</v>
+        <v>34900</v>
       </c>
       <c r="F58" s="3">
-        <v>46100</v>
+        <v>46900</v>
       </c>
       <c r="G58" s="3">
-        <v>35200</v>
+        <v>35800</v>
       </c>
       <c r="H58" s="3">
-        <v>33800</v>
+        <v>34400</v>
       </c>
       <c r="I58" s="3">
-        <v>408800</v>
+        <v>416300</v>
       </c>
       <c r="J58" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="K58" s="3">
         <v>15600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>139500</v>
+        <v>142100</v>
       </c>
       <c r="E59" s="3">
-        <v>127100</v>
+        <v>129400</v>
       </c>
       <c r="F59" s="3">
-        <v>220100</v>
+        <v>224100</v>
       </c>
       <c r="G59" s="3">
-        <v>75200</v>
+        <v>76600</v>
       </c>
       <c r="H59" s="3">
-        <v>137700</v>
+        <v>140200</v>
       </c>
       <c r="I59" s="3">
-        <v>130800</v>
+        <v>133200</v>
       </c>
       <c r="J59" s="3">
-        <v>108600</v>
+        <v>110600</v>
       </c>
       <c r="K59" s="3">
         <v>37900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>315500</v>
+        <v>321300</v>
       </c>
       <c r="E60" s="3">
-        <v>312300</v>
+        <v>318000</v>
       </c>
       <c r="F60" s="3">
-        <v>386400</v>
+        <v>393500</v>
       </c>
       <c r="G60" s="3">
-        <v>222900</v>
+        <v>227000</v>
       </c>
       <c r="H60" s="3">
-        <v>279900</v>
+        <v>285100</v>
       </c>
       <c r="I60" s="3">
-        <v>668000</v>
+        <v>680200</v>
       </c>
       <c r="J60" s="3">
-        <v>237800</v>
+        <v>242100</v>
       </c>
       <c r="K60" s="3">
         <v>131700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56300</v>
+        <v>57400</v>
       </c>
       <c r="E61" s="3">
-        <v>67200</v>
+        <v>68400</v>
       </c>
       <c r="F61" s="3">
-        <v>102500</v>
+        <v>104400</v>
       </c>
       <c r="G61" s="3">
-        <v>318500</v>
+        <v>324400</v>
       </c>
       <c r="H61" s="3">
-        <v>613900</v>
+        <v>625200</v>
       </c>
       <c r="I61" s="3">
-        <v>539700</v>
+        <v>549600</v>
       </c>
       <c r="J61" s="3">
-        <v>638700</v>
+        <v>650400</v>
       </c>
       <c r="K61" s="3">
         <v>601300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>397300</v>
+        <v>404600</v>
       </c>
       <c r="E62" s="3">
-        <v>431400</v>
+        <v>439300</v>
       </c>
       <c r="F62" s="3">
-        <v>458900</v>
+        <v>467400</v>
       </c>
       <c r="G62" s="3">
-        <v>311400</v>
+        <v>317100</v>
       </c>
       <c r="H62" s="3">
-        <v>314900</v>
+        <v>320700</v>
       </c>
       <c r="I62" s="3">
-        <v>303500</v>
+        <v>309000</v>
       </c>
       <c r="J62" s="3">
-        <v>314300</v>
+        <v>320100</v>
       </c>
       <c r="K62" s="3">
         <v>215000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>909200</v>
+        <v>925900</v>
       </c>
       <c r="E66" s="3">
-        <v>946800</v>
+        <v>964200</v>
       </c>
       <c r="F66" s="3">
-        <v>1067500</v>
+        <v>1087100</v>
       </c>
       <c r="G66" s="3">
-        <v>935800</v>
+        <v>953000</v>
       </c>
       <c r="H66" s="3">
-        <v>1265400</v>
+        <v>1288600</v>
       </c>
       <c r="I66" s="3">
-        <v>1530400</v>
+        <v>1558500</v>
       </c>
       <c r="J66" s="3">
-        <v>1203700</v>
+        <v>1225800</v>
       </c>
       <c r="K66" s="3">
         <v>959800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>794400</v>
+        <v>809000</v>
       </c>
       <c r="E72" s="3">
-        <v>685300</v>
+        <v>697900</v>
       </c>
       <c r="F72" s="3">
-        <v>343500</v>
+        <v>349800</v>
       </c>
       <c r="G72" s="3">
-        <v>-352900</v>
+        <v>-359300</v>
       </c>
       <c r="H72" s="3">
-        <v>-740000</v>
+        <v>-753600</v>
       </c>
       <c r="I72" s="3">
-        <v>-825200</v>
+        <v>-840300</v>
       </c>
       <c r="J72" s="3">
-        <v>-901900</v>
+        <v>-918500</v>
       </c>
       <c r="K72" s="3">
         <v>-941400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4063100</v>
+        <v>4137700</v>
       </c>
       <c r="E76" s="3">
-        <v>3863400</v>
+        <v>3934300</v>
       </c>
       <c r="F76" s="3">
-        <v>3474000</v>
+        <v>3537800</v>
       </c>
       <c r="G76" s="3">
-        <v>2688200</v>
+        <v>2737600</v>
       </c>
       <c r="H76" s="3">
-        <v>2175900</v>
+        <v>2215900</v>
       </c>
       <c r="I76" s="3">
-        <v>2096400</v>
+        <v>2134900</v>
       </c>
       <c r="J76" s="3">
-        <v>1951700</v>
+        <v>1987600</v>
       </c>
       <c r="K76" s="3">
         <v>1736200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>341600</v>
+        <v>347800</v>
       </c>
       <c r="E81" s="3">
-        <v>567400</v>
+        <v>577800</v>
       </c>
       <c r="F81" s="3">
-        <v>848300</v>
+        <v>863900</v>
       </c>
       <c r="G81" s="3">
-        <v>396300</v>
+        <v>403500</v>
       </c>
       <c r="H81" s="3">
-        <v>39100</v>
+        <v>39800</v>
       </c>
       <c r="I81" s="3">
-        <v>76800</v>
+        <v>78200</v>
       </c>
       <c r="J81" s="3">
-        <v>52900</v>
+        <v>53800</v>
       </c>
       <c r="K81" s="3">
         <v>-199700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>518500</v>
+        <v>528000</v>
       </c>
       <c r="E83" s="3">
-        <v>511800</v>
+        <v>521200</v>
       </c>
       <c r="F83" s="3">
-        <v>407200</v>
+        <v>414700</v>
       </c>
       <c r="G83" s="3">
-        <v>339400</v>
+        <v>345700</v>
       </c>
       <c r="H83" s="3">
-        <v>413900</v>
+        <v>421500</v>
       </c>
       <c r="I83" s="3">
-        <v>216700</v>
+        <v>220700</v>
       </c>
       <c r="J83" s="3">
-        <v>232800</v>
+        <v>237000</v>
       </c>
       <c r="K83" s="3">
         <v>192200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>804700</v>
+        <v>819500</v>
       </c>
       <c r="E89" s="3">
-        <v>978100</v>
+        <v>996000</v>
       </c>
       <c r="F89" s="3">
-        <v>1284000</v>
+        <v>1307600</v>
       </c>
       <c r="G89" s="3">
-        <v>664500</v>
+        <v>676700</v>
       </c>
       <c r="H89" s="3">
-        <v>609000</v>
+        <v>620200</v>
       </c>
       <c r="I89" s="3">
-        <v>209400</v>
+        <v>213200</v>
       </c>
       <c r="J89" s="3">
-        <v>556200</v>
+        <v>566400</v>
       </c>
       <c r="K89" s="3">
         <v>233600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-537700</v>
+        <v>-547500</v>
       </c>
       <c r="E91" s="3">
-        <v>-408300</v>
+        <v>-415800</v>
       </c>
       <c r="F91" s="3">
-        <v>-476200</v>
+        <v>-485000</v>
       </c>
       <c r="G91" s="3">
-        <v>-352700</v>
+        <v>-359200</v>
       </c>
       <c r="H91" s="3">
-        <v>-366800</v>
+        <v>-373600</v>
       </c>
       <c r="I91" s="3">
-        <v>-575500</v>
+        <v>-586100</v>
       </c>
       <c r="J91" s="3">
-        <v>-524000</v>
+        <v>-533700</v>
       </c>
       <c r="K91" s="3">
         <v>-380700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-525100</v>
+        <v>-534800</v>
       </c>
       <c r="E94" s="3">
-        <v>-386700</v>
+        <v>-393800</v>
       </c>
       <c r="F94" s="3">
-        <v>-456500</v>
+        <v>-464900</v>
       </c>
       <c r="G94" s="3">
-        <v>-360400</v>
+        <v>-367000</v>
       </c>
       <c r="H94" s="3">
-        <v>-369400</v>
+        <v>-376200</v>
       </c>
       <c r="I94" s="3">
-        <v>-468500</v>
+        <v>-477100</v>
       </c>
       <c r="J94" s="3">
-        <v>-529300</v>
+        <v>-539000</v>
       </c>
       <c r="K94" s="3">
         <v>-392800</v>
@@ -3298,16 +3298,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-230500</v>
+        <v>-234700</v>
       </c>
       <c r="E96" s="3">
-        <v>-227400</v>
+        <v>-231600</v>
       </c>
       <c r="F96" s="3">
-        <v>-155700</v>
+        <v>-158500</v>
       </c>
       <c r="G96" s="3">
-        <v>-13900</v>
+        <v>-14100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-285400</v>
+        <v>-290600</v>
       </c>
       <c r="E100" s="3">
-        <v>-316400</v>
+        <v>-322200</v>
       </c>
       <c r="F100" s="3">
-        <v>-376700</v>
+        <v>-383600</v>
       </c>
       <c r="G100" s="3">
-        <v>-254000</v>
+        <v>-258700</v>
       </c>
       <c r="H100" s="3">
-        <v>-297800</v>
+        <v>-303300</v>
       </c>
       <c r="I100" s="3">
-        <v>260700</v>
+        <v>265500</v>
       </c>
       <c r="J100" s="3">
-        <v>54700</v>
+        <v>55700</v>
       </c>
       <c r="K100" s="3">
         <v>100400</v>
@@ -3463,13 +3463,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22700</v>
+        <v>-23100</v>
       </c>
       <c r="E101" s="3">
-        <v>-13900</v>
+        <v>-14200</v>
       </c>
       <c r="F101" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="G101" s="3">
         <v>1000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-28400</v>
+        <v>-29000</v>
       </c>
       <c r="E102" s="3">
-        <v>261100</v>
+        <v>265900</v>
       </c>
       <c r="F102" s="3">
-        <v>458000</v>
+        <v>466400</v>
       </c>
       <c r="G102" s="3">
-        <v>51100</v>
+        <v>52100</v>
       </c>
       <c r="H102" s="3">
-        <v>-60400</v>
+        <v>-61500</v>
       </c>
       <c r="I102" s="3">
         <v>3800</v>
       </c>
       <c r="J102" s="3">
-        <v>80400</v>
+        <v>81900</v>
       </c>
       <c r="K102" s="3">
         <v>-63200</v>
